--- a/analysis/mails_01/P05_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P05_2/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="1203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="979">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,7 +63,7 @@
     <t xml:space="preserve">sediment</t>
   </si>
   <si>
-    <t xml:space="preserve">15/06/2021 09:05</t>
+    <t xml:space="preserve">2021-06-15</t>
   </si>
   <si>
     <t xml:space="preserve">57.3215</t>
@@ -99,7 +99,7 @@
     <t xml:space="preserve">MFD01364</t>
   </si>
   <si>
-    <t xml:space="preserve">23/06/2021 07:18</t>
+    <t xml:space="preserve">2021-06-23</t>
   </si>
   <si>
     <t xml:space="preserve">54.6923</t>
@@ -111,9 +111,6 @@
     <t xml:space="preserve">MFD01376</t>
   </si>
   <si>
-    <t xml:space="preserve">23/06/2021 04:39</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.8345</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t xml:space="preserve">MFD01380</t>
   </si>
   <si>
-    <t xml:space="preserve">15/06/2021 08:13</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.4498</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t xml:space="preserve">MFD01381</t>
   </si>
   <si>
-    <t xml:space="preserve">15/06/2021 00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.4531</t>
   </si>
   <si>
@@ -147,7 +138,7 @@
     <t xml:space="preserve">MFD01395</t>
   </si>
   <si>
-    <t xml:space="preserve">22/06/2021 06:39</t>
+    <t xml:space="preserve">2021-06-22</t>
   </si>
   <si>
     <t xml:space="preserve">55.3254</t>
@@ -159,9 +150,6 @@
     <t xml:space="preserve">MFD01430</t>
   </si>
   <si>
-    <t xml:space="preserve">22/06/2021 08:52</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.3049</t>
   </si>
   <si>
@@ -171,7 +159,7 @@
     <t xml:space="preserve">MFD01441</t>
   </si>
   <si>
-    <t xml:space="preserve">18/06/2021 05:15</t>
+    <t xml:space="preserve">2021-06-18</t>
   </si>
   <si>
     <t xml:space="preserve">57.1516</t>
@@ -183,9 +171,6 @@
     <t xml:space="preserve">MFD01463</t>
   </si>
   <si>
-    <t xml:space="preserve">22/06/2021 06:47</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.3243</t>
   </si>
   <si>
@@ -195,9 +180,6 @@
     <t xml:space="preserve">MFD01517</t>
   </si>
   <si>
-    <t xml:space="preserve">22/06/2021 09:16</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.3504</t>
   </si>
   <si>
@@ -207,7 +189,7 @@
     <t xml:space="preserve">MFD02258</t>
   </si>
   <si>
-    <t xml:space="preserve">23/07/2020 11:45</t>
+    <t xml:space="preserve">2020-07-23</t>
   </si>
   <si>
     <t xml:space="preserve">56.4405</t>
@@ -219,7 +201,7 @@
     <t xml:space="preserve">MFD02273</t>
   </si>
   <si>
-    <t xml:space="preserve">14/07/2020 07:00</t>
+    <t xml:space="preserve">2020-07-14</t>
   </si>
   <si>
     <t xml:space="preserve">56.9769</t>
@@ -231,9 +213,6 @@
     <t xml:space="preserve">MFD02275</t>
   </si>
   <si>
-    <t xml:space="preserve">23/07/2020 10:27</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.4899</t>
   </si>
   <si>
@@ -243,9 +222,6 @@
     <t xml:space="preserve">MFD02281</t>
   </si>
   <si>
-    <t xml:space="preserve">14/07/2020 07:24</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.975</t>
   </si>
   <si>
@@ -255,9 +231,6 @@
     <t xml:space="preserve">MFD02286</t>
   </si>
   <si>
-    <t xml:space="preserve">14/07/2020 11:36</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.9621</t>
   </si>
   <si>
@@ -267,7 +240,7 @@
     <t xml:space="preserve">MFD02298</t>
   </si>
   <si>
-    <t xml:space="preserve">07/07/2020 07:49</t>
+    <t xml:space="preserve">2020-07-07</t>
   </si>
   <si>
     <t xml:space="preserve">57.0868</t>
@@ -279,7 +252,7 @@
     <t xml:space="preserve">MFD02307</t>
   </si>
   <si>
-    <t xml:space="preserve">08/07/2020 09:48</t>
+    <t xml:space="preserve">2020-07-08</t>
   </si>
   <si>
     <t xml:space="preserve">56.7966</t>
@@ -291,9 +264,6 @@
     <t xml:space="preserve">MFD02310</t>
   </si>
   <si>
-    <t xml:space="preserve">08/07/2020 10:31</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.7886</t>
   </si>
   <si>
@@ -303,9 +273,6 @@
     <t xml:space="preserve">MFD02313</t>
   </si>
   <si>
-    <t xml:space="preserve">07/07/2020 05:13</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.1518</t>
   </si>
   <si>
@@ -315,7 +282,7 @@
     <t xml:space="preserve">MFD02317</t>
   </si>
   <si>
-    <t xml:space="preserve">16/07/2020 12:55</t>
+    <t xml:space="preserve">2020-07-16</t>
   </si>
   <si>
     <t xml:space="preserve">56.6367</t>
@@ -327,9 +294,6 @@
     <t xml:space="preserve">MFD02318</t>
   </si>
   <si>
-    <t xml:space="preserve">14/07/2020 09:35</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.0205</t>
   </si>
   <si>
@@ -339,9 +303,6 @@
     <t xml:space="preserve">MFD02322</t>
   </si>
   <si>
-    <t xml:space="preserve">08/07/2020 13:15</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.581</t>
   </si>
   <si>
@@ -351,7 +312,7 @@
     <t xml:space="preserve">MFD02325</t>
   </si>
   <si>
-    <t xml:space="preserve">20/07/2020 07:11</t>
+    <t xml:space="preserve">2020-07-20</t>
   </si>
   <si>
     <t xml:space="preserve">57.0442</t>
@@ -363,9 +324,6 @@
     <t xml:space="preserve">MFD02330</t>
   </si>
   <si>
-    <t xml:space="preserve">08/07/2020 14:47</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.5565</t>
   </si>
   <si>
@@ -375,7 +333,7 @@
     <t xml:space="preserve">MFD02333</t>
   </si>
   <si>
-    <t xml:space="preserve">21/07/2020 04:05</t>
+    <t xml:space="preserve">2020-07-21</t>
   </si>
   <si>
     <t xml:space="preserve">56.4669</t>
@@ -387,9 +345,6 @@
     <t xml:space="preserve">MFD02334</t>
   </si>
   <si>
-    <t xml:space="preserve">16/07/2020 13:27</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.6354</t>
   </si>
   <si>
@@ -399,7 +354,7 @@
     <t xml:space="preserve">MFD02335</t>
   </si>
   <si>
-    <t xml:space="preserve">15/07/2020 10:44</t>
+    <t xml:space="preserve">2020-07-15</t>
   </si>
   <si>
     <t xml:space="preserve">56.6484</t>
@@ -411,9 +366,6 @@
     <t xml:space="preserve">MFD02582</t>
   </si>
   <si>
-    <t xml:space="preserve">23/07/2020 07:47</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.4807</t>
   </si>
   <si>
@@ -423,9 +375,6 @@
     <t xml:space="preserve">MFD02680</t>
   </si>
   <si>
-    <t xml:space="preserve">23/07/2020 12:18</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.4359</t>
   </si>
   <si>
@@ -435,9 +384,6 @@
     <t xml:space="preserve">MFD02681</t>
   </si>
   <si>
-    <t xml:space="preserve">21/07/2020 11:57</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.4998</t>
   </si>
   <si>
@@ -447,9 +393,6 @@
     <t xml:space="preserve">MFD02682</t>
   </si>
   <si>
-    <t xml:space="preserve">21/07/2020 10:08</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.3802</t>
   </si>
   <si>
@@ -459,9 +402,6 @@
     <t xml:space="preserve">MFD02692</t>
   </si>
   <si>
-    <t xml:space="preserve">23/07/2020 14:01</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.3671</t>
   </si>
   <si>
@@ -471,7 +411,7 @@
     <t xml:space="preserve">MFD02699</t>
   </si>
   <si>
-    <t xml:space="preserve">03/08/2020 09:06</t>
+    <t xml:space="preserve">2020-08-03</t>
   </si>
   <si>
     <t xml:space="preserve">56.0927</t>
@@ -486,7 +426,7 @@
     <t xml:space="preserve">MFD02701</t>
   </si>
   <si>
-    <t xml:space="preserve">04/08/2020 07:13</t>
+    <t xml:space="preserve">2020-08-04</t>
   </si>
   <si>
     <t xml:space="preserve">55.9828</t>
@@ -498,9 +438,6 @@
     <t xml:space="preserve">MFD02702</t>
   </si>
   <si>
-    <t xml:space="preserve">21/07/2020 10:50</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.3738</t>
   </si>
   <si>
@@ -510,9 +447,6 @@
     <t xml:space="preserve">MFD02703</t>
   </si>
   <si>
-    <t xml:space="preserve">23/07/2020 13:31</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.3597</t>
   </si>
   <si>
@@ -522,7 +456,7 @@
     <t xml:space="preserve">MFD02711</t>
   </si>
   <si>
-    <t xml:space="preserve">22/07/2020 03:48</t>
+    <t xml:space="preserve">2020-07-22</t>
   </si>
   <si>
     <t xml:space="preserve">56.4734</t>
@@ -534,9 +468,6 @@
     <t xml:space="preserve">MFD02714</t>
   </si>
   <si>
-    <t xml:space="preserve">23/07/2020 06:37</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.4872</t>
   </si>
   <si>
@@ -546,9 +477,6 @@
     <t xml:space="preserve">MFD02719</t>
   </si>
   <si>
-    <t xml:space="preserve">23/07/2020 12:04</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.438</t>
   </si>
   <si>
@@ -558,9 +486,6 @@
     <t xml:space="preserve">MFD02724</t>
   </si>
   <si>
-    <t xml:space="preserve">22/07/2020 04:23</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.4742</t>
   </si>
   <si>
@@ -570,9 +495,6 @@
     <t xml:space="preserve">MFD02725</t>
   </si>
   <si>
-    <t xml:space="preserve">22/07/2020 09:08</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.1947</t>
   </si>
   <si>
@@ -582,9 +504,6 @@
     <t xml:space="preserve">MFD02726</t>
   </si>
   <si>
-    <t xml:space="preserve">22/07/2020 10:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.4506</t>
   </si>
   <si>
@@ -594,9 +513,6 @@
     <t xml:space="preserve">MFD02737</t>
   </si>
   <si>
-    <t xml:space="preserve">21/07/2020 02:54</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.5445</t>
   </si>
   <si>
@@ -606,9 +522,6 @@
     <t xml:space="preserve">MFD02739</t>
   </si>
   <si>
-    <t xml:space="preserve">20/07/2020 05:27</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.0243</t>
   </si>
   <si>
@@ -618,9 +531,6 @@
     <t xml:space="preserve">MFD02744</t>
   </si>
   <si>
-    <t xml:space="preserve">16/07/2020 06:58</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.8388</t>
   </si>
   <si>
@@ -630,9 +540,6 @@
     <t xml:space="preserve">MFD02745</t>
   </si>
   <si>
-    <t xml:space="preserve">16/07/2020 04:18</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.8834</t>
   </si>
   <si>
@@ -642,9 +549,6 @@
     <t xml:space="preserve">MFD02755</t>
   </si>
   <si>
-    <t xml:space="preserve">16/07/2020 09:35</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.7636</t>
   </si>
   <si>
@@ -654,9 +558,6 @@
     <t xml:space="preserve">MFD02764</t>
   </si>
   <si>
-    <t xml:space="preserve">16/07/2020 05:24</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.8434</t>
   </si>
   <si>
@@ -666,9 +567,6 @@
     <t xml:space="preserve">MFD02777</t>
   </si>
   <si>
-    <t xml:space="preserve">21/07/2020 07:03</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.3919</t>
   </si>
   <si>
@@ -678,9 +576,6 @@
     <t xml:space="preserve">MFD02781</t>
   </si>
   <si>
-    <t xml:space="preserve">16/07/2020 00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.7667</t>
   </si>
   <si>
@@ -696,7 +591,7 @@
     <t xml:space="preserve">MFD02782</t>
   </si>
   <si>
-    <t xml:space="preserve">17/07/2020 04:02</t>
+    <t xml:space="preserve">2020-07-17</t>
   </si>
   <si>
     <t xml:space="preserve">56.8549</t>
@@ -708,9 +603,6 @@
     <t xml:space="preserve">MFD02784</t>
   </si>
   <si>
-    <t xml:space="preserve">17/07/2020 09:48</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.705</t>
   </si>
   <si>
@@ -720,9 +612,6 @@
     <t xml:space="preserve">MFD02788</t>
   </si>
   <si>
-    <t xml:space="preserve">17/07/2020 08:08</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.8066</t>
   </si>
   <si>
@@ -732,9 +621,6 @@
     <t xml:space="preserve">MFD02790</t>
   </si>
   <si>
-    <t xml:space="preserve">23/07/2020 02:40</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.4997</t>
   </si>
   <si>
@@ -744,9 +630,6 @@
     <t xml:space="preserve">MFD02792</t>
   </si>
   <si>
-    <t xml:space="preserve">17/07/2020 10:56</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.6894</t>
   </si>
   <si>
@@ -756,9 +639,6 @@
     <t xml:space="preserve">MFD02794</t>
   </si>
   <si>
-    <t xml:space="preserve">17/07/2020 07:51</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.804</t>
   </si>
   <si>
@@ -768,9 +648,6 @@
     <t xml:space="preserve">MFD02796</t>
   </si>
   <si>
-    <t xml:space="preserve">16/07/2020 06:34</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.8395</t>
   </si>
   <si>
@@ -780,9 +657,6 @@
     <t xml:space="preserve">MFD02808</t>
   </si>
   <si>
-    <t xml:space="preserve">15/07/2020 06:04</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.8165</t>
   </si>
   <si>
@@ -792,9 +666,6 @@
     <t xml:space="preserve">MFD02815</t>
   </si>
   <si>
-    <t xml:space="preserve">15/07/2020 05:10</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.8839</t>
   </si>
   <si>
@@ -804,9 +675,6 @@
     <t xml:space="preserve">MFD02820</t>
   </si>
   <si>
-    <t xml:space="preserve">15/07/2020 08:38</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.7184</t>
   </si>
   <si>
@@ -816,9 +684,6 @@
     <t xml:space="preserve">MFD02823</t>
   </si>
   <si>
-    <t xml:space="preserve">17/07/2020 13:10</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.7753</t>
   </si>
   <si>
@@ -828,9 +693,6 @@
     <t xml:space="preserve">MFD02839</t>
   </si>
   <si>
-    <t xml:space="preserve">15/07/2020 07:57</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.7258</t>
   </si>
   <si>
@@ -840,7 +702,7 @@
     <t xml:space="preserve">MFD02975</t>
   </si>
   <si>
-    <t xml:space="preserve">10/08/2020 09:35</t>
+    <t xml:space="preserve">2020-08-10</t>
   </si>
   <si>
     <t xml:space="preserve">56.1203</t>
@@ -852,7 +714,7 @@
     <t xml:space="preserve">MFD02988</t>
   </si>
   <si>
-    <t xml:space="preserve">06/08/2020 03:23</t>
+    <t xml:space="preserve">2020-08-06</t>
   </si>
   <si>
     <t xml:space="preserve">56.1624</t>
@@ -864,7 +726,7 @@
     <t xml:space="preserve">MFD03017</t>
   </si>
   <si>
-    <t xml:space="preserve">30/07/2020 04:59</t>
+    <t xml:space="preserve">2020-07-30</t>
   </si>
   <si>
     <t xml:space="preserve">56.2334</t>
@@ -876,9 +738,6 @@
     <t xml:space="preserve">MFD03021</t>
   </si>
   <si>
-    <t xml:space="preserve">10/08/2020 11:54</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7591</t>
   </si>
   <si>
@@ -888,7 +747,7 @@
     <t xml:space="preserve">MFD03026</t>
   </si>
   <si>
-    <t xml:space="preserve">27/07/2020 10:54</t>
+    <t xml:space="preserve">2020-07-27</t>
   </si>
   <si>
     <t xml:space="preserve">56.0355</t>
@@ -900,9 +759,6 @@
     <t xml:space="preserve">MFD03028</t>
   </si>
   <si>
-    <t xml:space="preserve">30/07/2020 05:54</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.2611</t>
   </si>
   <si>
@@ -912,9 +768,6 @@
     <t xml:space="preserve">MFD03029</t>
   </si>
   <si>
-    <t xml:space="preserve">10/08/2020 10:28</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.8504</t>
   </si>
   <si>
@@ -924,9 +777,6 @@
     <t xml:space="preserve">MFD03034</t>
   </si>
   <si>
-    <t xml:space="preserve">27/07/2020 08:10</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.9347</t>
   </si>
   <si>
@@ -936,9 +786,6 @@
     <t xml:space="preserve">MFD03051</t>
   </si>
   <si>
-    <t xml:space="preserve">27/07/2020 09:02</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.9467</t>
   </si>
   <si>
@@ -948,9 +795,6 @@
     <t xml:space="preserve">MFD03055</t>
   </si>
   <si>
-    <t xml:space="preserve">27/07/2020 06:15</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.9645</t>
   </si>
   <si>
@@ -960,7 +804,7 @@
     <t xml:space="preserve">MFD03070</t>
   </si>
   <si>
-    <t xml:space="preserve">05/08/2020 11:54</t>
+    <t xml:space="preserve">2020-08-05</t>
   </si>
   <si>
     <t xml:space="preserve">56.0286</t>
@@ -972,7 +816,7 @@
     <t xml:space="preserve">MFD03076</t>
   </si>
   <si>
-    <t xml:space="preserve">29/07/2020 03:57</t>
+    <t xml:space="preserve">2020-07-29</t>
   </si>
   <si>
     <t xml:space="preserve">56.2977</t>
@@ -984,7 +828,7 @@
     <t xml:space="preserve">MFD03085</t>
   </si>
   <si>
-    <t xml:space="preserve">28/07/2020 11:43</t>
+    <t xml:space="preserve">2020-07-28</t>
   </si>
   <si>
     <t xml:space="preserve">56.414</t>
@@ -996,7 +840,7 @@
     <t xml:space="preserve">MFD03092</t>
   </si>
   <si>
-    <t xml:space="preserve">11/08/2020 02:47</t>
+    <t xml:space="preserve">2020-08-11</t>
   </si>
   <si>
     <t xml:space="preserve">56.1301</t>
@@ -1008,9 +852,6 @@
     <t xml:space="preserve">MFD03096</t>
   </si>
   <si>
-    <t xml:space="preserve">28/07/2020 05:29</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.4963</t>
   </si>
   <si>
@@ -1020,9 +861,6 @@
     <t xml:space="preserve">MFD03098</t>
   </si>
   <si>
-    <t xml:space="preserve">27/07/2020 10:20</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0373</t>
   </si>
   <si>
@@ -1032,7 +870,7 @@
     <t xml:space="preserve">MFD03610</t>
   </si>
   <si>
-    <t xml:space="preserve">27/09/2020 04:19</t>
+    <t xml:space="preserve">2020-09-27</t>
   </si>
   <si>
     <t xml:space="preserve">55.0579</t>
@@ -1044,9 +882,6 @@
     <t xml:space="preserve">MFD03616</t>
   </si>
   <si>
-    <t xml:space="preserve">27/09/2020 07:43</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.8916</t>
   </si>
   <si>
@@ -1056,9 +891,6 @@
     <t xml:space="preserve">MFD03621</t>
   </si>
   <si>
-    <t xml:space="preserve">27/09/2020 08:45</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.9251</t>
   </si>
   <si>
@@ -1068,9 +900,6 @@
     <t xml:space="preserve">MFD03624</t>
   </si>
   <si>
-    <t xml:space="preserve">27/09/2020 06:12</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.9014</t>
   </si>
   <si>
@@ -1080,9 +909,6 @@
     <t xml:space="preserve">MFD03629</t>
   </si>
   <si>
-    <t xml:space="preserve">27/09/2020 06:50</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.9157</t>
   </si>
   <si>
@@ -1092,7 +918,7 @@
     <t xml:space="preserve">MFD03636</t>
   </si>
   <si>
-    <t xml:space="preserve">26/09/2020 07:40</t>
+    <t xml:space="preserve">2020-09-26</t>
   </si>
   <si>
     <t xml:space="preserve">54.9376</t>
@@ -1104,9 +930,6 @@
     <t xml:space="preserve">MFD03638</t>
   </si>
   <si>
-    <t xml:space="preserve">26/09/2020 03:43</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.1881</t>
   </si>
   <si>
@@ -1116,9 +939,6 @@
     <t xml:space="preserve">MFD03639</t>
   </si>
   <si>
-    <t xml:space="preserve">26/09/2020 05:39</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.0534</t>
   </si>
   <si>
@@ -1128,9 +948,6 @@
     <t xml:space="preserve">MFD03657</t>
   </si>
   <si>
-    <t xml:space="preserve">26/09/2020 08:49</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.9273</t>
   </si>
   <si>
@@ -1140,7 +957,7 @@
     <t xml:space="preserve">MFD03709</t>
   </si>
   <si>
-    <t xml:space="preserve">20/09/2020 04:33</t>
+    <t xml:space="preserve">2020-09-20</t>
   </si>
   <si>
     <t xml:space="preserve">55.6387</t>
@@ -1152,7 +969,7 @@
     <t xml:space="preserve">MFD03726</t>
   </si>
   <si>
-    <t xml:space="preserve">19/09/2020 11:14</t>
+    <t xml:space="preserve">2020-09-19</t>
   </si>
   <si>
     <t xml:space="preserve">55.2451</t>
@@ -1164,9 +981,6 @@
     <t xml:space="preserve">MFD03731</t>
   </si>
   <si>
-    <t xml:space="preserve">19/09/2020 09:34</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.3607</t>
   </si>
   <si>
@@ -1176,9 +990,6 @@
     <t xml:space="preserve">MFD03732</t>
   </si>
   <si>
-    <t xml:space="preserve">20/09/2020 05:04</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6171</t>
   </si>
   <si>
@@ -1188,9 +999,6 @@
     <t xml:space="preserve">MFD03744</t>
   </si>
   <si>
-    <t xml:space="preserve">20/09/2020 03:56</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6369</t>
   </si>
   <si>
@@ -1200,7 +1008,7 @@
     <t xml:space="preserve">MFD03761</t>
   </si>
   <si>
-    <t xml:space="preserve">13/08/2020 10:14</t>
+    <t xml:space="preserve">2020-08-13</t>
   </si>
   <si>
     <t xml:space="preserve">55.7997</t>
@@ -1212,9 +1020,6 @@
     <t xml:space="preserve">MFD03764</t>
   </si>
   <si>
-    <t xml:space="preserve">03/08/2020 07:48</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.1441</t>
   </si>
   <si>
@@ -1224,9 +1029,6 @@
     <t xml:space="preserve">MFD03767</t>
   </si>
   <si>
-    <t xml:space="preserve">05/08/2020 06:48</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.8542</t>
   </si>
   <si>
@@ -1236,7 +1038,7 @@
     <t xml:space="preserve">MFD03768</t>
   </si>
   <si>
-    <t xml:space="preserve">12/08/2020 08:21</t>
+    <t xml:space="preserve">2020-08-12</t>
   </si>
   <si>
     <t xml:space="preserve">55.9025</t>
@@ -1248,9 +1050,6 @@
     <t xml:space="preserve">MFD03772</t>
   </si>
   <si>
-    <t xml:space="preserve">03/08/2020 06:19</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.1326</t>
   </si>
   <si>
@@ -1260,9 +1059,6 @@
     <t xml:space="preserve">MFD03777</t>
   </si>
   <si>
-    <t xml:space="preserve">05/08/2020 08:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.8644</t>
   </si>
   <si>
@@ -1272,9 +1068,6 @@
     <t xml:space="preserve">MFD03783</t>
   </si>
   <si>
-    <t xml:space="preserve">05/08/2020 07:14</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.8706</t>
   </si>
   <si>
@@ -1284,9 +1077,6 @@
     <t xml:space="preserve">MFD03788</t>
   </si>
   <si>
-    <t xml:space="preserve">03/08/2020 05:45</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.1361</t>
   </si>
   <si>
@@ -1296,7 +1086,7 @@
     <t xml:space="preserve">MFD03792</t>
   </si>
   <si>
-    <t xml:space="preserve">14/08/2020 09:05</t>
+    <t xml:space="preserve">2020-08-14</t>
   </si>
   <si>
     <t xml:space="preserve">55.4901</t>
@@ -1308,9 +1098,6 @@
     <t xml:space="preserve">MFD03797</t>
   </si>
   <si>
-    <t xml:space="preserve">03/08/2020 06:26</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.1331</t>
   </si>
   <si>
@@ -1320,9 +1107,6 @@
     <t xml:space="preserve">MFD03801</t>
   </si>
   <si>
-    <t xml:space="preserve">05/08/2020 09:05</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.8982</t>
   </si>
   <si>
@@ -1332,9 +1116,6 @@
     <t xml:space="preserve">MFD03802</t>
   </si>
   <si>
-    <t xml:space="preserve">12/08/2020 05:35</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0855</t>
   </si>
   <si>
@@ -1344,9 +1125,6 @@
     <t xml:space="preserve">MFD03803</t>
   </si>
   <si>
-    <t xml:space="preserve">11/08/2020 09:18</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.6129</t>
   </si>
   <si>
@@ -1356,9 +1134,6 @@
     <t xml:space="preserve">MFD03804</t>
   </si>
   <si>
-    <t xml:space="preserve">11/08/2020 08:16</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.6925</t>
   </si>
   <si>
@@ -1368,9 +1143,6 @@
     <t xml:space="preserve">MFD03818</t>
   </si>
   <si>
-    <t xml:space="preserve">12/08/2020 07:18</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.9482</t>
   </si>
   <si>
@@ -1380,9 +1152,6 @@
     <t xml:space="preserve">MFD03830</t>
   </si>
   <si>
-    <t xml:space="preserve">11/08/2020 10:48</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.4085</t>
   </si>
   <si>
@@ -1392,9 +1161,6 @@
     <t xml:space="preserve">MFD03833</t>
   </si>
   <si>
-    <t xml:space="preserve">04/08/2020 03:19</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.9141</t>
   </si>
   <si>
@@ -1404,9 +1170,6 @@
     <t xml:space="preserve">MFD03848</t>
   </si>
   <si>
-    <t xml:space="preserve">12/08/2020 09:24</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7861</t>
   </si>
   <si>
@@ -1416,9 +1179,6 @@
     <t xml:space="preserve">MFD03849</t>
   </si>
   <si>
-    <t xml:space="preserve">13/08/2020 09:36</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7231</t>
   </si>
   <si>
@@ -1428,9 +1188,6 @@
     <t xml:space="preserve">MFD03852</t>
   </si>
   <si>
-    <t xml:space="preserve">14/08/2020 09:30</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.4771</t>
   </si>
   <si>
@@ -1440,9 +1197,6 @@
     <t xml:space="preserve">MFD03858</t>
   </si>
   <si>
-    <t xml:space="preserve">11/08/2020 12:02</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.2705</t>
   </si>
   <si>
@@ -1452,9 +1206,6 @@
     <t xml:space="preserve">MFD03861</t>
   </si>
   <si>
-    <t xml:space="preserve">14/08/2020 06:10</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.469</t>
   </si>
   <si>
@@ -1464,9 +1215,6 @@
     <t xml:space="preserve">MFD03863</t>
   </si>
   <si>
-    <t xml:space="preserve">11/08/2020 10:03</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.5418</t>
   </si>
   <si>
@@ -1476,9 +1224,6 @@
     <t xml:space="preserve">MFD03873</t>
   </si>
   <si>
-    <t xml:space="preserve">13/08/2020 08:32</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.623</t>
   </si>
   <si>
@@ -1488,7 +1233,7 @@
     <t xml:space="preserve">MFD03884</t>
   </si>
   <si>
-    <t xml:space="preserve">18/09/2020 10:45</t>
+    <t xml:space="preserve">2020-09-18</t>
   </si>
   <si>
     <t xml:space="preserve">55.721</t>
@@ -1500,9 +1245,6 @@
     <t xml:space="preserve">MFD03891</t>
   </si>
   <si>
-    <t xml:space="preserve">13/08/2020 11:19</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6939</t>
   </si>
   <si>
@@ -1512,9 +1254,6 @@
     <t xml:space="preserve">MFD03913</t>
   </si>
   <si>
-    <t xml:space="preserve">12/08/2020 04:03</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0902</t>
   </si>
   <si>
@@ -1524,18 +1263,12 @@
     <t xml:space="preserve">MFD03916</t>
   </si>
   <si>
-    <t xml:space="preserve">18/09/2020 09:32</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.756</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03922</t>
   </si>
   <si>
-    <t xml:space="preserve">14/08/2020 07:41</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.4705</t>
   </si>
   <si>
@@ -1545,9 +1278,6 @@
     <t xml:space="preserve">MFD03923</t>
   </si>
   <si>
-    <t xml:space="preserve">19/09/2020 03:53</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.4852</t>
   </si>
   <si>
@@ -1557,9 +1287,6 @@
     <t xml:space="preserve">MFD03924</t>
   </si>
   <si>
-    <t xml:space="preserve">18/09/2020 04:42</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7075</t>
   </si>
   <si>
@@ -1569,9 +1296,6 @@
     <t xml:space="preserve">MFD03927</t>
   </si>
   <si>
-    <t xml:space="preserve">18/09/2020 06:03</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7556</t>
   </si>
   <si>
@@ -1581,9 +1305,6 @@
     <t xml:space="preserve">MFD03929</t>
   </si>
   <si>
-    <t xml:space="preserve">18/09/2020 05:16</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7135</t>
   </si>
   <si>
@@ -1593,9 +1314,6 @@
     <t xml:space="preserve">MFD03932</t>
   </si>
   <si>
-    <t xml:space="preserve">18/09/2020 09:05</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.8538</t>
   </si>
   <si>
@@ -1605,9 +1323,6 @@
     <t xml:space="preserve">MFD03933</t>
   </si>
   <si>
-    <t xml:space="preserve">14/08/2020 04:16</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.4857</t>
   </si>
   <si>
@@ -1617,9 +1332,6 @@
     <t xml:space="preserve">MFD03944</t>
   </si>
   <si>
-    <t xml:space="preserve">11/08/2020 04:30</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.1907</t>
   </si>
   <si>
@@ -1629,9 +1341,6 @@
     <t xml:space="preserve">MFD03945</t>
   </si>
   <si>
-    <t xml:space="preserve">18/09/2020 07:15</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7747</t>
   </si>
   <si>
@@ -1641,9 +1350,6 @@
     <t xml:space="preserve">MFD03959</t>
   </si>
   <si>
-    <t xml:space="preserve">19/09/2020 05:14</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.3586</t>
   </si>
   <si>
@@ -1653,9 +1359,6 @@
     <t xml:space="preserve">MFD03971</t>
   </si>
   <si>
-    <t xml:space="preserve">14/08/2020 07:18</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.4704</t>
   </si>
   <si>
@@ -1665,9 +1368,6 @@
     <t xml:space="preserve">MFD03974</t>
   </si>
   <si>
-    <t xml:space="preserve">13/08/2020 12:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7372</t>
   </si>
   <si>
@@ -1677,9 +1377,6 @@
     <t xml:space="preserve">MFD03978</t>
   </si>
   <si>
-    <t xml:space="preserve">27/07/2020 12:04</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.159</t>
   </si>
   <si>
@@ -1689,9 +1386,6 @@
     <t xml:space="preserve">MFD03980</t>
   </si>
   <si>
-    <t xml:space="preserve">29/07/2020 08:23</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.2587</t>
   </si>
   <si>
@@ -1701,9 +1395,6 @@
     <t xml:space="preserve">MFD03982</t>
   </si>
   <si>
-    <t xml:space="preserve">30/07/2020 03:57</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.1498</t>
   </si>
   <si>
@@ -1713,9 +1404,6 @@
     <t xml:space="preserve">MFD03986</t>
   </si>
   <si>
-    <t xml:space="preserve">10/08/2020 06:26</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.2072</t>
   </si>
   <si>
@@ -1725,9 +1413,6 @@
     <t xml:space="preserve">MFD03990</t>
   </si>
   <si>
-    <t xml:space="preserve">28/07/2020 09:53</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.3903</t>
   </si>
   <si>
@@ -1737,9 +1422,6 @@
     <t xml:space="preserve">MFD03995</t>
   </si>
   <si>
-    <t xml:space="preserve">06/08/2020 03:51</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.1689</t>
   </si>
   <si>
@@ -1749,9 +1431,6 @@
     <t xml:space="preserve">MFD03996</t>
   </si>
   <si>
-    <t xml:space="preserve">30/07/2020 07:52</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.2508</t>
   </si>
   <si>
@@ -1761,9 +1440,6 @@
     <t xml:space="preserve">MFD03999</t>
   </si>
   <si>
-    <t xml:space="preserve">13/08/2020 12:57</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6317</t>
   </si>
   <si>
@@ -1773,7 +1449,7 @@
     <t xml:space="preserve">MFD04206</t>
   </si>
   <si>
-    <t xml:space="preserve">22/11/2020 04:11</t>
+    <t xml:space="preserve">2020-11-22</t>
   </si>
   <si>
     <t xml:space="preserve">55.3845</t>
@@ -1785,9 +1461,6 @@
     <t xml:space="preserve">MFD04214</t>
   </si>
   <si>
-    <t xml:space="preserve">22/11/2020 05:17</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.3712</t>
   </si>
   <si>
@@ -1797,7 +1470,7 @@
     <t xml:space="preserve">MFD04219</t>
   </si>
   <si>
-    <t xml:space="preserve">06/12/2020 05:26</t>
+    <t xml:space="preserve">2020-12-06</t>
   </si>
   <si>
     <t xml:space="preserve">54.9604</t>
@@ -1809,7 +1482,7 @@
     <t xml:space="preserve">MFD04228</t>
   </si>
   <si>
-    <t xml:space="preserve">05/12/2020 09:03</t>
+    <t xml:space="preserve">2020-12-05</t>
   </si>
   <si>
     <t xml:space="preserve">55.3921</t>
@@ -1821,9 +1494,6 @@
     <t xml:space="preserve">MFD04248</t>
   </si>
   <si>
-    <t xml:space="preserve">05/12/2020 07:03</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.3614</t>
   </si>
   <si>
@@ -1833,7 +1503,7 @@
     <t xml:space="preserve">MFD04250</t>
   </si>
   <si>
-    <t xml:space="preserve">21/11/2020 07:51</t>
+    <t xml:space="preserve">2020-11-21</t>
   </si>
   <si>
     <t xml:space="preserve">55.3598</t>
@@ -1845,9 +1515,6 @@
     <t xml:space="preserve">MFD04262</t>
   </si>
   <si>
-    <t xml:space="preserve">21/11/2020 06:42</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.5214</t>
   </si>
   <si>
@@ -1857,9 +1524,6 @@
     <t xml:space="preserve">MFD04270</t>
   </si>
   <si>
-    <t xml:space="preserve">05/12/2020 06:49</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.3596</t>
   </si>
   <si>
@@ -1869,9 +1533,6 @@
     <t xml:space="preserve">MFD04274</t>
   </si>
   <si>
-    <t xml:space="preserve">05/12/2020 09:13</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.3905</t>
   </si>
   <si>
@@ -1881,9 +1542,6 @@
     <t xml:space="preserve">MFD04278</t>
   </si>
   <si>
-    <t xml:space="preserve">21/11/2020 04:23</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.4518</t>
   </si>
   <si>
@@ -1893,9 +1551,6 @@
     <t xml:space="preserve">MFD04281</t>
   </si>
   <si>
-    <t xml:space="preserve">21/11/2020 02:52</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.458</t>
   </si>
   <si>
@@ -1905,9 +1560,6 @@
     <t xml:space="preserve">MFD04284</t>
   </si>
   <si>
-    <t xml:space="preserve">06/12/2020 07:05</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.8078</t>
   </si>
   <si>
@@ -1917,7 +1569,7 @@
     <t xml:space="preserve">MFD04295</t>
   </si>
   <si>
-    <t xml:space="preserve">20/11/2020 08:10</t>
+    <t xml:space="preserve">2020-11-20</t>
   </si>
   <si>
     <t xml:space="preserve">55.2379</t>
@@ -1929,9 +1581,6 @@
     <t xml:space="preserve">MFD04307</t>
   </si>
   <si>
-    <t xml:space="preserve">20/11/2020 07:42</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.2271</t>
   </si>
   <si>
@@ -1941,9 +1590,6 @@
     <t xml:space="preserve">MFD04309</t>
   </si>
   <si>
-    <t xml:space="preserve">20/11/2020 10:06</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.1067</t>
   </si>
   <si>
@@ -1953,7 +1599,7 @@
     <t xml:space="preserve">MFD04317</t>
   </si>
   <si>
-    <t xml:space="preserve">15/11/2020 02:56</t>
+    <t xml:space="preserve">2020-11-15</t>
   </si>
   <si>
     <t xml:space="preserve">55.5635</t>
@@ -1965,7 +1611,7 @@
     <t xml:space="preserve">MFD04319</t>
   </si>
   <si>
-    <t xml:space="preserve">14/11/2020 11:06</t>
+    <t xml:space="preserve">2020-11-14</t>
   </si>
   <si>
     <t xml:space="preserve">55.2658</t>
@@ -1977,9 +1623,6 @@
     <t xml:space="preserve">MFD04322</t>
   </si>
   <si>
-    <t xml:space="preserve">14/11/2020 09:22</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.4309</t>
   </si>
   <si>
@@ -1989,9 +1632,6 @@
     <t xml:space="preserve">MFD04327</t>
   </si>
   <si>
-    <t xml:space="preserve">14/11/2020 02:21</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.4568</t>
   </si>
   <si>
@@ -2001,7 +1641,7 @@
     <t xml:space="preserve">MFD04340</t>
   </si>
   <si>
-    <t xml:space="preserve">13/11/2020 10:56</t>
+    <t xml:space="preserve">2020-11-13</t>
   </si>
   <si>
     <t xml:space="preserve">55.3576</t>
@@ -2013,9 +1653,6 @@
     <t xml:space="preserve">MFD04342</t>
   </si>
   <si>
-    <t xml:space="preserve">21/11/2020 08:31</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.3544</t>
   </si>
   <si>
@@ -2025,9 +1662,6 @@
     <t xml:space="preserve">MFD04345</t>
   </si>
   <si>
-    <t xml:space="preserve">14/11/2020 05:10</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.5002</t>
   </si>
   <si>
@@ -2037,9 +1671,6 @@
     <t xml:space="preserve">MFD04348</t>
   </si>
   <si>
-    <t xml:space="preserve">20/11/2020 05:57</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.2758</t>
   </si>
   <si>
@@ -2049,9 +1680,6 @@
     <t xml:space="preserve">MFD04365</t>
   </si>
   <si>
-    <t xml:space="preserve">20/11/2020 03:43</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.3099</t>
   </si>
   <si>
@@ -2061,9 +1689,6 @@
     <t xml:space="preserve">MFD04381</t>
   </si>
   <si>
-    <t xml:space="preserve">18/06/2021 05:37</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.1595</t>
   </si>
   <si>
@@ -2073,9 +1698,6 @@
     <t xml:space="preserve">MFD04382</t>
   </si>
   <si>
-    <t xml:space="preserve">20/11/2020 06:15</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.2426</t>
   </si>
   <si>
@@ -2085,9 +1707,6 @@
     <t xml:space="preserve">MFD04385</t>
   </si>
   <si>
-    <t xml:space="preserve">13/11/2020 05:35</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.0397</t>
   </si>
   <si>
@@ -2097,9 +1716,6 @@
     <t xml:space="preserve">MFD04391</t>
   </si>
   <si>
-    <t xml:space="preserve">20/11/2020 04:09</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.3136</t>
   </si>
   <si>
@@ -2109,9 +1725,6 @@
     <t xml:space="preserve">MFD04396</t>
   </si>
   <si>
-    <t xml:space="preserve">13/11/2020 07:01</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.0626</t>
   </si>
   <si>
@@ -2121,7 +1734,7 @@
     <t xml:space="preserve">MFD04399</t>
   </si>
   <si>
-    <t xml:space="preserve">28/04/2022 07:02</t>
+    <t xml:space="preserve">2022-04-28</t>
   </si>
   <si>
     <t xml:space="preserve">55.8378</t>
@@ -2133,9 +1746,6 @@
     <t xml:space="preserve">MFD04403</t>
   </si>
   <si>
-    <t xml:space="preserve">15/11/2020 05:09</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.4812</t>
   </si>
   <si>
@@ -2145,9 +1755,6 @@
     <t xml:space="preserve">MFD04406</t>
   </si>
   <si>
-    <t xml:space="preserve">13/11/2020 10:28</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.2605</t>
   </si>
   <si>
@@ -2157,18 +1764,12 @@
     <t xml:space="preserve">MFD04414</t>
   </si>
   <si>
-    <t xml:space="preserve">13/11/2020 05:46</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.414</t>
   </si>
   <si>
     <t xml:space="preserve">MFD04638</t>
   </si>
   <si>
-    <t xml:space="preserve">18/06/2021 05:57</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.1703</t>
   </si>
   <si>
@@ -2178,9 +1779,6 @@
     <t xml:space="preserve">MFD04665</t>
   </si>
   <si>
-    <t xml:space="preserve">23/06/2021 08:54</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.7718</t>
   </si>
   <si>
@@ -2190,9 +1788,6 @@
     <t xml:space="preserve">MFD04703</t>
   </si>
   <si>
-    <t xml:space="preserve">28/04/2022 05:50</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.8367</t>
   </si>
   <si>
@@ -2202,9 +1797,6 @@
     <t xml:space="preserve">MFD04723</t>
   </si>
   <si>
-    <t xml:space="preserve">23/06/2021 05:13</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.8281</t>
   </si>
   <si>
@@ -2214,7 +1806,7 @@
     <t xml:space="preserve">MFD04855</t>
   </si>
   <si>
-    <t xml:space="preserve">19/04/2022 04:45</t>
+    <t xml:space="preserve">2022-04-19</t>
   </si>
   <si>
     <t xml:space="preserve">55.8127</t>
@@ -2226,7 +1818,7 @@
     <t xml:space="preserve">MFD04980</t>
   </si>
   <si>
-    <t xml:space="preserve">16/05/2022 05:19</t>
+    <t xml:space="preserve">2022-05-16</t>
   </si>
   <si>
     <t xml:space="preserve">55.7375</t>
@@ -2238,7 +1830,7 @@
     <t xml:space="preserve">MFD05032</t>
   </si>
   <si>
-    <t xml:space="preserve">22/04/2022 02:35</t>
+    <t xml:space="preserve">2022-04-22</t>
   </si>
   <si>
     <t xml:space="preserve">55.6099</t>
@@ -2250,7 +1842,7 @@
     <t xml:space="preserve">MFD05522</t>
   </si>
   <si>
-    <t xml:space="preserve">05/05/2022 09:38</t>
+    <t xml:space="preserve">2022-05-05</t>
   </si>
   <si>
     <t xml:space="preserve">55.6159</t>
@@ -2262,7 +1854,7 @@
     <t xml:space="preserve">MFD05720</t>
   </si>
   <si>
-    <t xml:space="preserve">21/04/2022 05:22</t>
+    <t xml:space="preserve">2022-04-21</t>
   </si>
   <si>
     <t xml:space="preserve">55.5412</t>
@@ -2274,9 +1866,6 @@
     <t xml:space="preserve">MFD06812</t>
   </si>
   <si>
-    <t xml:space="preserve">22/06/2021 07:11</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.3684</t>
   </si>
   <si>
@@ -2286,9 +1875,6 @@
     <t xml:space="preserve">MFD06819</t>
   </si>
   <si>
-    <t xml:space="preserve">22/06/2021 08:33</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.406</t>
   </si>
   <si>
@@ -2298,7 +1884,7 @@
     <t xml:space="preserve">MFD06837</t>
   </si>
   <si>
-    <t xml:space="preserve">24/06/2021 09:23</t>
+    <t xml:space="preserve">2021-06-24</t>
   </si>
   <si>
     <t xml:space="preserve">55.2518</t>
@@ -2310,9 +1896,6 @@
     <t xml:space="preserve">MFD06841</t>
   </si>
   <si>
-    <t xml:space="preserve">24/06/2021 10:57</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.3315</t>
   </si>
   <si>
@@ -2322,7 +1905,7 @@
     <t xml:space="preserve">MFD06844</t>
   </si>
   <si>
-    <t xml:space="preserve">25/06/2021 03:49</t>
+    <t xml:space="preserve">2021-06-25</t>
   </si>
   <si>
     <t xml:space="preserve">55.2727</t>
@@ -2334,9 +1917,6 @@
     <t xml:space="preserve">MFD06902</t>
   </si>
   <si>
-    <t xml:space="preserve">23/06/2021 05:58</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.0025</t>
   </si>
   <si>
@@ -2346,9 +1926,6 @@
     <t xml:space="preserve">MFD06906</t>
   </si>
   <si>
-    <t xml:space="preserve">23/06/2021 04:44</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.0129</t>
   </si>
   <si>
@@ -2358,9 +1935,6 @@
     <t xml:space="preserve">MFD06907</t>
   </si>
   <si>
-    <t xml:space="preserve">23/06/2021 04:26</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.0094</t>
   </si>
   <si>
@@ -2370,9 +1944,6 @@
     <t xml:space="preserve">MFD06977</t>
   </si>
   <si>
-    <t xml:space="preserve">25/06/2021 04:37</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.4373</t>
   </si>
   <si>
@@ -2382,9 +1953,6 @@
     <t xml:space="preserve">MFD06979</t>
   </si>
   <si>
-    <t xml:space="preserve">25/06/2021 04:27</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.4367</t>
   </si>
   <si>
@@ -2394,9 +1962,6 @@
     <t xml:space="preserve">MFD06981</t>
   </si>
   <si>
-    <t xml:space="preserve">25/06/2021 03:52</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.4827</t>
   </si>
   <si>
@@ -2406,9 +1971,6 @@
     <t xml:space="preserve">MFD06985</t>
   </si>
   <si>
-    <t xml:space="preserve">25/06/2021 03:06</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.4483</t>
   </si>
   <si>
@@ -2418,9 +1980,6 @@
     <t xml:space="preserve">MFD06990</t>
   </si>
   <si>
-    <t xml:space="preserve">24/06/2021 09:19</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.9243</t>
   </si>
   <si>
@@ -2430,9 +1989,6 @@
     <t xml:space="preserve">MFD06993</t>
   </si>
   <si>
-    <t xml:space="preserve">24/06/2021 08:28</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.8999</t>
   </si>
   <si>
@@ -2442,9 +1998,6 @@
     <t xml:space="preserve">MFD06995</t>
   </si>
   <si>
-    <t xml:space="preserve">24/06/2021 08:05</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.8908</t>
   </si>
   <si>
@@ -2454,9 +2007,6 @@
     <t xml:space="preserve">MFD06999</t>
   </si>
   <si>
-    <t xml:space="preserve">24/06/2021 07:13</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.8884</t>
   </si>
   <si>
@@ -2466,9 +2016,6 @@
     <t xml:space="preserve">MFD07001</t>
   </si>
   <si>
-    <t xml:space="preserve">24/06/2021 05:44</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.7698</t>
   </si>
   <si>
@@ -2478,9 +2025,6 @@
     <t xml:space="preserve">MFD07004</t>
   </si>
   <si>
-    <t xml:space="preserve">24/06/2021 05:27</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.7608</t>
   </si>
   <si>
@@ -2490,9 +2034,6 @@
     <t xml:space="preserve">MFD07007</t>
   </si>
   <si>
-    <t xml:space="preserve">24/06/2021 04:47</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.7997</t>
   </si>
   <si>
@@ -2502,7 +2043,7 @@
     <t xml:space="preserve">MFD09355</t>
   </si>
   <si>
-    <t xml:space="preserve">20/04/2022 09:12</t>
+    <t xml:space="preserve">2022-04-20</t>
   </si>
   <si>
     <t xml:space="preserve">55.4424</t>
@@ -2514,9 +2055,6 @@
     <t xml:space="preserve">MFD09386</t>
   </si>
   <si>
-    <t xml:space="preserve">19/04/2022 05:20</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7236</t>
   </si>
   <si>
@@ -2526,9 +2064,6 @@
     <t xml:space="preserve">MFD09392</t>
   </si>
   <si>
-    <t xml:space="preserve">21/04/2022 07:34</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.5115</t>
   </si>
   <si>
@@ -2538,9 +2073,6 @@
     <t xml:space="preserve">MFD09417</t>
   </si>
   <si>
-    <t xml:space="preserve">16/05/2022 09:29</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7883</t>
   </si>
   <si>
@@ -2550,9 +2082,6 @@
     <t xml:space="preserve">MFD09425</t>
   </si>
   <si>
-    <t xml:space="preserve">19/04/2022 08:06</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.608</t>
   </si>
   <si>
@@ -2562,7 +2091,7 @@
     <t xml:space="preserve">MFD09426</t>
   </si>
   <si>
-    <t xml:space="preserve">28/09/2021 00:00</t>
+    <t xml:space="preserve">2021-09-28</t>
   </si>
   <si>
     <t xml:space="preserve">55.0692</t>
@@ -2574,9 +2103,6 @@
     <t xml:space="preserve">MFD09510</t>
   </si>
   <si>
-    <t xml:space="preserve">28/04/2022 10:27</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7672</t>
   </si>
   <si>
@@ -2586,9 +2112,6 @@
     <t xml:space="preserve">MFD09511</t>
   </si>
   <si>
-    <t xml:space="preserve">19/04/2022 04:16</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.8144</t>
   </si>
   <si>
@@ -2598,9 +2121,6 @@
     <t xml:space="preserve">MFD09513</t>
   </si>
   <si>
-    <t xml:space="preserve">22/04/2022 04:35</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6698</t>
   </si>
   <si>
@@ -2610,9 +2130,6 @@
     <t xml:space="preserve">MFD09525</t>
   </si>
   <si>
-    <t xml:space="preserve">21/04/2022 07:16</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.5085</t>
   </si>
   <si>
@@ -2622,9 +2139,6 @@
     <t xml:space="preserve">MFD09547</t>
   </si>
   <si>
-    <t xml:space="preserve">05/05/2022 06:11</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.607</t>
   </si>
   <si>
@@ -2634,9 +2148,6 @@
     <t xml:space="preserve">MFD09570</t>
   </si>
   <si>
-    <t xml:space="preserve">05/05/2022 07:25</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6152</t>
   </si>
   <si>
@@ -2646,7 +2157,7 @@
     <t xml:space="preserve">MFD09572</t>
   </si>
   <si>
-    <t xml:space="preserve">17/05/2022 03:20</t>
+    <t xml:space="preserve">2022-05-17</t>
   </si>
   <si>
     <t xml:space="preserve">55.7536</t>
@@ -2658,7 +2169,7 @@
     <t xml:space="preserve">MFD09580</t>
   </si>
   <si>
-    <t xml:space="preserve">04/05/2022 09:34</t>
+    <t xml:space="preserve">2022-05-04</t>
   </si>
   <si>
     <t xml:space="preserve">55.6767</t>
@@ -2670,9 +2181,6 @@
     <t xml:space="preserve">MFD09581</t>
   </si>
   <si>
-    <t xml:space="preserve">22/04/2022 03:12</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6175</t>
   </si>
   <si>
@@ -2682,9 +2190,6 @@
     <t xml:space="preserve">MFD09623</t>
   </si>
   <si>
-    <t xml:space="preserve">19/04/2022 09:11</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6111</t>
   </si>
   <si>
@@ -2694,7 +2199,7 @@
     <t xml:space="preserve">MFD09663</t>
   </si>
   <si>
-    <t xml:space="preserve">29/04/2022 02:39</t>
+    <t xml:space="preserve">2022-04-29</t>
   </si>
   <si>
     <t xml:space="preserve">55.6319</t>
@@ -2706,9 +2211,6 @@
     <t xml:space="preserve">MFD09668</t>
   </si>
   <si>
-    <t xml:space="preserve">04/05/2022 05:06</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6189</t>
   </si>
   <si>
@@ -2718,9 +2220,6 @@
     <t xml:space="preserve">MFD09674</t>
   </si>
   <si>
-    <t xml:space="preserve">04/05/2022 08:29</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6737</t>
   </si>
   <si>
@@ -2730,9 +2229,6 @@
     <t xml:space="preserve">MFD09696</t>
   </si>
   <si>
-    <t xml:space="preserve">17/05/2022 05:12</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.739</t>
   </si>
   <si>
@@ -2742,9 +2238,6 @@
     <t xml:space="preserve">MFD09705</t>
   </si>
   <si>
-    <t xml:space="preserve">29/04/2022 04:57</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6607</t>
   </si>
   <si>
@@ -2754,7 +2247,7 @@
     <t xml:space="preserve">MFD09708</t>
   </si>
   <si>
-    <t xml:space="preserve">23/03/2022 08:29</t>
+    <t xml:space="preserve">2022-03-23</t>
   </si>
   <si>
     <t xml:space="preserve">56.0143</t>
@@ -2766,7 +2259,7 @@
     <t xml:space="preserve">MFD09722</t>
   </si>
   <si>
-    <t xml:space="preserve">19/05/2022 03:50</t>
+    <t xml:space="preserve">2022-05-19</t>
   </si>
   <si>
     <t xml:space="preserve">55.7467</t>
@@ -2778,7 +2271,7 @@
     <t xml:space="preserve">MFD09725</t>
   </si>
   <si>
-    <t xml:space="preserve">03/05/2022 07:54</t>
+    <t xml:space="preserve">2022-05-03</t>
   </si>
   <si>
     <t xml:space="preserve">55.6446</t>
@@ -2790,7 +2283,7 @@
     <t xml:space="preserve">MFD09732</t>
   </si>
   <si>
-    <t xml:space="preserve">26/04/2022 07:19</t>
+    <t xml:space="preserve">2022-04-26</t>
   </si>
   <si>
     <t xml:space="preserve">55.9022</t>
@@ -2802,7 +2295,7 @@
     <t xml:space="preserve">MFD09734</t>
   </si>
   <si>
-    <t xml:space="preserve">18/05/2022 09:44</t>
+    <t xml:space="preserve">2022-05-18</t>
   </si>
   <si>
     <t xml:space="preserve">55.7004</t>
@@ -2814,7 +2307,7 @@
     <t xml:space="preserve">MFD09738</t>
   </si>
   <si>
-    <t xml:space="preserve">24/03/2022 10:32</t>
+    <t xml:space="preserve">2022-03-24</t>
   </si>
   <si>
     <t xml:space="preserve">12.071</t>
@@ -2823,9 +2316,6 @@
     <t xml:space="preserve">MFD09739</t>
   </si>
   <si>
-    <t xml:space="preserve">18/05/2022 03:25</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6432</t>
   </si>
   <si>
@@ -2835,9 +2325,6 @@
     <t xml:space="preserve">MFD09740</t>
   </si>
   <si>
-    <t xml:space="preserve">17/05/2022 08:35</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7245</t>
   </si>
   <si>
@@ -2847,9 +2334,6 @@
     <t xml:space="preserve">MFD09741</t>
   </si>
   <si>
-    <t xml:space="preserve">17/05/2022 04:41</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7393</t>
   </si>
   <si>
@@ -2859,9 +2343,6 @@
     <t xml:space="preserve">MFD09742</t>
   </si>
   <si>
-    <t xml:space="preserve">23/03/2022 04:50</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.9796</t>
   </si>
   <si>
@@ -2871,7 +2352,7 @@
     <t xml:space="preserve">MFD09747</t>
   </si>
   <si>
-    <t xml:space="preserve">27/04/2022 09:41</t>
+    <t xml:space="preserve">2022-04-27</t>
   </si>
   <si>
     <t xml:space="preserve">55.6674</t>
@@ -2883,7 +2364,7 @@
     <t xml:space="preserve">MFD09753</t>
   </si>
   <si>
-    <t xml:space="preserve">25/03/2022 05:37</t>
+    <t xml:space="preserve">2022-03-25</t>
   </si>
   <si>
     <t xml:space="preserve">55.793</t>
@@ -2895,9 +2376,6 @@
     <t xml:space="preserve">MFD09762</t>
   </si>
   <si>
-    <t xml:space="preserve">05/05/2022 03:44</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.5721</t>
   </si>
   <si>
@@ -2907,9 +2385,6 @@
     <t xml:space="preserve">MFD09776</t>
   </si>
   <si>
-    <t xml:space="preserve">27/04/2022 04:59</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7476</t>
   </si>
   <si>
@@ -2919,9 +2394,6 @@
     <t xml:space="preserve">MFD09777</t>
   </si>
   <si>
-    <t xml:space="preserve">23/03/2022 04:01</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.975</t>
   </si>
   <si>
@@ -2931,9 +2403,6 @@
     <t xml:space="preserve">MFD09782</t>
   </si>
   <si>
-    <t xml:space="preserve">18/05/2022 05:37</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6651</t>
   </si>
   <si>
@@ -2943,9 +2412,6 @@
     <t xml:space="preserve">MFD09784</t>
   </si>
   <si>
-    <t xml:space="preserve">27/04/2022 04:39</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7554</t>
   </si>
   <si>
@@ -2955,9 +2421,6 @@
     <t xml:space="preserve">MFD09786</t>
   </si>
   <si>
-    <t xml:space="preserve">27/04/2022 07:40</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7009</t>
   </si>
   <si>
@@ -2967,9 +2430,6 @@
     <t xml:space="preserve">MFD09790</t>
   </si>
   <si>
-    <t xml:space="preserve">23/03/2022 07:07</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0225</t>
   </si>
   <si>
@@ -2979,9 +2439,6 @@
     <t xml:space="preserve">MFD09792</t>
   </si>
   <si>
-    <t xml:space="preserve">23/03/2022 05:40</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0627</t>
   </si>
   <si>
@@ -2991,9 +2448,6 @@
     <t xml:space="preserve">MFD09807</t>
   </si>
   <si>
-    <t xml:space="preserve">18/05/2022 08:42</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6998</t>
   </si>
   <si>
@@ -3003,9 +2457,6 @@
     <t xml:space="preserve">MFD09813</t>
   </si>
   <si>
-    <t xml:space="preserve">19/05/2022 04:49</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7431</t>
   </si>
   <si>
@@ -3015,9 +2466,6 @@
     <t xml:space="preserve">MFD09820</t>
   </si>
   <si>
-    <t xml:space="preserve">03/05/2022 10:58</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6742</t>
   </si>
   <si>
@@ -3027,9 +2475,6 @@
     <t xml:space="preserve">MFD09828</t>
   </si>
   <si>
-    <t xml:space="preserve">18/05/2022 07:50</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.689</t>
   </si>
   <si>
@@ -3039,9 +2484,6 @@
     <t xml:space="preserve">MFD09839</t>
   </si>
   <si>
-    <t xml:space="preserve">21/04/2022 08:26</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.5422</t>
   </si>
   <si>
@@ -3051,9 +2493,6 @@
     <t xml:space="preserve">MFD09841</t>
   </si>
   <si>
-    <t xml:space="preserve">28/04/2022 02:37</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.9106</t>
   </si>
   <si>
@@ -3063,7 +2502,7 @@
     <t xml:space="preserve">MFD09847</t>
   </si>
   <si>
-    <t xml:space="preserve">22/03/2022 00:00</t>
+    <t xml:space="preserve">2022-03-22</t>
   </si>
   <si>
     <t xml:space="preserve">55.9605</t>
@@ -3075,9 +2514,6 @@
     <t xml:space="preserve">MFD09850</t>
   </si>
   <si>
-    <t xml:space="preserve">18/05/2022 04:21</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.653</t>
   </si>
   <si>
@@ -3087,9 +2523,6 @@
     <t xml:space="preserve">MFD09851</t>
   </si>
   <si>
-    <t xml:space="preserve">29/04/2022 04:15</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6515</t>
   </si>
   <si>
@@ -3099,9 +2532,6 @@
     <t xml:space="preserve">MFD09873</t>
   </si>
   <si>
-    <t xml:space="preserve">25/03/2022 04:47</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7846</t>
   </si>
   <si>
@@ -3111,9 +2541,6 @@
     <t xml:space="preserve">MFD09884</t>
   </si>
   <si>
-    <t xml:space="preserve">29/04/2022 03:06</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6471</t>
   </si>
   <si>
@@ -3123,9 +2550,6 @@
     <t xml:space="preserve">MFD09885</t>
   </si>
   <si>
-    <t xml:space="preserve">05/05/2022 02:36</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.593</t>
   </si>
   <si>
@@ -3135,9 +2559,6 @@
     <t xml:space="preserve">MFD09886</t>
   </si>
   <si>
-    <t xml:space="preserve">19/05/2022 03:21</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7645</t>
   </si>
   <si>
@@ -3147,9 +2568,6 @@
     <t xml:space="preserve">MFD09891</t>
   </si>
   <si>
-    <t xml:space="preserve">26/04/2022 06:41</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.9325</t>
   </si>
   <si>
@@ -3159,9 +2577,6 @@
     <t xml:space="preserve">MFD09895</t>
   </si>
   <si>
-    <t xml:space="preserve">16/05/2022 07:58</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7921</t>
   </si>
   <si>
@@ -3171,9 +2586,6 @@
     <t xml:space="preserve">MFD09903</t>
   </si>
   <si>
-    <t xml:space="preserve">17/05/2022 09:48</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7162</t>
   </si>
   <si>
@@ -3183,9 +2595,6 @@
     <t xml:space="preserve">MFD09910</t>
   </si>
   <si>
-    <t xml:space="preserve">26/04/2022 06:08</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.9404</t>
   </si>
   <si>
@@ -3195,9 +2604,6 @@
     <t xml:space="preserve">MFD09912</t>
   </si>
   <si>
-    <t xml:space="preserve">03/05/2022 08:36</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.681</t>
   </si>
   <si>
@@ -3207,9 +2613,6 @@
     <t xml:space="preserve">MFD09925</t>
   </si>
   <si>
-    <t xml:space="preserve">03/05/2022 11:49</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6631</t>
   </si>
   <si>
@@ -3219,18 +2622,12 @@
     <t xml:space="preserve">MFD09929</t>
   </si>
   <si>
-    <t xml:space="preserve">28/04/2022 03:48</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.8855</t>
   </si>
   <si>
     <t xml:space="preserve">MFD09943</t>
   </si>
   <si>
-    <t xml:space="preserve">24/03/2022 07:51</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.9209</t>
   </si>
   <si>
@@ -3240,9 +2637,6 @@
     <t xml:space="preserve">MFD09945</t>
   </si>
   <si>
-    <t xml:space="preserve">24/03/2022 06:15</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.9604</t>
   </si>
   <si>
@@ -3252,9 +2646,6 @@
     <t xml:space="preserve">MFD09960</t>
   </si>
   <si>
-    <t xml:space="preserve">17/05/2022 11:56</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7373</t>
   </si>
   <si>
@@ -3264,9 +2655,6 @@
     <t xml:space="preserve">MFD09970</t>
   </si>
   <si>
-    <t xml:space="preserve">27/04/2022 06:59</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7154</t>
   </si>
   <si>
@@ -3276,9 +2664,6 @@
     <t xml:space="preserve">MFD09975</t>
   </si>
   <si>
-    <t xml:space="preserve">24/03/2022 08:43</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.8594</t>
   </si>
   <si>
@@ -3288,9 +2673,6 @@
     <t xml:space="preserve">MFD09977</t>
   </si>
   <si>
-    <t xml:space="preserve">24/03/2022 11:49</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7888</t>
   </si>
   <si>
@@ -3300,9 +2682,6 @@
     <t xml:space="preserve">MFD09980</t>
   </si>
   <si>
-    <t xml:space="preserve">25/03/2022 05:21</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7896</t>
   </si>
   <si>
@@ -3312,9 +2691,6 @@
     <t xml:space="preserve">MFD09983</t>
   </si>
   <si>
-    <t xml:space="preserve">25/03/2022 06:07</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.8055</t>
   </si>
   <si>
@@ -3324,9 +2700,6 @@
     <t xml:space="preserve">MFD09984</t>
   </si>
   <si>
-    <t xml:space="preserve">03/05/2022 00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6276</t>
   </si>
   <si>
@@ -3336,7 +2709,7 @@
     <t xml:space="preserve">MFD10004</t>
   </si>
   <si>
-    <t xml:space="preserve">05/11/2021 04:38</t>
+    <t xml:space="preserve">2021-11-05</t>
   </si>
   <si>
     <t xml:space="preserve">55.8389</t>
@@ -3348,9 +2721,6 @@
     <t xml:space="preserve">MFD10007</t>
   </si>
   <si>
-    <t xml:space="preserve">05/11/2021 07:14</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.8579</t>
   </si>
   <si>
@@ -3360,9 +2730,6 @@
     <t xml:space="preserve">MFD10012</t>
   </si>
   <si>
-    <t xml:space="preserve">05/11/2021 08:40</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.8608</t>
   </si>
   <si>
@@ -3372,9 +2739,6 @@
     <t xml:space="preserve">MFD10015</t>
   </si>
   <si>
-    <t xml:space="preserve">05/11/2021 11:14</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.9054</t>
   </si>
   <si>
@@ -3384,9 +2748,6 @@
     <t xml:space="preserve">MFD10018</t>
   </si>
   <si>
-    <t xml:space="preserve">05/11/2021 09:27</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.8936</t>
   </si>
   <si>
@@ -3396,9 +2757,6 @@
     <t xml:space="preserve">MFD10019</t>
   </si>
   <si>
-    <t xml:space="preserve">05/11/2021 11:34</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.902</t>
   </si>
   <si>
@@ -3408,7 +2766,7 @@
     <t xml:space="preserve">MFD10026</t>
   </si>
   <si>
-    <t xml:space="preserve">06/11/2021 05:19</t>
+    <t xml:space="preserve">2021-11-06</t>
   </si>
   <si>
     <t xml:space="preserve">55.9867</t>
@@ -3420,9 +2778,6 @@
     <t xml:space="preserve">MFD10036</t>
   </si>
   <si>
-    <t xml:space="preserve">06/11/2021 07:38</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.04</t>
   </si>
   <si>
@@ -3432,9 +2787,6 @@
     <t xml:space="preserve">MFD10040</t>
   </si>
   <si>
-    <t xml:space="preserve">06/11/2021 10:26</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0984</t>
   </si>
   <si>
@@ -3444,9 +2796,6 @@
     <t xml:space="preserve">MFD10052</t>
   </si>
   <si>
-    <t xml:space="preserve">06/11/2021 09:53</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0885</t>
   </si>
   <si>
@@ -3456,9 +2805,6 @@
     <t xml:space="preserve">MFD10054</t>
   </si>
   <si>
-    <t xml:space="preserve">06/11/2021 08:30</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0763</t>
   </si>
   <si>
@@ -3468,9 +2814,6 @@
     <t xml:space="preserve">MFD10058</t>
   </si>
   <si>
-    <t xml:space="preserve">06/11/2021 12:14</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.1153</t>
   </si>
   <si>
@@ -3480,16 +2823,13 @@
     <t xml:space="preserve">MFD10597</t>
   </si>
   <si>
-    <t xml:space="preserve">16/05/2022 06:59</t>
-  </si>
-  <si>
     <t xml:space="preserve">12.1093</t>
   </si>
   <si>
     <t xml:space="preserve">MFD02326</t>
   </si>
   <si>
-    <t xml:space="preserve">02/07/2020 05:15</t>
+    <t xml:space="preserve">2020-07-02</t>
   </si>
   <si>
     <t xml:space="preserve">57.0671</t>
@@ -3504,7 +2844,7 @@
     <t xml:space="preserve">MFD02339</t>
   </si>
   <si>
-    <t xml:space="preserve">06/07/2020 07:58</t>
+    <t xml:space="preserve">2020-07-06</t>
   </si>
   <si>
     <t xml:space="preserve">57.4546</t>
@@ -3519,9 +2859,6 @@
     <t xml:space="preserve">MFD02757</t>
   </si>
   <si>
-    <t xml:space="preserve">20/07/2020 00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.0577</t>
   </si>
   <si>
@@ -3534,9 +2871,6 @@
     <t xml:space="preserve">MFD02849</t>
   </si>
   <si>
-    <t xml:space="preserve">06/07/2020 04:24</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.2751</t>
   </si>
   <si>
@@ -3549,9 +2883,6 @@
     <t xml:space="preserve">MFD03793</t>
   </si>
   <si>
-    <t xml:space="preserve">03/08/2020 11:15</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.964</t>
   </si>
   <si>
@@ -3562,9 +2893,6 @@
   </si>
   <si>
     <t xml:space="preserve">MFD03988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/07/2020 09:20</t>
   </si>
   <si>
     <t xml:space="preserve">56.252</t>
@@ -4107,13 +3435,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -4143,19 +3471,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -4185,19 +3513,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -4227,19 +3555,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
         <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -4269,19 +3597,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -4311,19 +3639,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -4353,19 +3681,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -4395,19 +3723,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
@@ -4437,19 +3765,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
@@ -4479,19 +3807,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
@@ -4521,19 +3849,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -4563,19 +3891,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -4605,19 +3933,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -4647,19 +3975,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -4689,19 +4017,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -4731,19 +4059,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -4773,19 +4101,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
@@ -4815,19 +4143,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
@@ -4857,19 +4185,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
@@ -4899,19 +4227,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
@@ -4941,19 +4269,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
@@ -4983,19 +4311,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -5025,19 +4353,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
@@ -5067,19 +4395,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
@@ -5109,19 +4437,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
@@ -5151,19 +4479,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
@@ -5193,19 +4521,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
@@ -5235,19 +4563,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
@@ -5277,19 +4605,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
@@ -5319,19 +4647,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
@@ -5361,22 +4689,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="F34" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G34" t="s">
         <v>20</v>
@@ -5403,19 +4731,19 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E35" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
@@ -5445,19 +4773,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
@@ -5487,19 +4815,19 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
@@ -5529,19 +4857,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="E38" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
@@ -5571,19 +4899,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="E39" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
@@ -5613,19 +4941,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E40" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
@@ -5655,19 +4983,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="E41" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
@@ -5697,19 +5025,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="E42" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
@@ -5739,19 +5067,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="D43" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="E43" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
@@ -5781,19 +5109,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="E44" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
@@ -5823,19 +5151,19 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="E45" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
@@ -5865,19 +5193,19 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>201</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="E46" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
@@ -5907,19 +5235,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>205</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="E47" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
@@ -5949,19 +5277,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="E48" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
@@ -5991,19 +5319,19 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>213</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
@@ -6033,19 +5361,19 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="E50" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
@@ -6075,25 +5403,25 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>221</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="E51" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" t="s">
@@ -6109,7 +5437,7 @@
         <v>24</v>
       </c>
       <c r="M51" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="N51" t="s">
         <v>26</v>
@@ -6117,19 +5445,19 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="D52" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="E52" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
@@ -6159,19 +5487,19 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D53" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="E53" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
@@ -6201,19 +5529,19 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="D54" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="E54" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
@@ -6243,19 +5571,19 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>239</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="E55" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
@@ -6285,19 +5613,19 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="D56" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="E56" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
@@ -6327,19 +5655,19 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="D57" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="E57" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
@@ -6369,19 +5697,19 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>251</v>
+        <v>89</v>
       </c>
       <c r="D58" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="E58" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
@@ -6411,19 +5739,19 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="E59" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="F59" t="s">
         <v>19</v>
@@ -6453,19 +5781,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>259</v>
+        <v>113</v>
       </c>
       <c r="D60" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="E60" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
@@ -6495,19 +5823,19 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>263</v>
+        <v>113</v>
       </c>
       <c r="D61" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="E61" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
@@ -6537,19 +5865,19 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D62" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="E62" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
@@ -6579,19 +5907,19 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>271</v>
+        <v>113</v>
       </c>
       <c r="D63" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="E63" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
@@ -6621,19 +5949,19 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="D64" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="E64" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
@@ -6663,19 +5991,19 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="D65" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="E65" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
@@ -6705,19 +6033,19 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="D66" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="E66" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
@@ -6747,19 +6075,19 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="D67" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="E67" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
@@ -6789,19 +6117,19 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="D68" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="E68" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
@@ -6831,19 +6159,19 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>295</v>
+        <v>237</v>
       </c>
       <c r="D69" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="E69" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
@@ -6873,19 +6201,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="D70" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="E70" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
@@ -6915,19 +6243,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>303</v>
+        <v>244</v>
       </c>
       <c r="D71" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="E71" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
@@ -6957,19 +6285,19 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="D72" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="E72" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
@@ -6999,19 +6327,19 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="D73" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="E73" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
@@ -7041,19 +6369,19 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="D74" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="E74" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
@@ -7083,19 +6411,19 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="D75" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="E75" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
@@ -7125,19 +6453,19 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>322</v>
+        <v>270</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="D76" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="E76" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
@@ -7167,19 +6495,19 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="D77" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="E77" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -7209,19 +6537,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>331</v>
+        <v>271</v>
       </c>
       <c r="D78" t="s">
-        <v>332</v>
+        <v>279</v>
       </c>
       <c r="E78" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -7251,19 +6579,19 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>335</v>
+        <v>244</v>
       </c>
       <c r="D79" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
       <c r="E79" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -7293,19 +6621,19 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="D80" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="E80" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -7335,19 +6663,19 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>343</v>
+        <v>285</v>
       </c>
       <c r="D81" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="E81" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -7377,19 +6705,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>347</v>
+        <v>285</v>
       </c>
       <c r="D82" t="s">
-        <v>348</v>
+        <v>292</v>
       </c>
       <c r="E82" t="s">
-        <v>349</v>
+        <v>293</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -7419,19 +6747,19 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
       <c r="D83" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="E83" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -7461,19 +6789,19 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>355</v>
+        <v>285</v>
       </c>
       <c r="D84" t="s">
-        <v>356</v>
+        <v>298</v>
       </c>
       <c r="E84" t="s">
-        <v>357</v>
+        <v>299</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -7503,19 +6831,19 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>358</v>
+        <v>300</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>359</v>
+        <v>301</v>
       </c>
       <c r="D85" t="s">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="E85" t="s">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
@@ -7545,19 +6873,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>362</v>
+        <v>304</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="D86" t="s">
-        <v>364</v>
+        <v>305</v>
       </c>
       <c r="E86" t="s">
-        <v>365</v>
+        <v>306</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
@@ -7587,19 +6915,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>366</v>
+        <v>307</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>367</v>
+        <v>301</v>
       </c>
       <c r="D87" t="s">
-        <v>368</v>
+        <v>308</v>
       </c>
       <c r="E87" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
@@ -7629,19 +6957,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="D88" t="s">
-        <v>372</v>
+        <v>311</v>
       </c>
       <c r="E88" t="s">
-        <v>373</v>
+        <v>312</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -7671,19 +6999,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>374</v>
+        <v>313</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>375</v>
+        <v>314</v>
       </c>
       <c r="D89" t="s">
-        <v>376</v>
+        <v>315</v>
       </c>
       <c r="E89" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -7713,19 +7041,19 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>378</v>
+        <v>317</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>379</v>
+        <v>318</v>
       </c>
       <c r="D90" t="s">
-        <v>380</v>
+        <v>319</v>
       </c>
       <c r="E90" t="s">
-        <v>381</v>
+        <v>320</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
@@ -7755,19 +7083,19 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>382</v>
+        <v>321</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>383</v>
+        <v>318</v>
       </c>
       <c r="D91" t="s">
-        <v>384</v>
+        <v>322</v>
       </c>
       <c r="E91" t="s">
-        <v>385</v>
+        <v>323</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
@@ -7797,19 +7125,19 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>387</v>
+        <v>314</v>
       </c>
       <c r="D92" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="E92" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
@@ -7839,19 +7167,19 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>390</v>
+        <v>327</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>391</v>
+        <v>314</v>
       </c>
       <c r="D93" t="s">
-        <v>392</v>
+        <v>328</v>
       </c>
       <c r="E93" t="s">
-        <v>393</v>
+        <v>329</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
@@ -7881,19 +7209,19 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>394</v>
+        <v>330</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="D94" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="E94" t="s">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
@@ -7923,19 +7251,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>398</v>
+        <v>334</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>399</v>
+        <v>132</v>
       </c>
       <c r="D95" t="s">
-        <v>400</v>
+        <v>335</v>
       </c>
       <c r="E95" t="s">
-        <v>401</v>
+        <v>336</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
@@ -7965,19 +7293,19 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>402</v>
+        <v>337</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>403</v>
+        <v>263</v>
       </c>
       <c r="D96" t="s">
-        <v>404</v>
+        <v>338</v>
       </c>
       <c r="E96" t="s">
-        <v>405</v>
+        <v>339</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
@@ -8007,19 +7335,19 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>406</v>
+        <v>340</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>407</v>
+        <v>341</v>
       </c>
       <c r="D97" t="s">
-        <v>408</v>
+        <v>342</v>
       </c>
       <c r="E97" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
@@ -8049,19 +7377,19 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>411</v>
+        <v>132</v>
       </c>
       <c r="D98" t="s">
-        <v>412</v>
+        <v>345</v>
       </c>
       <c r="E98" t="s">
-        <v>413</v>
+        <v>346</v>
       </c>
       <c r="F98" t="s">
         <v>19</v>
@@ -8091,19 +7419,19 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>414</v>
+        <v>347</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>415</v>
+        <v>263</v>
       </c>
       <c r="D99" t="s">
-        <v>416</v>
+        <v>348</v>
       </c>
       <c r="E99" t="s">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="F99" t="s">
         <v>19</v>
@@ -8133,19 +7461,19 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>418</v>
+        <v>350</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="D100" t="s">
-        <v>420</v>
+        <v>351</v>
       </c>
       <c r="E100" t="s">
-        <v>421</v>
+        <v>352</v>
       </c>
       <c r="F100" t="s">
         <v>19</v>
@@ -8175,19 +7503,19 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>422</v>
+        <v>353</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>423</v>
+        <v>132</v>
       </c>
       <c r="D101" t="s">
-        <v>424</v>
+        <v>354</v>
       </c>
       <c r="E101" t="s">
-        <v>425</v>
+        <v>355</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -8217,19 +7545,19 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>426</v>
+        <v>356</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>427</v>
+        <v>357</v>
       </c>
       <c r="D102" t="s">
-        <v>428</v>
+        <v>358</v>
       </c>
       <c r="E102" t="s">
-        <v>429</v>
+        <v>359</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -8259,19 +7587,19 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>430</v>
+        <v>360</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>431</v>
+        <v>132</v>
       </c>
       <c r="D103" t="s">
-        <v>432</v>
+        <v>361</v>
       </c>
       <c r="E103" t="s">
-        <v>433</v>
+        <v>362</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -8301,19 +7629,19 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>434</v>
+        <v>363</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>435</v>
+        <v>263</v>
       </c>
       <c r="D104" t="s">
-        <v>436</v>
+        <v>364</v>
       </c>
       <c r="E104" t="s">
-        <v>437</v>
+        <v>365</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -8343,19 +7671,19 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>438</v>
+        <v>366</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>439</v>
+        <v>341</v>
       </c>
       <c r="D105" t="s">
-        <v>440</v>
+        <v>367</v>
       </c>
       <c r="E105" t="s">
-        <v>441</v>
+        <v>368</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -8385,19 +7713,19 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>442</v>
+        <v>369</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>443</v>
+        <v>275</v>
       </c>
       <c r="D106" t="s">
-        <v>444</v>
+        <v>370</v>
       </c>
       <c r="E106" t="s">
-        <v>445</v>
+        <v>371</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
@@ -8427,19 +7755,19 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>447</v>
+        <v>275</v>
       </c>
       <c r="D107" t="s">
-        <v>448</v>
+        <v>373</v>
       </c>
       <c r="E107" t="s">
-        <v>449</v>
+        <v>374</v>
       </c>
       <c r="F107" t="s">
         <v>19</v>
@@ -8469,19 +7797,19 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>450</v>
+        <v>375</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>451</v>
+        <v>341</v>
       </c>
       <c r="D108" t="s">
-        <v>452</v>
+        <v>376</v>
       </c>
       <c r="E108" t="s">
-        <v>453</v>
+        <v>377</v>
       </c>
       <c r="F108" t="s">
         <v>19</v>
@@ -8511,19 +7839,19 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>454</v>
+        <v>378</v>
       </c>
       <c r="B109" t="s">
         <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>455</v>
+        <v>275</v>
       </c>
       <c r="D109" t="s">
-        <v>456</v>
+        <v>379</v>
       </c>
       <c r="E109" t="s">
-        <v>457</v>
+        <v>380</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
@@ -8553,19 +7881,19 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>458</v>
+        <v>381</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>459</v>
+        <v>137</v>
       </c>
       <c r="D110" t="s">
-        <v>460</v>
+        <v>382</v>
       </c>
       <c r="E110" t="s">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
@@ -8595,19 +7923,19 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>462</v>
+        <v>384</v>
       </c>
       <c r="B111" t="s">
         <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>463</v>
+        <v>341</v>
       </c>
       <c r="D111" t="s">
-        <v>464</v>
+        <v>385</v>
       </c>
       <c r="E111" t="s">
-        <v>465</v>
+        <v>386</v>
       </c>
       <c r="F111" t="s">
         <v>19</v>
@@ -8637,19 +7965,19 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>466</v>
+        <v>387</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>467</v>
+        <v>331</v>
       </c>
       <c r="D112" t="s">
-        <v>468</v>
+        <v>388</v>
       </c>
       <c r="E112" t="s">
-        <v>469</v>
+        <v>389</v>
       </c>
       <c r="F112" t="s">
         <v>19</v>
@@ -8679,19 +8007,19 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="B113" t="s">
         <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>471</v>
+        <v>357</v>
       </c>
       <c r="D113" t="s">
-        <v>472</v>
+        <v>391</v>
       </c>
       <c r="E113" t="s">
-        <v>473</v>
+        <v>392</v>
       </c>
       <c r="F113" t="s">
         <v>19</v>
@@ -8721,19 +8049,19 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>474</v>
+        <v>393</v>
       </c>
       <c r="B114" t="s">
         <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>475</v>
+        <v>275</v>
       </c>
       <c r="D114" t="s">
-        <v>476</v>
+        <v>394</v>
       </c>
       <c r="E114" t="s">
-        <v>477</v>
+        <v>395</v>
       </c>
       <c r="F114" t="s">
         <v>19</v>
@@ -8763,19 +8091,19 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>478</v>
+        <v>396</v>
       </c>
       <c r="B115" t="s">
         <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>479</v>
+        <v>357</v>
       </c>
       <c r="D115" t="s">
-        <v>480</v>
+        <v>397</v>
       </c>
       <c r="E115" t="s">
-        <v>481</v>
+        <v>398</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
@@ -8805,19 +8133,19 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="B116" t="s">
         <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>483</v>
+        <v>275</v>
       </c>
       <c r="D116" t="s">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="E116" t="s">
-        <v>485</v>
+        <v>401</v>
       </c>
       <c r="F116" t="s">
         <v>19</v>
@@ -8847,19 +8175,19 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>486</v>
+        <v>402</v>
       </c>
       <c r="B117" t="s">
         <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>487</v>
+        <v>331</v>
       </c>
       <c r="D117" t="s">
-        <v>488</v>
+        <v>403</v>
       </c>
       <c r="E117" t="s">
-        <v>489</v>
+        <v>404</v>
       </c>
       <c r="F117" t="s">
         <v>19</v>
@@ -8889,19 +8217,19 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>490</v>
+        <v>405</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>491</v>
+        <v>406</v>
       </c>
       <c r="D118" t="s">
-        <v>492</v>
+        <v>407</v>
       </c>
       <c r="E118" t="s">
-        <v>493</v>
+        <v>408</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
@@ -8931,19 +8259,19 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>494</v>
+        <v>409</v>
       </c>
       <c r="B119" t="s">
         <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>495</v>
+        <v>331</v>
       </c>
       <c r="D119" t="s">
-        <v>496</v>
+        <v>410</v>
       </c>
       <c r="E119" t="s">
-        <v>497</v>
+        <v>411</v>
       </c>
       <c r="F119" t="s">
         <v>19</v>
@@ -8973,19 +8301,19 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>498</v>
+        <v>412</v>
       </c>
       <c r="B120" t="s">
         <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>499</v>
+        <v>341</v>
       </c>
       <c r="D120" t="s">
-        <v>500</v>
+        <v>413</v>
       </c>
       <c r="E120" t="s">
-        <v>501</v>
+        <v>414</v>
       </c>
       <c r="F120" t="s">
         <v>19</v>
@@ -9015,19 +8343,19 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>502</v>
+        <v>415</v>
       </c>
       <c r="B121" t="s">
         <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>503</v>
+        <v>406</v>
       </c>
       <c r="D121" t="s">
-        <v>504</v>
+        <v>416</v>
       </c>
       <c r="E121" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="F121" t="s">
         <v>19</v>
@@ -9057,19 +8385,19 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>505</v>
+        <v>417</v>
       </c>
       <c r="B122" t="s">
         <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>506</v>
+        <v>357</v>
       </c>
       <c r="D122" t="s">
-        <v>507</v>
+        <v>418</v>
       </c>
       <c r="E122" t="s">
-        <v>508</v>
+        <v>419</v>
       </c>
       <c r="F122" t="s">
         <v>19</v>
@@ -9099,19 +8427,19 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>509</v>
+        <v>420</v>
       </c>
       <c r="B123" t="s">
         <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>510</v>
+        <v>318</v>
       </c>
       <c r="D123" t="s">
-        <v>511</v>
+        <v>421</v>
       </c>
       <c r="E123" t="s">
-        <v>512</v>
+        <v>422</v>
       </c>
       <c r="F123" t="s">
         <v>19</v>
@@ -9141,19 +8469,19 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>513</v>
+        <v>423</v>
       </c>
       <c r="B124" t="s">
         <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>514</v>
+        <v>406</v>
       </c>
       <c r="D124" t="s">
-        <v>515</v>
+        <v>424</v>
       </c>
       <c r="E124" t="s">
-        <v>516</v>
+        <v>425</v>
       </c>
       <c r="F124" t="s">
         <v>19</v>
@@ -9183,19 +8511,19 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>517</v>
+        <v>426</v>
       </c>
       <c r="B125" t="s">
         <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>518</v>
+        <v>406</v>
       </c>
       <c r="D125" t="s">
-        <v>519</v>
+        <v>427</v>
       </c>
       <c r="E125" t="s">
-        <v>520</v>
+        <v>428</v>
       </c>
       <c r="F125" t="s">
         <v>19</v>
@@ -9225,19 +8553,19 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>521</v>
+        <v>429</v>
       </c>
       <c r="B126" t="s">
         <v>15</v>
       </c>
       <c r="C126" t="s">
-        <v>522</v>
+        <v>406</v>
       </c>
       <c r="D126" t="s">
-        <v>523</v>
+        <v>430</v>
       </c>
       <c r="E126" t="s">
-        <v>524</v>
+        <v>431</v>
       </c>
       <c r="F126" t="s">
         <v>19</v>
@@ -9267,19 +8595,19 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>525</v>
+        <v>432</v>
       </c>
       <c r="B127" t="s">
         <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>526</v>
+        <v>406</v>
       </c>
       <c r="D127" t="s">
-        <v>527</v>
+        <v>433</v>
       </c>
       <c r="E127" t="s">
-        <v>528</v>
+        <v>434</v>
       </c>
       <c r="F127" t="s">
         <v>19</v>
@@ -9309,19 +8637,19 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>529</v>
+        <v>435</v>
       </c>
       <c r="B128" t="s">
         <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>530</v>
+        <v>357</v>
       </c>
       <c r="D128" t="s">
-        <v>531</v>
+        <v>436</v>
       </c>
       <c r="E128" t="s">
-        <v>532</v>
+        <v>437</v>
       </c>
       <c r="F128" t="s">
         <v>19</v>
@@ -9351,19 +8679,19 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>533</v>
+        <v>438</v>
       </c>
       <c r="B129" t="s">
         <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>534</v>
+        <v>275</v>
       </c>
       <c r="D129" t="s">
-        <v>535</v>
+        <v>439</v>
       </c>
       <c r="E129" t="s">
-        <v>536</v>
+        <v>440</v>
       </c>
       <c r="F129" t="s">
         <v>19</v>
@@ -9393,19 +8721,19 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>537</v>
+        <v>441</v>
       </c>
       <c r="B130" t="s">
         <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>538</v>
+        <v>406</v>
       </c>
       <c r="D130" t="s">
-        <v>539</v>
+        <v>442</v>
       </c>
       <c r="E130" t="s">
-        <v>540</v>
+        <v>443</v>
       </c>
       <c r="F130" t="s">
         <v>19</v>
@@ -9435,19 +8763,19 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>541</v>
+        <v>444</v>
       </c>
       <c r="B131" t="s">
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>542</v>
+        <v>318</v>
       </c>
       <c r="D131" t="s">
-        <v>543</v>
+        <v>445</v>
       </c>
       <c r="E131" t="s">
-        <v>544</v>
+        <v>446</v>
       </c>
       <c r="F131" t="s">
         <v>19</v>
@@ -9477,19 +8805,19 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>545</v>
+        <v>447</v>
       </c>
       <c r="B132" t="s">
         <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>546</v>
+        <v>357</v>
       </c>
       <c r="D132" t="s">
-        <v>547</v>
+        <v>448</v>
       </c>
       <c r="E132" t="s">
-        <v>548</v>
+        <v>449</v>
       </c>
       <c r="F132" t="s">
         <v>19</v>
@@ -9519,19 +8847,19 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>549</v>
+        <v>450</v>
       </c>
       <c r="B133" t="s">
         <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>550</v>
+        <v>331</v>
       </c>
       <c r="D133" t="s">
-        <v>551</v>
+        <v>451</v>
       </c>
       <c r="E133" t="s">
-        <v>552</v>
+        <v>452</v>
       </c>
       <c r="F133" t="s">
         <v>19</v>
@@ -9561,19 +8889,19 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>553</v>
+        <v>453</v>
       </c>
       <c r="B134" t="s">
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>554</v>
+        <v>244</v>
       </c>
       <c r="D134" t="s">
-        <v>555</v>
+        <v>454</v>
       </c>
       <c r="E134" t="s">
-        <v>556</v>
+        <v>455</v>
       </c>
       <c r="F134" t="s">
         <v>19</v>
@@ -9603,19 +8931,19 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>557</v>
+        <v>456</v>
       </c>
       <c r="B135" t="s">
         <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>558</v>
+        <v>267</v>
       </c>
       <c r="D135" t="s">
-        <v>559</v>
+        <v>457</v>
       </c>
       <c r="E135" t="s">
-        <v>560</v>
+        <v>458</v>
       </c>
       <c r="F135" t="s">
         <v>19</v>
@@ -9645,19 +8973,19 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>561</v>
+        <v>459</v>
       </c>
       <c r="B136" t="s">
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>562</v>
+        <v>237</v>
       </c>
       <c r="D136" t="s">
-        <v>563</v>
+        <v>460</v>
       </c>
       <c r="E136" t="s">
-        <v>564</v>
+        <v>461</v>
       </c>
       <c r="F136" t="s">
         <v>19</v>
@@ -9687,19 +9015,19 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>565</v>
+        <v>462</v>
       </c>
       <c r="B137" t="s">
         <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>566</v>
+        <v>229</v>
       </c>
       <c r="D137" t="s">
-        <v>567</v>
+        <v>463</v>
       </c>
       <c r="E137" t="s">
-        <v>568</v>
+        <v>464</v>
       </c>
       <c r="F137" t="s">
         <v>19</v>
@@ -9729,19 +9057,19 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>569</v>
+        <v>465</v>
       </c>
       <c r="B138" t="s">
         <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>570</v>
+        <v>271</v>
       </c>
       <c r="D138" t="s">
-        <v>571</v>
+        <v>466</v>
       </c>
       <c r="E138" t="s">
-        <v>572</v>
+        <v>467</v>
       </c>
       <c r="F138" t="s">
         <v>19</v>
@@ -9771,19 +9099,19 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>573</v>
+        <v>468</v>
       </c>
       <c r="B139" t="s">
         <v>15</v>
       </c>
       <c r="C139" t="s">
-        <v>574</v>
+        <v>233</v>
       </c>
       <c r="D139" t="s">
-        <v>575</v>
+        <v>469</v>
       </c>
       <c r="E139" t="s">
-        <v>576</v>
+        <v>470</v>
       </c>
       <c r="F139" t="s">
         <v>19</v>
@@ -9813,19 +9141,19 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>577</v>
+        <v>471</v>
       </c>
       <c r="B140" t="s">
         <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>578</v>
+        <v>237</v>
       </c>
       <c r="D140" t="s">
-        <v>579</v>
+        <v>472</v>
       </c>
       <c r="E140" t="s">
-        <v>580</v>
+        <v>473</v>
       </c>
       <c r="F140" t="s">
         <v>19</v>
@@ -9855,19 +9183,19 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>581</v>
+        <v>474</v>
       </c>
       <c r="B141" t="s">
         <v>15</v>
       </c>
       <c r="C141" t="s">
-        <v>582</v>
+        <v>331</v>
       </c>
       <c r="D141" t="s">
-        <v>583</v>
+        <v>475</v>
       </c>
       <c r="E141" t="s">
-        <v>584</v>
+        <v>476</v>
       </c>
       <c r="F141" t="s">
         <v>19</v>
@@ -9897,19 +9225,19 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>585</v>
+        <v>477</v>
       </c>
       <c r="B142" t="s">
         <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D142" t="s">
-        <v>587</v>
+        <v>479</v>
       </c>
       <c r="E142" t="s">
-        <v>588</v>
+        <v>480</v>
       </c>
       <c r="F142" t="s">
         <v>19</v>
@@ -9939,19 +9267,19 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>589</v>
+        <v>481</v>
       </c>
       <c r="B143" t="s">
         <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>590</v>
+        <v>478</v>
       </c>
       <c r="D143" t="s">
-        <v>591</v>
+        <v>482</v>
       </c>
       <c r="E143" t="s">
-        <v>592</v>
+        <v>483</v>
       </c>
       <c r="F143" t="s">
         <v>19</v>
@@ -9981,19 +9309,19 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>593</v>
+        <v>484</v>
       </c>
       <c r="B144" t="s">
         <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>594</v>
+        <v>485</v>
       </c>
       <c r="D144" t="s">
-        <v>595</v>
+        <v>486</v>
       </c>
       <c r="E144" t="s">
-        <v>596</v>
+        <v>487</v>
       </c>
       <c r="F144" t="s">
         <v>19</v>
@@ -10023,19 +9351,19 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>597</v>
+        <v>488</v>
       </c>
       <c r="B145" t="s">
         <v>15</v>
       </c>
       <c r="C145" t="s">
-        <v>598</v>
+        <v>489</v>
       </c>
       <c r="D145" t="s">
-        <v>599</v>
+        <v>490</v>
       </c>
       <c r="E145" t="s">
-        <v>600</v>
+        <v>491</v>
       </c>
       <c r="F145" t="s">
         <v>19</v>
@@ -10065,19 +9393,19 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>601</v>
+        <v>492</v>
       </c>
       <c r="B146" t="s">
         <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>602</v>
+        <v>489</v>
       </c>
       <c r="D146" t="s">
-        <v>603</v>
+        <v>493</v>
       </c>
       <c r="E146" t="s">
-        <v>604</v>
+        <v>494</v>
       </c>
       <c r="F146" t="s">
         <v>19</v>
@@ -10107,19 +9435,19 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>605</v>
+        <v>495</v>
       </c>
       <c r="B147" t="s">
         <v>15</v>
       </c>
       <c r="C147" t="s">
-        <v>606</v>
+        <v>496</v>
       </c>
       <c r="D147" t="s">
-        <v>607</v>
+        <v>497</v>
       </c>
       <c r="E147" t="s">
-        <v>608</v>
+        <v>498</v>
       </c>
       <c r="F147" t="s">
         <v>19</v>
@@ -10149,19 +9477,19 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>609</v>
+        <v>499</v>
       </c>
       <c r="B148" t="s">
         <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>610</v>
+        <v>496</v>
       </c>
       <c r="D148" t="s">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="E148" t="s">
-        <v>612</v>
+        <v>501</v>
       </c>
       <c r="F148" t="s">
         <v>19</v>
@@ -10191,19 +9519,19 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>613</v>
+        <v>502</v>
       </c>
       <c r="B149" t="s">
         <v>15</v>
       </c>
       <c r="C149" t="s">
-        <v>614</v>
+        <v>489</v>
       </c>
       <c r="D149" t="s">
-        <v>615</v>
+        <v>503</v>
       </c>
       <c r="E149" t="s">
-        <v>616</v>
+        <v>504</v>
       </c>
       <c r="F149" t="s">
         <v>19</v>
@@ -10233,19 +9561,19 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>617</v>
+        <v>505</v>
       </c>
       <c r="B150" t="s">
         <v>15</v>
       </c>
       <c r="C150" t="s">
-        <v>618</v>
+        <v>489</v>
       </c>
       <c r="D150" t="s">
-        <v>619</v>
+        <v>506</v>
       </c>
       <c r="E150" t="s">
-        <v>620</v>
+        <v>507</v>
       </c>
       <c r="F150" t="s">
         <v>19</v>
@@ -10275,19 +9603,19 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>621</v>
+        <v>508</v>
       </c>
       <c r="B151" t="s">
         <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>622</v>
+        <v>496</v>
       </c>
       <c r="D151" t="s">
-        <v>623</v>
+        <v>509</v>
       </c>
       <c r="E151" t="s">
-        <v>624</v>
+        <v>510</v>
       </c>
       <c r="F151" t="s">
         <v>19</v>
@@ -10317,19 +9645,19 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>625</v>
+        <v>511</v>
       </c>
       <c r="B152" t="s">
         <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>626</v>
+        <v>496</v>
       </c>
       <c r="D152" t="s">
-        <v>627</v>
+        <v>512</v>
       </c>
       <c r="E152" t="s">
-        <v>628</v>
+        <v>513</v>
       </c>
       <c r="F152" t="s">
         <v>19</v>
@@ -10359,19 +9687,19 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>629</v>
+        <v>514</v>
       </c>
       <c r="B153" t="s">
         <v>15</v>
       </c>
       <c r="C153" t="s">
-        <v>630</v>
+        <v>485</v>
       </c>
       <c r="D153" t="s">
-        <v>631</v>
+        <v>515</v>
       </c>
       <c r="E153" t="s">
-        <v>632</v>
+        <v>516</v>
       </c>
       <c r="F153" t="s">
         <v>19</v>
@@ -10401,19 +9729,19 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>633</v>
+        <v>517</v>
       </c>
       <c r="B154" t="s">
         <v>15</v>
       </c>
       <c r="C154" t="s">
-        <v>634</v>
+        <v>518</v>
       </c>
       <c r="D154" t="s">
-        <v>635</v>
+        <v>519</v>
       </c>
       <c r="E154" t="s">
-        <v>636</v>
+        <v>520</v>
       </c>
       <c r="F154" t="s">
         <v>19</v>
@@ -10443,19 +9771,19 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>637</v>
+        <v>521</v>
       </c>
       <c r="B155" t="s">
         <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>638</v>
+        <v>518</v>
       </c>
       <c r="D155" t="s">
-        <v>639</v>
+        <v>522</v>
       </c>
       <c r="E155" t="s">
-        <v>640</v>
+        <v>523</v>
       </c>
       <c r="F155" t="s">
         <v>19</v>
@@ -10485,19 +9813,19 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>641</v>
+        <v>524</v>
       </c>
       <c r="B156" t="s">
         <v>15</v>
       </c>
       <c r="C156" t="s">
-        <v>642</v>
+        <v>518</v>
       </c>
       <c r="D156" t="s">
-        <v>643</v>
+        <v>525</v>
       </c>
       <c r="E156" t="s">
-        <v>644</v>
+        <v>526</v>
       </c>
       <c r="F156" t="s">
         <v>19</v>
@@ -10527,19 +9855,19 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>645</v>
+        <v>527</v>
       </c>
       <c r="B157" t="s">
         <v>15</v>
       </c>
       <c r="C157" t="s">
-        <v>646</v>
+        <v>528</v>
       </c>
       <c r="D157" t="s">
-        <v>647</v>
+        <v>529</v>
       </c>
       <c r="E157" t="s">
-        <v>648</v>
+        <v>530</v>
       </c>
       <c r="F157" t="s">
         <v>19</v>
@@ -10569,19 +9897,19 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>649</v>
+        <v>531</v>
       </c>
       <c r="B158" t="s">
         <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>650</v>
+        <v>532</v>
       </c>
       <c r="D158" t="s">
-        <v>651</v>
+        <v>533</v>
       </c>
       <c r="E158" t="s">
-        <v>652</v>
+        <v>534</v>
       </c>
       <c r="F158" t="s">
         <v>19</v>
@@ -10611,19 +9939,19 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>653</v>
+        <v>535</v>
       </c>
       <c r="B159" t="s">
         <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>654</v>
+        <v>532</v>
       </c>
       <c r="D159" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E159" t="s">
-        <v>656</v>
+        <v>537</v>
       </c>
       <c r="F159" t="s">
         <v>19</v>
@@ -10653,19 +9981,19 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>657</v>
+        <v>538</v>
       </c>
       <c r="B160" t="s">
         <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>658</v>
+        <v>532</v>
       </c>
       <c r="D160" t="s">
-        <v>659</v>
+        <v>539</v>
       </c>
       <c r="E160" t="s">
-        <v>660</v>
+        <v>540</v>
       </c>
       <c r="F160" t="s">
         <v>19</v>
@@ -10695,19 +10023,19 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>661</v>
+        <v>541</v>
       </c>
       <c r="B161" t="s">
         <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>662</v>
+        <v>542</v>
       </c>
       <c r="D161" t="s">
-        <v>663</v>
+        <v>543</v>
       </c>
       <c r="E161" t="s">
-        <v>664</v>
+        <v>544</v>
       </c>
       <c r="F161" t="s">
         <v>19</v>
@@ -10737,19 +10065,19 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>665</v>
+        <v>545</v>
       </c>
       <c r="B162" t="s">
         <v>15</v>
       </c>
       <c r="C162" t="s">
-        <v>666</v>
+        <v>496</v>
       </c>
       <c r="D162" t="s">
-        <v>667</v>
+        <v>546</v>
       </c>
       <c r="E162" t="s">
-        <v>668</v>
+        <v>547</v>
       </c>
       <c r="F162" t="s">
         <v>19</v>
@@ -10779,19 +10107,19 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>669</v>
+        <v>548</v>
       </c>
       <c r="B163" t="s">
         <v>15</v>
       </c>
       <c r="C163" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="D163" t="s">
-        <v>671</v>
+        <v>549</v>
       </c>
       <c r="E163" t="s">
-        <v>672</v>
+        <v>550</v>
       </c>
       <c r="F163" t="s">
         <v>19</v>
@@ -10821,19 +10149,19 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>673</v>
+        <v>551</v>
       </c>
       <c r="B164" t="s">
         <v>15</v>
       </c>
       <c r="C164" t="s">
-        <v>674</v>
+        <v>518</v>
       </c>
       <c r="D164" t="s">
-        <v>675</v>
+        <v>552</v>
       </c>
       <c r="E164" t="s">
-        <v>676</v>
+        <v>553</v>
       </c>
       <c r="F164" t="s">
         <v>19</v>
@@ -10863,19 +10191,19 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>677</v>
+        <v>554</v>
       </c>
       <c r="B165" t="s">
         <v>15</v>
       </c>
       <c r="C165" t="s">
-        <v>678</v>
+        <v>518</v>
       </c>
       <c r="D165" t="s">
-        <v>679</v>
+        <v>555</v>
       </c>
       <c r="E165" t="s">
-        <v>680</v>
+        <v>556</v>
       </c>
       <c r="F165" t="s">
         <v>19</v>
@@ -10905,19 +10233,19 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>681</v>
+        <v>557</v>
       </c>
       <c r="B166" t="s">
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>682</v>
+        <v>48</v>
       </c>
       <c r="D166" t="s">
-        <v>683</v>
+        <v>558</v>
       </c>
       <c r="E166" t="s">
-        <v>684</v>
+        <v>559</v>
       </c>
       <c r="F166" t="s">
         <v>19</v>
@@ -10947,19 +10275,19 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>685</v>
+        <v>560</v>
       </c>
       <c r="B167" t="s">
         <v>15</v>
       </c>
       <c r="C167" t="s">
-        <v>686</v>
+        <v>518</v>
       </c>
       <c r="D167" t="s">
-        <v>687</v>
+        <v>561</v>
       </c>
       <c r="E167" t="s">
-        <v>688</v>
+        <v>562</v>
       </c>
       <c r="F167" t="s">
         <v>19</v>
@@ -10989,19 +10317,19 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>689</v>
+        <v>563</v>
       </c>
       <c r="B168" t="s">
         <v>15</v>
       </c>
       <c r="C168" t="s">
-        <v>690</v>
+        <v>542</v>
       </c>
       <c r="D168" t="s">
-        <v>691</v>
+        <v>564</v>
       </c>
       <c r="E168" t="s">
-        <v>692</v>
+        <v>565</v>
       </c>
       <c r="F168" t="s">
         <v>19</v>
@@ -11031,19 +10359,19 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>693</v>
+        <v>566</v>
       </c>
       <c r="B169" t="s">
         <v>15</v>
       </c>
       <c r="C169" t="s">
-        <v>694</v>
+        <v>518</v>
       </c>
       <c r="D169" t="s">
-        <v>695</v>
+        <v>567</v>
       </c>
       <c r="E169" t="s">
-        <v>696</v>
+        <v>568</v>
       </c>
       <c r="F169" t="s">
         <v>19</v>
@@ -11073,19 +10401,19 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>697</v>
+        <v>569</v>
       </c>
       <c r="B170" t="s">
         <v>15</v>
       </c>
       <c r="C170" t="s">
-        <v>698</v>
+        <v>542</v>
       </c>
       <c r="D170" t="s">
-        <v>699</v>
+        <v>570</v>
       </c>
       <c r="E170" t="s">
-        <v>700</v>
+        <v>571</v>
       </c>
       <c r="F170" t="s">
         <v>19</v>
@@ -11115,19 +10443,19 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>701</v>
+        <v>572</v>
       </c>
       <c r="B171" t="s">
         <v>15</v>
       </c>
       <c r="C171" t="s">
-        <v>702</v>
+        <v>573</v>
       </c>
       <c r="D171" t="s">
-        <v>703</v>
+        <v>574</v>
       </c>
       <c r="E171" t="s">
-        <v>704</v>
+        <v>575</v>
       </c>
       <c r="F171" t="s">
         <v>19</v>
@@ -11157,19 +10485,19 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>705</v>
+        <v>576</v>
       </c>
       <c r="B172" t="s">
         <v>15</v>
       </c>
       <c r="C172" t="s">
-        <v>706</v>
+        <v>528</v>
       </c>
       <c r="D172" t="s">
-        <v>707</v>
+        <v>577</v>
       </c>
       <c r="E172" t="s">
-        <v>708</v>
+        <v>578</v>
       </c>
       <c r="F172" t="s">
         <v>19</v>
@@ -11199,19 +10527,19 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>709</v>
+        <v>579</v>
       </c>
       <c r="B173" t="s">
         <v>15</v>
       </c>
       <c r="C173" t="s">
-        <v>710</v>
+        <v>542</v>
       </c>
       <c r="D173" t="s">
-        <v>711</v>
+        <v>580</v>
       </c>
       <c r="E173" t="s">
-        <v>712</v>
+        <v>581</v>
       </c>
       <c r="F173" t="s">
         <v>19</v>
@@ -11241,19 +10569,19 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>713</v>
+        <v>582</v>
       </c>
       <c r="B174" t="s">
         <v>15</v>
       </c>
       <c r="C174" t="s">
-        <v>714</v>
+        <v>542</v>
       </c>
       <c r="D174" t="s">
-        <v>691</v>
+        <v>564</v>
       </c>
       <c r="E174" t="s">
-        <v>715</v>
+        <v>583</v>
       </c>
       <c r="F174" t="s">
         <v>19</v>
@@ -11283,19 +10611,19 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>716</v>
+        <v>584</v>
       </c>
       <c r="B175" t="s">
         <v>15</v>
       </c>
       <c r="C175" t="s">
-        <v>717</v>
+        <v>48</v>
       </c>
       <c r="D175" t="s">
-        <v>718</v>
+        <v>585</v>
       </c>
       <c r="E175" t="s">
-        <v>719</v>
+        <v>586</v>
       </c>
       <c r="F175" t="s">
         <v>19</v>
@@ -11325,19 +10653,19 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>720</v>
+        <v>587</v>
       </c>
       <c r="B176" t="s">
         <v>15</v>
       </c>
       <c r="C176" t="s">
-        <v>721</v>
+        <v>28</v>
       </c>
       <c r="D176" t="s">
-        <v>722</v>
+        <v>588</v>
       </c>
       <c r="E176" t="s">
-        <v>723</v>
+        <v>589</v>
       </c>
       <c r="F176" t="s">
         <v>19</v>
@@ -11367,19 +10695,19 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>724</v>
+        <v>590</v>
       </c>
       <c r="B177" t="s">
         <v>15</v>
       </c>
       <c r="C177" t="s">
-        <v>725</v>
+        <v>573</v>
       </c>
       <c r="D177" t="s">
-        <v>726</v>
+        <v>591</v>
       </c>
       <c r="E177" t="s">
-        <v>727</v>
+        <v>592</v>
       </c>
       <c r="F177" t="s">
         <v>19</v>
@@ -11409,19 +10737,19 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>728</v>
+        <v>593</v>
       </c>
       <c r="B178" t="s">
         <v>15</v>
       </c>
       <c r="C178" t="s">
-        <v>729</v>
+        <v>28</v>
       </c>
       <c r="D178" t="s">
-        <v>730</v>
+        <v>594</v>
       </c>
       <c r="E178" t="s">
-        <v>731</v>
+        <v>595</v>
       </c>
       <c r="F178" t="s">
         <v>19</v>
@@ -11451,19 +10779,19 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>732</v>
+        <v>596</v>
       </c>
       <c r="B179" t="s">
         <v>15</v>
       </c>
       <c r="C179" t="s">
-        <v>733</v>
+        <v>597</v>
       </c>
       <c r="D179" t="s">
-        <v>734</v>
+        <v>598</v>
       </c>
       <c r="E179" t="s">
-        <v>735</v>
+        <v>599</v>
       </c>
       <c r="F179" t="s">
         <v>19</v>
@@ -11493,19 +10821,19 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>736</v>
+        <v>600</v>
       </c>
       <c r="B180" t="s">
         <v>15</v>
       </c>
       <c r="C180" t="s">
-        <v>737</v>
+        <v>601</v>
       </c>
       <c r="D180" t="s">
-        <v>738</v>
+        <v>602</v>
       </c>
       <c r="E180" t="s">
-        <v>739</v>
+        <v>603</v>
       </c>
       <c r="F180" t="s">
         <v>19</v>
@@ -11535,19 +10863,19 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>740</v>
+        <v>604</v>
       </c>
       <c r="B181" t="s">
         <v>15</v>
       </c>
       <c r="C181" t="s">
-        <v>741</v>
+        <v>605</v>
       </c>
       <c r="D181" t="s">
-        <v>742</v>
+        <v>606</v>
       </c>
       <c r="E181" t="s">
-        <v>743</v>
+        <v>607</v>
       </c>
       <c r="F181" t="s">
         <v>19</v>
@@ -11577,19 +10905,19 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>744</v>
+        <v>608</v>
       </c>
       <c r="B182" t="s">
         <v>15</v>
       </c>
       <c r="C182" t="s">
-        <v>745</v>
+        <v>609</v>
       </c>
       <c r="D182" t="s">
-        <v>746</v>
+        <v>610</v>
       </c>
       <c r="E182" t="s">
-        <v>747</v>
+        <v>611</v>
       </c>
       <c r="F182" t="s">
         <v>19</v>
@@ -11619,19 +10947,19 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>748</v>
+        <v>612</v>
       </c>
       <c r="B183" t="s">
         <v>15</v>
       </c>
       <c r="C183" t="s">
-        <v>749</v>
+        <v>613</v>
       </c>
       <c r="D183" t="s">
-        <v>750</v>
+        <v>614</v>
       </c>
       <c r="E183" t="s">
-        <v>751</v>
+        <v>615</v>
       </c>
       <c r="F183" t="s">
         <v>19</v>
@@ -11661,19 +10989,19 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>752</v>
+        <v>616</v>
       </c>
       <c r="B184" t="s">
         <v>15</v>
       </c>
       <c r="C184" t="s">
-        <v>753</v>
+        <v>41</v>
       </c>
       <c r="D184" t="s">
-        <v>754</v>
+        <v>617</v>
       </c>
       <c r="E184" t="s">
-        <v>755</v>
+        <v>618</v>
       </c>
       <c r="F184" t="s">
         <v>19</v>
@@ -11703,19 +11031,19 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>756</v>
+        <v>619</v>
       </c>
       <c r="B185" t="s">
         <v>15</v>
       </c>
       <c r="C185" t="s">
-        <v>757</v>
+        <v>41</v>
       </c>
       <c r="D185" t="s">
-        <v>758</v>
+        <v>620</v>
       </c>
       <c r="E185" t="s">
-        <v>759</v>
+        <v>621</v>
       </c>
       <c r="F185" t="s">
         <v>19</v>
@@ -11745,19 +11073,19 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>760</v>
+        <v>622</v>
       </c>
       <c r="B186" t="s">
         <v>15</v>
       </c>
       <c r="C186" t="s">
-        <v>761</v>
+        <v>623</v>
       </c>
       <c r="D186" t="s">
-        <v>762</v>
+        <v>624</v>
       </c>
       <c r="E186" t="s">
-        <v>763</v>
+        <v>625</v>
       </c>
       <c r="F186" t="s">
         <v>19</v>
@@ -11787,19 +11115,19 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>764</v>
+        <v>626</v>
       </c>
       <c r="B187" t="s">
         <v>15</v>
       </c>
       <c r="C187" t="s">
-        <v>765</v>
+        <v>623</v>
       </c>
       <c r="D187" t="s">
-        <v>766</v>
+        <v>627</v>
       </c>
       <c r="E187" t="s">
-        <v>767</v>
+        <v>628</v>
       </c>
       <c r="F187" t="s">
         <v>19</v>
@@ -11829,19 +11157,19 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>768</v>
+        <v>629</v>
       </c>
       <c r="B188" t="s">
         <v>15</v>
       </c>
       <c r="C188" t="s">
-        <v>769</v>
+        <v>630</v>
       </c>
       <c r="D188" t="s">
-        <v>770</v>
+        <v>631</v>
       </c>
       <c r="E188" t="s">
-        <v>771</v>
+        <v>632</v>
       </c>
       <c r="F188" t="s">
         <v>19</v>
@@ -11871,19 +11199,19 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>772</v>
+        <v>633</v>
       </c>
       <c r="B189" t="s">
         <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>773</v>
+        <v>28</v>
       </c>
       <c r="D189" t="s">
-        <v>774</v>
+        <v>634</v>
       </c>
       <c r="E189" t="s">
-        <v>775</v>
+        <v>635</v>
       </c>
       <c r="F189" t="s">
         <v>19</v>
@@ -11913,19 +11241,19 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>776</v>
+        <v>636</v>
       </c>
       <c r="B190" t="s">
         <v>15</v>
       </c>
       <c r="C190" t="s">
-        <v>777</v>
+        <v>28</v>
       </c>
       <c r="D190" t="s">
-        <v>778</v>
+        <v>637</v>
       </c>
       <c r="E190" t="s">
-        <v>779</v>
+        <v>638</v>
       </c>
       <c r="F190" t="s">
         <v>19</v>
@@ -11955,19 +11283,19 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>780</v>
+        <v>639</v>
       </c>
       <c r="B191" t="s">
         <v>15</v>
       </c>
       <c r="C191" t="s">
-        <v>781</v>
+        <v>28</v>
       </c>
       <c r="D191" t="s">
-        <v>782</v>
+        <v>640</v>
       </c>
       <c r="E191" t="s">
-        <v>783</v>
+        <v>641</v>
       </c>
       <c r="F191" t="s">
         <v>19</v>
@@ -11997,19 +11325,19 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>784</v>
+        <v>642</v>
       </c>
       <c r="B192" t="s">
         <v>15</v>
       </c>
       <c r="C192" t="s">
-        <v>785</v>
+        <v>630</v>
       </c>
       <c r="D192" t="s">
-        <v>786</v>
+        <v>643</v>
       </c>
       <c r="E192" t="s">
-        <v>787</v>
+        <v>644</v>
       </c>
       <c r="F192" t="s">
         <v>19</v>
@@ -12039,19 +11367,19 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>788</v>
+        <v>645</v>
       </c>
       <c r="B193" t="s">
         <v>15</v>
       </c>
       <c r="C193" t="s">
-        <v>789</v>
+        <v>630</v>
       </c>
       <c r="D193" t="s">
-        <v>790</v>
+        <v>646</v>
       </c>
       <c r="E193" t="s">
-        <v>791</v>
+        <v>647</v>
       </c>
       <c r="F193" t="s">
         <v>19</v>
@@ -12081,19 +11409,19 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>792</v>
+        <v>648</v>
       </c>
       <c r="B194" t="s">
         <v>15</v>
       </c>
       <c r="C194" t="s">
-        <v>793</v>
+        <v>630</v>
       </c>
       <c r="D194" t="s">
-        <v>794</v>
+        <v>649</v>
       </c>
       <c r="E194" t="s">
-        <v>795</v>
+        <v>650</v>
       </c>
       <c r="F194" t="s">
         <v>19</v>
@@ -12123,19 +11451,19 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>796</v>
+        <v>651</v>
       </c>
       <c r="B195" t="s">
         <v>15</v>
       </c>
       <c r="C195" t="s">
-        <v>797</v>
+        <v>630</v>
       </c>
       <c r="D195" t="s">
-        <v>798</v>
+        <v>652</v>
       </c>
       <c r="E195" t="s">
-        <v>799</v>
+        <v>653</v>
       </c>
       <c r="F195" t="s">
         <v>19</v>
@@ -12165,19 +11493,19 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>800</v>
+        <v>654</v>
       </c>
       <c r="B196" t="s">
         <v>15</v>
       </c>
       <c r="C196" t="s">
-        <v>801</v>
+        <v>623</v>
       </c>
       <c r="D196" t="s">
-        <v>802</v>
+        <v>655</v>
       </c>
       <c r="E196" t="s">
-        <v>803</v>
+        <v>656</v>
       </c>
       <c r="F196" t="s">
         <v>19</v>
@@ -12207,19 +11535,19 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>804</v>
+        <v>657</v>
       </c>
       <c r="B197" t="s">
         <v>15</v>
       </c>
       <c r="C197" t="s">
-        <v>805</v>
+        <v>623</v>
       </c>
       <c r="D197" t="s">
-        <v>806</v>
+        <v>658</v>
       </c>
       <c r="E197" t="s">
-        <v>807</v>
+        <v>659</v>
       </c>
       <c r="F197" t="s">
         <v>19</v>
@@ -12249,19 +11577,19 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>808</v>
+        <v>660</v>
       </c>
       <c r="B198" t="s">
         <v>15</v>
       </c>
       <c r="C198" t="s">
-        <v>809</v>
+        <v>623</v>
       </c>
       <c r="D198" t="s">
-        <v>810</v>
+        <v>661</v>
       </c>
       <c r="E198" t="s">
-        <v>811</v>
+        <v>662</v>
       </c>
       <c r="F198" t="s">
         <v>19</v>
@@ -12291,19 +11619,19 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>812</v>
+        <v>663</v>
       </c>
       <c r="B199" t="s">
         <v>15</v>
       </c>
       <c r="C199" t="s">
-        <v>813</v>
+        <v>623</v>
       </c>
       <c r="D199" t="s">
-        <v>814</v>
+        <v>664</v>
       </c>
       <c r="E199" t="s">
-        <v>815</v>
+        <v>665</v>
       </c>
       <c r="F199" t="s">
         <v>19</v>
@@ -12333,19 +11661,19 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>816</v>
+        <v>666</v>
       </c>
       <c r="B200" t="s">
         <v>15</v>
       </c>
       <c r="C200" t="s">
-        <v>817</v>
+        <v>623</v>
       </c>
       <c r="D200" t="s">
-        <v>818</v>
+        <v>667</v>
       </c>
       <c r="E200" t="s">
-        <v>819</v>
+        <v>668</v>
       </c>
       <c r="F200" t="s">
         <v>19</v>
@@ -12375,19 +11703,19 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>820</v>
+        <v>669</v>
       </c>
       <c r="B201" t="s">
         <v>15</v>
       </c>
       <c r="C201" t="s">
-        <v>821</v>
+        <v>623</v>
       </c>
       <c r="D201" t="s">
-        <v>822</v>
+        <v>670</v>
       </c>
       <c r="E201" t="s">
-        <v>823</v>
+        <v>671</v>
       </c>
       <c r="F201" t="s">
         <v>19</v>
@@ -12417,19 +11745,19 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>824</v>
+        <v>672</v>
       </c>
       <c r="B202" t="s">
         <v>15</v>
       </c>
       <c r="C202" t="s">
-        <v>825</v>
+        <v>623</v>
       </c>
       <c r="D202" t="s">
-        <v>826</v>
+        <v>673</v>
       </c>
       <c r="E202" t="s">
-        <v>827</v>
+        <v>674</v>
       </c>
       <c r="F202" t="s">
         <v>19</v>
@@ -12459,19 +11787,19 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>828</v>
+        <v>675</v>
       </c>
       <c r="B203" t="s">
         <v>15</v>
       </c>
       <c r="C203" t="s">
-        <v>829</v>
+        <v>676</v>
       </c>
       <c r="D203" t="s">
-        <v>830</v>
+        <v>677</v>
       </c>
       <c r="E203" t="s">
-        <v>831</v>
+        <v>678</v>
       </c>
       <c r="F203" t="s">
         <v>19</v>
@@ -12501,19 +11829,19 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>832</v>
+        <v>679</v>
       </c>
       <c r="B204" t="s">
         <v>15</v>
       </c>
       <c r="C204" t="s">
-        <v>833</v>
+        <v>597</v>
       </c>
       <c r="D204" t="s">
-        <v>834</v>
+        <v>680</v>
       </c>
       <c r="E204" t="s">
-        <v>835</v>
+        <v>681</v>
       </c>
       <c r="F204" t="s">
         <v>19</v>
@@ -12543,19 +11871,19 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>836</v>
+        <v>682</v>
       </c>
       <c r="B205" t="s">
         <v>15</v>
       </c>
       <c r="C205" t="s">
-        <v>837</v>
+        <v>613</v>
       </c>
       <c r="D205" t="s">
-        <v>838</v>
+        <v>683</v>
       </c>
       <c r="E205" t="s">
-        <v>839</v>
+        <v>684</v>
       </c>
       <c r="F205" t="s">
         <v>19</v>
@@ -12585,19 +11913,19 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>840</v>
+        <v>685</v>
       </c>
       <c r="B206" t="s">
         <v>15</v>
       </c>
       <c r="C206" t="s">
-        <v>841</v>
+        <v>601</v>
       </c>
       <c r="D206" t="s">
-        <v>842</v>
+        <v>686</v>
       </c>
       <c r="E206" t="s">
-        <v>843</v>
+        <v>687</v>
       </c>
       <c r="F206" t="s">
         <v>19</v>
@@ -12627,19 +11955,19 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>844</v>
+        <v>688</v>
       </c>
       <c r="B207" t="s">
         <v>15</v>
       </c>
       <c r="C207" t="s">
-        <v>845</v>
+        <v>597</v>
       </c>
       <c r="D207" t="s">
-        <v>846</v>
+        <v>689</v>
       </c>
       <c r="E207" t="s">
-        <v>847</v>
+        <v>690</v>
       </c>
       <c r="F207" t="s">
         <v>19</v>
@@ -12669,19 +11997,19 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>848</v>
+        <v>691</v>
       </c>
       <c r="B208" t="s">
         <v>15</v>
       </c>
       <c r="C208" t="s">
-        <v>849</v>
+        <v>692</v>
       </c>
       <c r="D208" t="s">
-        <v>850</v>
+        <v>693</v>
       </c>
       <c r="E208" t="s">
-        <v>851</v>
+        <v>694</v>
       </c>
       <c r="F208" t="s">
         <v>19</v>
@@ -12711,19 +12039,19 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>852</v>
+        <v>695</v>
       </c>
       <c r="B209" t="s">
         <v>15</v>
       </c>
       <c r="C209" t="s">
-        <v>853</v>
+        <v>573</v>
       </c>
       <c r="D209" t="s">
-        <v>854</v>
+        <v>696</v>
       </c>
       <c r="E209" t="s">
-        <v>855</v>
+        <v>697</v>
       </c>
       <c r="F209" t="s">
         <v>19</v>
@@ -12753,19 +12081,19 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>856</v>
+        <v>698</v>
       </c>
       <c r="B210" t="s">
         <v>15</v>
       </c>
       <c r="C210" t="s">
-        <v>857</v>
+        <v>597</v>
       </c>
       <c r="D210" t="s">
-        <v>858</v>
+        <v>699</v>
       </c>
       <c r="E210" t="s">
-        <v>859</v>
+        <v>700</v>
       </c>
       <c r="F210" t="s">
         <v>19</v>
@@ -12795,19 +12123,19 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>860</v>
+        <v>701</v>
       </c>
       <c r="B211" t="s">
         <v>15</v>
       </c>
       <c r="C211" t="s">
-        <v>861</v>
+        <v>605</v>
       </c>
       <c r="D211" t="s">
-        <v>862</v>
+        <v>702</v>
       </c>
       <c r="E211" t="s">
-        <v>863</v>
+        <v>703</v>
       </c>
       <c r="F211" t="s">
         <v>19</v>
@@ -12837,19 +12165,19 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>864</v>
+        <v>704</v>
       </c>
       <c r="B212" t="s">
         <v>15</v>
       </c>
       <c r="C212" t="s">
-        <v>865</v>
+        <v>613</v>
       </c>
       <c r="D212" t="s">
-        <v>866</v>
+        <v>705</v>
       </c>
       <c r="E212" t="s">
-        <v>867</v>
+        <v>706</v>
       </c>
       <c r="F212" t="s">
         <v>19</v>
@@ -12879,19 +12207,19 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>868</v>
+        <v>707</v>
       </c>
       <c r="B213" t="s">
         <v>15</v>
       </c>
       <c r="C213" t="s">
-        <v>869</v>
+        <v>609</v>
       </c>
       <c r="D213" t="s">
-        <v>870</v>
+        <v>708</v>
       </c>
       <c r="E213" t="s">
-        <v>871</v>
+        <v>709</v>
       </c>
       <c r="F213" t="s">
         <v>19</v>
@@ -12921,19 +12249,19 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>872</v>
+        <v>710</v>
       </c>
       <c r="B214" t="s">
         <v>15</v>
       </c>
       <c r="C214" t="s">
-        <v>873</v>
+        <v>609</v>
       </c>
       <c r="D214" t="s">
-        <v>874</v>
+        <v>711</v>
       </c>
       <c r="E214" t="s">
-        <v>875</v>
+        <v>712</v>
       </c>
       <c r="F214" t="s">
         <v>19</v>
@@ -12963,19 +12291,19 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>876</v>
+        <v>713</v>
       </c>
       <c r="B215" t="s">
         <v>15</v>
       </c>
       <c r="C215" t="s">
-        <v>877</v>
+        <v>714</v>
       </c>
       <c r="D215" t="s">
-        <v>878</v>
+        <v>715</v>
       </c>
       <c r="E215" t="s">
-        <v>879</v>
+        <v>716</v>
       </c>
       <c r="F215" t="s">
         <v>19</v>
@@ -13005,19 +12333,19 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>880</v>
+        <v>717</v>
       </c>
       <c r="B216" t="s">
         <v>15</v>
       </c>
       <c r="C216" t="s">
-        <v>881</v>
+        <v>718</v>
       </c>
       <c r="D216" t="s">
-        <v>882</v>
+        <v>719</v>
       </c>
       <c r="E216" t="s">
-        <v>883</v>
+        <v>720</v>
       </c>
       <c r="F216" t="s">
         <v>19</v>
@@ -13047,19 +12375,19 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>884</v>
+        <v>721</v>
       </c>
       <c r="B217" t="s">
         <v>15</v>
       </c>
       <c r="C217" t="s">
-        <v>885</v>
+        <v>605</v>
       </c>
       <c r="D217" t="s">
-        <v>886</v>
+        <v>722</v>
       </c>
       <c r="E217" t="s">
-        <v>887</v>
+        <v>723</v>
       </c>
       <c r="F217" t="s">
         <v>19</v>
@@ -13089,19 +12417,19 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>888</v>
+        <v>724</v>
       </c>
       <c r="B218" t="s">
         <v>15</v>
       </c>
       <c r="C218" t="s">
-        <v>889</v>
+        <v>597</v>
       </c>
       <c r="D218" t="s">
-        <v>890</v>
+        <v>725</v>
       </c>
       <c r="E218" t="s">
-        <v>891</v>
+        <v>726</v>
       </c>
       <c r="F218" t="s">
         <v>19</v>
@@ -13131,19 +12459,19 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>892</v>
+        <v>727</v>
       </c>
       <c r="B219" t="s">
         <v>15</v>
       </c>
       <c r="C219" t="s">
-        <v>893</v>
+        <v>728</v>
       </c>
       <c r="D219" t="s">
-        <v>894</v>
+        <v>729</v>
       </c>
       <c r="E219" t="s">
-        <v>895</v>
+        <v>730</v>
       </c>
       <c r="F219" t="s">
         <v>19</v>
@@ -13173,19 +12501,19 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>896</v>
+        <v>731</v>
       </c>
       <c r="B220" t="s">
         <v>15</v>
       </c>
       <c r="C220" t="s">
-        <v>897</v>
+        <v>718</v>
       </c>
       <c r="D220" t="s">
-        <v>898</v>
+        <v>732</v>
       </c>
       <c r="E220" t="s">
-        <v>899</v>
+        <v>733</v>
       </c>
       <c r="F220" t="s">
         <v>19</v>
@@ -13215,19 +12543,19 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>900</v>
+        <v>734</v>
       </c>
       <c r="B221" t="s">
         <v>15</v>
       </c>
       <c r="C221" t="s">
-        <v>901</v>
+        <v>718</v>
       </c>
       <c r="D221" t="s">
-        <v>902</v>
+        <v>735</v>
       </c>
       <c r="E221" t="s">
-        <v>903</v>
+        <v>736</v>
       </c>
       <c r="F221" t="s">
         <v>19</v>
@@ -13257,19 +12585,19 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>904</v>
+        <v>737</v>
       </c>
       <c r="B222" t="s">
         <v>15</v>
       </c>
       <c r="C222" t="s">
-        <v>905</v>
+        <v>714</v>
       </c>
       <c r="D222" t="s">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="E222" t="s">
-        <v>907</v>
+        <v>739</v>
       </c>
       <c r="F222" t="s">
         <v>19</v>
@@ -13299,19 +12627,19 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>908</v>
+        <v>740</v>
       </c>
       <c r="B223" t="s">
         <v>15</v>
       </c>
       <c r="C223" t="s">
-        <v>909</v>
+        <v>728</v>
       </c>
       <c r="D223" t="s">
-        <v>910</v>
+        <v>741</v>
       </c>
       <c r="E223" t="s">
-        <v>911</v>
+        <v>742</v>
       </c>
       <c r="F223" t="s">
         <v>19</v>
@@ -13341,19 +12669,19 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>912</v>
+        <v>743</v>
       </c>
       <c r="B224" t="s">
         <v>15</v>
       </c>
       <c r="C224" t="s">
-        <v>913</v>
+        <v>744</v>
       </c>
       <c r="D224" t="s">
-        <v>914</v>
+        <v>745</v>
       </c>
       <c r="E224" t="s">
-        <v>915</v>
+        <v>746</v>
       </c>
       <c r="F224" t="s">
         <v>19</v>
@@ -13383,19 +12711,19 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>916</v>
+        <v>747</v>
       </c>
       <c r="B225" t="s">
         <v>15</v>
       </c>
       <c r="C225" t="s">
-        <v>917</v>
+        <v>748</v>
       </c>
       <c r="D225" t="s">
-        <v>918</v>
+        <v>749</v>
       </c>
       <c r="E225" t="s">
-        <v>919</v>
+        <v>750</v>
       </c>
       <c r="F225" t="s">
         <v>19</v>
@@ -13425,19 +12753,19 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>920</v>
+        <v>751</v>
       </c>
       <c r="B226" t="s">
         <v>15</v>
       </c>
       <c r="C226" t="s">
-        <v>921</v>
+        <v>752</v>
       </c>
       <c r="D226" t="s">
-        <v>922</v>
+        <v>753</v>
       </c>
       <c r="E226" t="s">
-        <v>923</v>
+        <v>754</v>
       </c>
       <c r="F226" t="s">
         <v>19</v>
@@ -13467,19 +12795,19 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>924</v>
+        <v>755</v>
       </c>
       <c r="B227" t="s">
         <v>15</v>
       </c>
       <c r="C227" t="s">
-        <v>925</v>
+        <v>756</v>
       </c>
       <c r="D227" t="s">
-        <v>926</v>
+        <v>757</v>
       </c>
       <c r="E227" t="s">
-        <v>927</v>
+        <v>758</v>
       </c>
       <c r="F227" t="s">
         <v>19</v>
@@ -13509,19 +12837,19 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>928</v>
+        <v>759</v>
       </c>
       <c r="B228" t="s">
         <v>15</v>
       </c>
       <c r="C228" t="s">
-        <v>929</v>
+        <v>760</v>
       </c>
       <c r="D228" t="s">
-        <v>930</v>
+        <v>761</v>
       </c>
       <c r="E228" t="s">
-        <v>931</v>
+        <v>762</v>
       </c>
       <c r="F228" t="s">
         <v>19</v>
@@ -13551,19 +12879,19 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>932</v>
+        <v>763</v>
       </c>
       <c r="B229" t="s">
         <v>15</v>
       </c>
       <c r="C229" t="s">
-        <v>933</v>
+        <v>764</v>
       </c>
       <c r="D229" t="s">
-        <v>726</v>
+        <v>591</v>
       </c>
       <c r="E229" t="s">
-        <v>934</v>
+        <v>765</v>
       </c>
       <c r="F229" t="s">
         <v>19</v>
@@ -13593,19 +12921,19 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>935</v>
+        <v>766</v>
       </c>
       <c r="B230" t="s">
         <v>15</v>
       </c>
       <c r="C230" t="s">
-        <v>936</v>
+        <v>760</v>
       </c>
       <c r="D230" t="s">
-        <v>937</v>
+        <v>767</v>
       </c>
       <c r="E230" t="s">
-        <v>938</v>
+        <v>768</v>
       </c>
       <c r="F230" t="s">
         <v>19</v>
@@ -13635,19 +12963,19 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>939</v>
+        <v>769</v>
       </c>
       <c r="B231" t="s">
         <v>15</v>
       </c>
       <c r="C231" t="s">
-        <v>940</v>
+        <v>714</v>
       </c>
       <c r="D231" t="s">
-        <v>941</v>
+        <v>770</v>
       </c>
       <c r="E231" t="s">
-        <v>942</v>
+        <v>771</v>
       </c>
       <c r="F231" t="s">
         <v>19</v>
@@ -13677,19 +13005,19 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>943</v>
+        <v>772</v>
       </c>
       <c r="B232" t="s">
         <v>15</v>
       </c>
       <c r="C232" t="s">
-        <v>944</v>
+        <v>714</v>
       </c>
       <c r="D232" t="s">
-        <v>945</v>
+        <v>773</v>
       </c>
       <c r="E232" t="s">
-        <v>946</v>
+        <v>774</v>
       </c>
       <c r="F232" t="s">
         <v>19</v>
@@ -13719,19 +13047,19 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>947</v>
+        <v>775</v>
       </c>
       <c r="B233" t="s">
         <v>15</v>
       </c>
       <c r="C233" t="s">
-        <v>948</v>
+        <v>744</v>
       </c>
       <c r="D233" t="s">
-        <v>949</v>
+        <v>776</v>
       </c>
       <c r="E233" t="s">
-        <v>950</v>
+        <v>777</v>
       </c>
       <c r="F233" t="s">
         <v>19</v>
@@ -13761,19 +13089,19 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>951</v>
+        <v>778</v>
       </c>
       <c r="B234" t="s">
         <v>15</v>
       </c>
       <c r="C234" t="s">
-        <v>952</v>
+        <v>779</v>
       </c>
       <c r="D234" t="s">
-        <v>953</v>
+        <v>780</v>
       </c>
       <c r="E234" t="s">
-        <v>954</v>
+        <v>781</v>
       </c>
       <c r="F234" t="s">
         <v>19</v>
@@ -13803,19 +13131,19 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>955</v>
+        <v>782</v>
       </c>
       <c r="B235" t="s">
         <v>15</v>
       </c>
       <c r="C235" t="s">
-        <v>956</v>
+        <v>783</v>
       </c>
       <c r="D235" t="s">
-        <v>957</v>
+        <v>784</v>
       </c>
       <c r="E235" t="s">
-        <v>958</v>
+        <v>785</v>
       </c>
       <c r="F235" t="s">
         <v>19</v>
@@ -13845,19 +13173,19 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>959</v>
+        <v>786</v>
       </c>
       <c r="B236" t="s">
         <v>15</v>
       </c>
       <c r="C236" t="s">
-        <v>960</v>
+        <v>609</v>
       </c>
       <c r="D236" t="s">
-        <v>961</v>
+        <v>787</v>
       </c>
       <c r="E236" t="s">
-        <v>962</v>
+        <v>788</v>
       </c>
       <c r="F236" t="s">
         <v>19</v>
@@ -13887,19 +13215,19 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>963</v>
+        <v>789</v>
       </c>
       <c r="B237" t="s">
         <v>15</v>
       </c>
       <c r="C237" t="s">
-        <v>964</v>
+        <v>779</v>
       </c>
       <c r="D237" t="s">
-        <v>965</v>
+        <v>790</v>
       </c>
       <c r="E237" t="s">
-        <v>966</v>
+        <v>791</v>
       </c>
       <c r="F237" t="s">
         <v>19</v>
@@ -13929,19 +13257,19 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>967</v>
+        <v>792</v>
       </c>
       <c r="B238" t="s">
         <v>15</v>
       </c>
       <c r="C238" t="s">
-        <v>968</v>
+        <v>744</v>
       </c>
       <c r="D238" t="s">
-        <v>969</v>
+        <v>793</v>
       </c>
       <c r="E238" t="s">
-        <v>970</v>
+        <v>794</v>
       </c>
       <c r="F238" t="s">
         <v>19</v>
@@ -13971,19 +13299,19 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>971</v>
+        <v>795</v>
       </c>
       <c r="B239" t="s">
         <v>15</v>
       </c>
       <c r="C239" t="s">
-        <v>972</v>
+        <v>760</v>
       </c>
       <c r="D239" t="s">
-        <v>973</v>
+        <v>796</v>
       </c>
       <c r="E239" t="s">
-        <v>974</v>
+        <v>797</v>
       </c>
       <c r="F239" t="s">
         <v>19</v>
@@ -14013,19 +13341,19 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>975</v>
+        <v>798</v>
       </c>
       <c r="B240" t="s">
         <v>15</v>
       </c>
       <c r="C240" t="s">
-        <v>976</v>
+        <v>779</v>
       </c>
       <c r="D240" t="s">
-        <v>977</v>
+        <v>799</v>
       </c>
       <c r="E240" t="s">
-        <v>978</v>
+        <v>800</v>
       </c>
       <c r="F240" t="s">
         <v>19</v>
@@ -14055,19 +13383,19 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>979</v>
+        <v>801</v>
       </c>
       <c r="B241" t="s">
         <v>15</v>
       </c>
       <c r="C241" t="s">
-        <v>980</v>
+        <v>779</v>
       </c>
       <c r="D241" t="s">
-        <v>981</v>
+        <v>802</v>
       </c>
       <c r="E241" t="s">
-        <v>982</v>
+        <v>803</v>
       </c>
       <c r="F241" t="s">
         <v>19</v>
@@ -14097,19 +13425,19 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>983</v>
+        <v>804</v>
       </c>
       <c r="B242" t="s">
         <v>15</v>
       </c>
       <c r="C242" t="s">
-        <v>984</v>
+        <v>744</v>
       </c>
       <c r="D242" t="s">
-        <v>985</v>
+        <v>805</v>
       </c>
       <c r="E242" t="s">
-        <v>986</v>
+        <v>806</v>
       </c>
       <c r="F242" t="s">
         <v>19</v>
@@ -14139,19 +13467,19 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>987</v>
+        <v>807</v>
       </c>
       <c r="B243" t="s">
         <v>15</v>
       </c>
       <c r="C243" t="s">
-        <v>988</v>
+        <v>744</v>
       </c>
       <c r="D243" t="s">
-        <v>989</v>
+        <v>808</v>
       </c>
       <c r="E243" t="s">
-        <v>990</v>
+        <v>809</v>
       </c>
       <c r="F243" t="s">
         <v>19</v>
@@ -14181,19 +13509,19 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>991</v>
+        <v>810</v>
       </c>
       <c r="B244" t="s">
         <v>15</v>
       </c>
       <c r="C244" t="s">
-        <v>992</v>
+        <v>760</v>
       </c>
       <c r="D244" t="s">
-        <v>993</v>
+        <v>811</v>
       </c>
       <c r="E244" t="s">
-        <v>994</v>
+        <v>812</v>
       </c>
       <c r="F244" t="s">
         <v>19</v>
@@ -14223,19 +13551,19 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>995</v>
+        <v>813</v>
       </c>
       <c r="B245" t="s">
         <v>15</v>
       </c>
       <c r="C245" t="s">
-        <v>996</v>
+        <v>748</v>
       </c>
       <c r="D245" t="s">
-        <v>997</v>
+        <v>814</v>
       </c>
       <c r="E245" t="s">
-        <v>998</v>
+        <v>815</v>
       </c>
       <c r="F245" t="s">
         <v>19</v>
@@ -14265,19 +13593,19 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>999</v>
+        <v>816</v>
       </c>
       <c r="B246" t="s">
         <v>15</v>
       </c>
       <c r="C246" t="s">
-        <v>1000</v>
+        <v>752</v>
       </c>
       <c r="D246" t="s">
-        <v>1001</v>
+        <v>817</v>
       </c>
       <c r="E246" t="s">
-        <v>1002</v>
+        <v>818</v>
       </c>
       <c r="F246" t="s">
         <v>19</v>
@@ -14307,19 +13635,19 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>1003</v>
+        <v>819</v>
       </c>
       <c r="B247" t="s">
         <v>15</v>
       </c>
       <c r="C247" t="s">
-        <v>1004</v>
+        <v>760</v>
       </c>
       <c r="D247" t="s">
-        <v>1005</v>
+        <v>820</v>
       </c>
       <c r="E247" t="s">
-        <v>1006</v>
+        <v>821</v>
       </c>
       <c r="F247" t="s">
         <v>19</v>
@@ -14349,19 +13677,19 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>1007</v>
+        <v>822</v>
       </c>
       <c r="B248" t="s">
         <v>15</v>
       </c>
       <c r="C248" t="s">
-        <v>1008</v>
+        <v>613</v>
       </c>
       <c r="D248" t="s">
-        <v>1009</v>
+        <v>823</v>
       </c>
       <c r="E248" t="s">
-        <v>1010</v>
+        <v>824</v>
       </c>
       <c r="F248" t="s">
         <v>19</v>
@@ -14391,19 +13719,19 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>1011</v>
+        <v>825</v>
       </c>
       <c r="B249" t="s">
         <v>15</v>
       </c>
       <c r="C249" t="s">
-        <v>1012</v>
+        <v>573</v>
       </c>
       <c r="D249" t="s">
-        <v>1013</v>
+        <v>826</v>
       </c>
       <c r="E249" t="s">
-        <v>1014</v>
+        <v>827</v>
       </c>
       <c r="F249" t="s">
         <v>19</v>
@@ -14433,19 +13761,19 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>1015</v>
+        <v>828</v>
       </c>
       <c r="B250" t="s">
         <v>15</v>
       </c>
       <c r="C250" t="s">
-        <v>1016</v>
+        <v>829</v>
       </c>
       <c r="D250" t="s">
-        <v>1017</v>
+        <v>830</v>
       </c>
       <c r="E250" t="s">
-        <v>1018</v>
+        <v>831</v>
       </c>
       <c r="F250" t="s">
         <v>19</v>
@@ -14475,19 +13803,19 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>1019</v>
+        <v>832</v>
       </c>
       <c r="B251" t="s">
         <v>15</v>
       </c>
       <c r="C251" t="s">
-        <v>1020</v>
+        <v>760</v>
       </c>
       <c r="D251" t="s">
-        <v>1021</v>
+        <v>833</v>
       </c>
       <c r="E251" t="s">
-        <v>1022</v>
+        <v>834</v>
       </c>
       <c r="F251" t="s">
         <v>19</v>
@@ -14517,19 +13845,19 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>1023</v>
+        <v>835</v>
       </c>
       <c r="B252" t="s">
         <v>15</v>
       </c>
       <c r="C252" t="s">
-        <v>1024</v>
+        <v>728</v>
       </c>
       <c r="D252" t="s">
-        <v>1025</v>
+        <v>836</v>
       </c>
       <c r="E252" t="s">
-        <v>1026</v>
+        <v>837</v>
       </c>
       <c r="F252" t="s">
         <v>19</v>
@@ -14559,19 +13887,19 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>1027</v>
+        <v>838</v>
       </c>
       <c r="B253" t="s">
         <v>15</v>
       </c>
       <c r="C253" t="s">
-        <v>1028</v>
+        <v>783</v>
       </c>
       <c r="D253" t="s">
-        <v>1029</v>
+        <v>839</v>
       </c>
       <c r="E253" t="s">
-        <v>1030</v>
+        <v>840</v>
       </c>
       <c r="F253" t="s">
         <v>19</v>
@@ -14601,19 +13929,19 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>1031</v>
+        <v>841</v>
       </c>
       <c r="B254" t="s">
         <v>15</v>
       </c>
       <c r="C254" t="s">
-        <v>1032</v>
+        <v>728</v>
       </c>
       <c r="D254" t="s">
-        <v>1033</v>
+        <v>842</v>
       </c>
       <c r="E254" t="s">
-        <v>1034</v>
+        <v>843</v>
       </c>
       <c r="F254" t="s">
         <v>19</v>
@@ -14643,19 +13971,19 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>1035</v>
+        <v>844</v>
       </c>
       <c r="B255" t="s">
         <v>15</v>
       </c>
       <c r="C255" t="s">
-        <v>1036</v>
+        <v>609</v>
       </c>
       <c r="D255" t="s">
-        <v>1037</v>
+        <v>845</v>
       </c>
       <c r="E255" t="s">
-        <v>1038</v>
+        <v>846</v>
       </c>
       <c r="F255" t="s">
         <v>19</v>
@@ -14685,19 +14013,19 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>1039</v>
+        <v>847</v>
       </c>
       <c r="B256" t="s">
         <v>15</v>
       </c>
       <c r="C256" t="s">
-        <v>1040</v>
+        <v>748</v>
       </c>
       <c r="D256" t="s">
-        <v>1041</v>
+        <v>848</v>
       </c>
       <c r="E256" t="s">
-        <v>1042</v>
+        <v>849</v>
       </c>
       <c r="F256" t="s">
         <v>19</v>
@@ -14727,19 +14055,19 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>1043</v>
+        <v>850</v>
       </c>
       <c r="B257" t="s">
         <v>15</v>
       </c>
       <c r="C257" t="s">
-        <v>1044</v>
+        <v>756</v>
       </c>
       <c r="D257" t="s">
-        <v>1045</v>
+        <v>851</v>
       </c>
       <c r="E257" t="s">
-        <v>1046</v>
+        <v>852</v>
       </c>
       <c r="F257" t="s">
         <v>19</v>
@@ -14769,19 +14097,19 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>1047</v>
+        <v>853</v>
       </c>
       <c r="B258" t="s">
         <v>15</v>
       </c>
       <c r="C258" t="s">
-        <v>1048</v>
+        <v>601</v>
       </c>
       <c r="D258" t="s">
-        <v>1049</v>
+        <v>854</v>
       </c>
       <c r="E258" t="s">
-        <v>1050</v>
+        <v>855</v>
       </c>
       <c r="F258" t="s">
         <v>19</v>
@@ -14811,19 +14139,19 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>1051</v>
+        <v>856</v>
       </c>
       <c r="B259" t="s">
         <v>15</v>
       </c>
       <c r="C259" t="s">
-        <v>1052</v>
+        <v>714</v>
       </c>
       <c r="D259" t="s">
-        <v>1053</v>
+        <v>857</v>
       </c>
       <c r="E259" t="s">
-        <v>1054</v>
+        <v>858</v>
       </c>
       <c r="F259" t="s">
         <v>19</v>
@@ -14853,19 +14181,19 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>1055</v>
+        <v>859</v>
       </c>
       <c r="B260" t="s">
         <v>15</v>
       </c>
       <c r="C260" t="s">
-        <v>1056</v>
+        <v>756</v>
       </c>
       <c r="D260" t="s">
-        <v>1057</v>
+        <v>860</v>
       </c>
       <c r="E260" t="s">
-        <v>1058</v>
+        <v>861</v>
       </c>
       <c r="F260" t="s">
         <v>19</v>
@@ -14895,19 +14223,19 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>1059</v>
+        <v>862</v>
       </c>
       <c r="B261" t="s">
         <v>15</v>
       </c>
       <c r="C261" t="s">
-        <v>1060</v>
+        <v>752</v>
       </c>
       <c r="D261" t="s">
-        <v>1061</v>
+        <v>863</v>
       </c>
       <c r="E261" t="s">
-        <v>1062</v>
+        <v>864</v>
       </c>
       <c r="F261" t="s">
         <v>19</v>
@@ -14937,19 +14265,19 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>1063</v>
+        <v>865</v>
       </c>
       <c r="B262" t="s">
         <v>15</v>
       </c>
       <c r="C262" t="s">
-        <v>1064</v>
+        <v>752</v>
       </c>
       <c r="D262" t="s">
-        <v>1065</v>
+        <v>866</v>
       </c>
       <c r="E262" t="s">
-        <v>1066</v>
+        <v>867</v>
       </c>
       <c r="F262" t="s">
         <v>19</v>
@@ -14979,19 +14307,19 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>1067</v>
+        <v>868</v>
       </c>
       <c r="B263" t="s">
         <v>15</v>
       </c>
       <c r="C263" t="s">
-        <v>1068</v>
+        <v>573</v>
       </c>
       <c r="D263" t="s">
-        <v>1069</v>
+        <v>869</v>
       </c>
       <c r="E263" t="s">
-        <v>986</v>
+        <v>806</v>
       </c>
       <c r="F263" t="s">
         <v>19</v>
@@ -15021,19 +14349,19 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>1070</v>
+        <v>870</v>
       </c>
       <c r="B264" t="s">
         <v>15</v>
       </c>
       <c r="C264" t="s">
-        <v>1071</v>
+        <v>764</v>
       </c>
       <c r="D264" t="s">
-        <v>1072</v>
+        <v>871</v>
       </c>
       <c r="E264" t="s">
-        <v>1073</v>
+        <v>872</v>
       </c>
       <c r="F264" t="s">
         <v>19</v>
@@ -15063,19 +14391,19 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>1074</v>
+        <v>873</v>
       </c>
       <c r="B265" t="s">
         <v>15</v>
       </c>
       <c r="C265" t="s">
-        <v>1075</v>
+        <v>764</v>
       </c>
       <c r="D265" t="s">
-        <v>1076</v>
+        <v>874</v>
       </c>
       <c r="E265" t="s">
-        <v>1077</v>
+        <v>875</v>
       </c>
       <c r="F265" t="s">
         <v>19</v>
@@ -15105,19 +14433,19 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>1078</v>
+        <v>876</v>
       </c>
       <c r="B266" t="s">
         <v>15</v>
       </c>
       <c r="C266" t="s">
-        <v>1079</v>
+        <v>714</v>
       </c>
       <c r="D266" t="s">
-        <v>1080</v>
+        <v>877</v>
       </c>
       <c r="E266" t="s">
-        <v>1081</v>
+        <v>878</v>
       </c>
       <c r="F266" t="s">
         <v>19</v>
@@ -15147,19 +14475,19 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>1082</v>
+        <v>879</v>
       </c>
       <c r="B267" t="s">
         <v>15</v>
       </c>
       <c r="C267" t="s">
-        <v>1083</v>
+        <v>779</v>
       </c>
       <c r="D267" t="s">
-        <v>1084</v>
+        <v>880</v>
       </c>
       <c r="E267" t="s">
-        <v>1085</v>
+        <v>881</v>
       </c>
       <c r="F267" t="s">
         <v>19</v>
@@ -15189,19 +14517,19 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>1086</v>
+        <v>882</v>
       </c>
       <c r="B268" t="s">
         <v>15</v>
       </c>
       <c r="C268" t="s">
-        <v>1087</v>
+        <v>764</v>
       </c>
       <c r="D268" t="s">
-        <v>1088</v>
+        <v>883</v>
       </c>
       <c r="E268" t="s">
-        <v>1089</v>
+        <v>884</v>
       </c>
       <c r="F268" t="s">
         <v>19</v>
@@ -15231,19 +14559,19 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>1090</v>
+        <v>885</v>
       </c>
       <c r="B269" t="s">
         <v>15</v>
       </c>
       <c r="C269" t="s">
-        <v>1091</v>
+        <v>764</v>
       </c>
       <c r="D269" t="s">
-        <v>1092</v>
+        <v>886</v>
       </c>
       <c r="E269" t="s">
-        <v>1093</v>
+        <v>887</v>
       </c>
       <c r="F269" t="s">
         <v>19</v>
@@ -15273,19 +14601,19 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>1094</v>
+        <v>888</v>
       </c>
       <c r="B270" t="s">
         <v>15</v>
       </c>
       <c r="C270" t="s">
-        <v>1095</v>
+        <v>783</v>
       </c>
       <c r="D270" t="s">
-        <v>1096</v>
+        <v>889</v>
       </c>
       <c r="E270" t="s">
-        <v>1097</v>
+        <v>890</v>
       </c>
       <c r="F270" t="s">
         <v>19</v>
@@ -15315,19 +14643,19 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>1098</v>
+        <v>891</v>
       </c>
       <c r="B271" t="s">
         <v>15</v>
       </c>
       <c r="C271" t="s">
-        <v>1099</v>
+        <v>783</v>
       </c>
       <c r="D271" t="s">
-        <v>1100</v>
+        <v>892</v>
       </c>
       <c r="E271" t="s">
-        <v>1101</v>
+        <v>893</v>
       </c>
       <c r="F271" t="s">
         <v>19</v>
@@ -15357,19 +14685,19 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>1102</v>
+        <v>894</v>
       </c>
       <c r="B272" t="s">
         <v>15</v>
       </c>
       <c r="C272" t="s">
-        <v>1103</v>
+        <v>752</v>
       </c>
       <c r="D272" t="s">
-        <v>1104</v>
+        <v>895</v>
       </c>
       <c r="E272" t="s">
-        <v>1105</v>
+        <v>896</v>
       </c>
       <c r="F272" t="s">
         <v>19</v>
@@ -15399,19 +14727,19 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>1106</v>
+        <v>897</v>
       </c>
       <c r="B273" t="s">
         <v>15</v>
       </c>
       <c r="C273" t="s">
-        <v>1107</v>
+        <v>898</v>
       </c>
       <c r="D273" t="s">
-        <v>1108</v>
+        <v>899</v>
       </c>
       <c r="E273" t="s">
-        <v>1109</v>
+        <v>900</v>
       </c>
       <c r="F273" t="s">
         <v>19</v>
@@ -15441,19 +14769,19 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>1110</v>
+        <v>901</v>
       </c>
       <c r="B274" t="s">
         <v>15</v>
       </c>
       <c r="C274" t="s">
-        <v>1111</v>
+        <v>898</v>
       </c>
       <c r="D274" t="s">
-        <v>1112</v>
+        <v>902</v>
       </c>
       <c r="E274" t="s">
-        <v>1113</v>
+        <v>903</v>
       </c>
       <c r="F274" t="s">
         <v>19</v>
@@ -15483,19 +14811,19 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>1114</v>
+        <v>904</v>
       </c>
       <c r="B275" t="s">
         <v>15</v>
       </c>
       <c r="C275" t="s">
-        <v>1115</v>
+        <v>898</v>
       </c>
       <c r="D275" t="s">
-        <v>1116</v>
+        <v>905</v>
       </c>
       <c r="E275" t="s">
-        <v>1117</v>
+        <v>906</v>
       </c>
       <c r="F275" t="s">
         <v>19</v>
@@ -15525,19 +14853,19 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>1118</v>
+        <v>907</v>
       </c>
       <c r="B276" t="s">
         <v>15</v>
       </c>
       <c r="C276" t="s">
-        <v>1119</v>
+        <v>898</v>
       </c>
       <c r="D276" t="s">
-        <v>1120</v>
+        <v>908</v>
       </c>
       <c r="E276" t="s">
-        <v>1121</v>
+        <v>909</v>
       </c>
       <c r="F276" t="s">
         <v>19</v>
@@ -15567,19 +14895,19 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>1122</v>
+        <v>910</v>
       </c>
       <c r="B277" t="s">
         <v>15</v>
       </c>
       <c r="C277" t="s">
-        <v>1123</v>
+        <v>898</v>
       </c>
       <c r="D277" t="s">
-        <v>1124</v>
+        <v>911</v>
       </c>
       <c r="E277" t="s">
-        <v>1125</v>
+        <v>912</v>
       </c>
       <c r="F277" t="s">
         <v>19</v>
@@ -15609,19 +14937,19 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>1126</v>
+        <v>913</v>
       </c>
       <c r="B278" t="s">
         <v>15</v>
       </c>
       <c r="C278" t="s">
-        <v>1127</v>
+        <v>898</v>
       </c>
       <c r="D278" t="s">
-        <v>1128</v>
+        <v>914</v>
       </c>
       <c r="E278" t="s">
-        <v>1129</v>
+        <v>915</v>
       </c>
       <c r="F278" t="s">
         <v>19</v>
@@ -15651,19 +14979,19 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>1130</v>
+        <v>916</v>
       </c>
       <c r="B279" t="s">
         <v>15</v>
       </c>
       <c r="C279" t="s">
-        <v>1131</v>
+        <v>917</v>
       </c>
       <c r="D279" t="s">
-        <v>1132</v>
+        <v>918</v>
       </c>
       <c r="E279" t="s">
-        <v>1133</v>
+        <v>919</v>
       </c>
       <c r="F279" t="s">
         <v>19</v>
@@ -15693,19 +15021,19 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>1134</v>
+        <v>920</v>
       </c>
       <c r="B280" t="s">
         <v>15</v>
       </c>
       <c r="C280" t="s">
-        <v>1135</v>
+        <v>917</v>
       </c>
       <c r="D280" t="s">
-        <v>1136</v>
+        <v>921</v>
       </c>
       <c r="E280" t="s">
-        <v>1137</v>
+        <v>922</v>
       </c>
       <c r="F280" t="s">
         <v>19</v>
@@ -15735,19 +15063,19 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>1138</v>
+        <v>923</v>
       </c>
       <c r="B281" t="s">
         <v>15</v>
       </c>
       <c r="C281" t="s">
-        <v>1139</v>
+        <v>917</v>
       </c>
       <c r="D281" t="s">
-        <v>1140</v>
+        <v>924</v>
       </c>
       <c r="E281" t="s">
-        <v>1141</v>
+        <v>925</v>
       </c>
       <c r="F281" t="s">
         <v>19</v>
@@ -15777,19 +15105,19 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>1142</v>
+        <v>926</v>
       </c>
       <c r="B282" t="s">
         <v>15</v>
       </c>
       <c r="C282" t="s">
-        <v>1143</v>
+        <v>917</v>
       </c>
       <c r="D282" t="s">
-        <v>1144</v>
+        <v>927</v>
       </c>
       <c r="E282" t="s">
-        <v>1145</v>
+        <v>928</v>
       </c>
       <c r="F282" t="s">
         <v>19</v>
@@ -15819,19 +15147,19 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>1146</v>
+        <v>929</v>
       </c>
       <c r="B283" t="s">
         <v>15</v>
       </c>
       <c r="C283" t="s">
-        <v>1147</v>
+        <v>917</v>
       </c>
       <c r="D283" t="s">
-        <v>1148</v>
+        <v>930</v>
       </c>
       <c r="E283" t="s">
-        <v>1149</v>
+        <v>931</v>
       </c>
       <c r="F283" t="s">
         <v>19</v>
@@ -15861,19 +15189,19 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>1150</v>
+        <v>932</v>
       </c>
       <c r="B284" t="s">
         <v>15</v>
       </c>
       <c r="C284" t="s">
-        <v>1151</v>
+        <v>917</v>
       </c>
       <c r="D284" t="s">
-        <v>1152</v>
+        <v>933</v>
       </c>
       <c r="E284" t="s">
-        <v>1153</v>
+        <v>934</v>
       </c>
       <c r="F284" t="s">
         <v>19</v>
@@ -15903,19 +15231,19 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>1154</v>
+        <v>935</v>
       </c>
       <c r="B285" t="s">
         <v>15</v>
       </c>
       <c r="C285" t="s">
-        <v>1155</v>
+        <v>601</v>
       </c>
       <c r="D285" t="s">
-        <v>1041</v>
+        <v>848</v>
       </c>
       <c r="E285" t="s">
-        <v>1156</v>
+        <v>936</v>
       </c>
       <c r="F285" t="s">
         <v>19</v>
@@ -15945,19 +15273,19 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>1157</v>
+        <v>937</v>
       </c>
       <c r="B286" t="s">
         <v>15</v>
       </c>
       <c r="C286" t="s">
-        <v>1158</v>
+        <v>938</v>
       </c>
       <c r="D286" t="s">
-        <v>1159</v>
+        <v>939</v>
       </c>
       <c r="E286" t="s">
-        <v>1160</v>
+        <v>940</v>
       </c>
       <c r="F286" t="s">
         <v>19</v>
@@ -15966,7 +15294,7 @@
         <v>20</v>
       </c>
       <c r="H286" t="s">
-        <v>1161</v>
+        <v>941</v>
       </c>
       <c r="I286" t="s">
         <v>21</v>
@@ -15989,19 +15317,19 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>1162</v>
+        <v>942</v>
       </c>
       <c r="B287" t="s">
         <v>15</v>
       </c>
       <c r="C287" t="s">
-        <v>1163</v>
+        <v>943</v>
       </c>
       <c r="D287" t="s">
-        <v>1164</v>
+        <v>944</v>
       </c>
       <c r="E287" t="s">
-        <v>1165</v>
+        <v>945</v>
       </c>
       <c r="F287" t="s">
         <v>19</v>
@@ -16010,7 +15338,7 @@
         <v>20</v>
       </c>
       <c r="H287" t="s">
-        <v>1166</v>
+        <v>946</v>
       </c>
       <c r="I287" t="s">
         <v>21</v>
@@ -16033,19 +15361,19 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>1167</v>
+        <v>947</v>
       </c>
       <c r="B288" t="s">
         <v>15</v>
       </c>
       <c r="C288" t="s">
-        <v>1168</v>
+        <v>99</v>
       </c>
       <c r="D288" t="s">
-        <v>1169</v>
+        <v>948</v>
       </c>
       <c r="E288" t="s">
-        <v>1170</v>
+        <v>949</v>
       </c>
       <c r="F288" t="s">
         <v>19</v>
@@ -16054,7 +15382,7 @@
         <v>20</v>
       </c>
       <c r="H288" t="s">
-        <v>1171</v>
+        <v>950</v>
       </c>
       <c r="I288" t="s">
         <v>21</v>
@@ -16077,19 +15405,19 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>1172</v>
+        <v>951</v>
       </c>
       <c r="B289" t="s">
         <v>15</v>
       </c>
       <c r="C289" t="s">
-        <v>1173</v>
+        <v>943</v>
       </c>
       <c r="D289" t="s">
-        <v>1174</v>
+        <v>952</v>
       </c>
       <c r="E289" t="s">
-        <v>1175</v>
+        <v>953</v>
       </c>
       <c r="F289" t="s">
         <v>19</v>
@@ -16098,7 +15426,7 @@
         <v>20</v>
       </c>
       <c r="H289" t="s">
-        <v>1176</v>
+        <v>954</v>
       </c>
       <c r="I289" t="s">
         <v>21</v>
@@ -16121,19 +15449,19 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>1177</v>
+        <v>955</v>
       </c>
       <c r="B290" t="s">
         <v>15</v>
       </c>
       <c r="C290" t="s">
-        <v>1178</v>
+        <v>132</v>
       </c>
       <c r="D290" t="s">
-        <v>1179</v>
+        <v>956</v>
       </c>
       <c r="E290" t="s">
-        <v>1180</v>
+        <v>957</v>
       </c>
       <c r="F290" t="s">
         <v>19</v>
@@ -16142,7 +15470,7 @@
         <v>20</v>
       </c>
       <c r="H290" t="s">
-        <v>1181</v>
+        <v>958</v>
       </c>
       <c r="I290" t="s">
         <v>21</v>
@@ -16165,19 +15493,19 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>1182</v>
+        <v>959</v>
       </c>
       <c r="B291" t="s">
         <v>15</v>
       </c>
       <c r="C291" t="s">
-        <v>1183</v>
+        <v>267</v>
       </c>
       <c r="D291" t="s">
-        <v>1184</v>
+        <v>960</v>
       </c>
       <c r="E291" t="s">
-        <v>1185</v>
+        <v>961</v>
       </c>
       <c r="F291" t="s">
         <v>19</v>
@@ -16186,7 +15514,7 @@
         <v>20</v>
       </c>
       <c r="H291" t="s">
-        <v>1186</v>
+        <v>962</v>
       </c>
       <c r="I291" t="s">
         <v>21</v>
@@ -16223,10 +15551,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1187</v>
+        <v>963</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1188</v>
+        <v>964</v>
       </c>
     </row>
     <row r="2">
@@ -16234,7 +15562,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1189</v>
+        <v>965</v>
       </c>
     </row>
     <row r="3">
@@ -16242,7 +15570,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1190</v>
+        <v>966</v>
       </c>
     </row>
     <row r="4">
@@ -16250,7 +15578,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1191</v>
+        <v>967</v>
       </c>
     </row>
     <row r="5">
@@ -16258,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1192</v>
+        <v>968</v>
       </c>
     </row>
     <row r="6">
@@ -16266,7 +15594,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1193</v>
+        <v>969</v>
       </c>
     </row>
     <row r="7">
@@ -16274,7 +15602,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1194</v>
+        <v>970</v>
       </c>
     </row>
     <row r="8">
@@ -16282,7 +15610,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1195</v>
+        <v>971</v>
       </c>
     </row>
     <row r="9">
@@ -16290,7 +15618,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1196</v>
+        <v>972</v>
       </c>
     </row>
     <row r="10">
@@ -16298,7 +15626,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1197</v>
+        <v>973</v>
       </c>
     </row>
     <row r="11">
@@ -16306,7 +15634,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1198</v>
+        <v>974</v>
       </c>
     </row>
     <row r="12">
@@ -16314,7 +15642,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1199</v>
+        <v>975</v>
       </c>
     </row>
     <row r="13">
@@ -16322,7 +15650,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1200</v>
+        <v>976</v>
       </c>
     </row>
     <row r="14">
@@ -16330,7 +15658,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1201</v>
+        <v>977</v>
       </c>
     </row>
     <row r="15">
@@ -16338,7 +15666,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>1202</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P05_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P05_2/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="975">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -231,10 +231,10 @@
     <t xml:space="preserve">MFD02286</t>
   </si>
   <si>
-    <t xml:space="preserve">56.9621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8092</t>
+    <t xml:space="preserve">56.9619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8104</t>
   </si>
   <si>
     <t xml:space="preserve">MFD02298</t>
@@ -2086,18 +2086,6 @@
   </si>
   <si>
     <t xml:space="preserve">11.7602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD09426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-09-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9219</t>
   </si>
   <si>
     <t xml:space="preserve">MFD09510</t>
@@ -12003,13 +11991,13 @@
         <v>15</v>
       </c>
       <c r="C208" t="s">
+        <v>573</v>
+      </c>
+      <c r="D208" t="s">
         <v>692</v>
       </c>
-      <c r="D208" t="s">
+      <c r="E208" t="s">
         <v>693</v>
-      </c>
-      <c r="E208" t="s">
-        <v>694</v>
       </c>
       <c r="F208" t="s">
         <v>19</v>
@@ -12039,19 +12027,19 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
+        <v>694</v>
+      </c>
+      <c r="B209" t="s">
+        <v>15</v>
+      </c>
+      <c r="C209" t="s">
+        <v>597</v>
+      </c>
+      <c r="D209" t="s">
         <v>695</v>
       </c>
-      <c r="B209" t="s">
-        <v>15</v>
-      </c>
-      <c r="C209" t="s">
-        <v>573</v>
-      </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
         <v>696</v>
-      </c>
-      <c r="E209" t="s">
-        <v>697</v>
       </c>
       <c r="F209" t="s">
         <v>19</v>
@@ -12081,19 +12069,19 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
+        <v>697</v>
+      </c>
+      <c r="B210" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210" t="s">
+        <v>605</v>
+      </c>
+      <c r="D210" t="s">
         <v>698</v>
       </c>
-      <c r="B210" t="s">
-        <v>15</v>
-      </c>
-      <c r="C210" t="s">
-        <v>597</v>
-      </c>
-      <c r="D210" t="s">
+      <c r="E210" t="s">
         <v>699</v>
-      </c>
-      <c r="E210" t="s">
-        <v>700</v>
       </c>
       <c r="F210" t="s">
         <v>19</v>
@@ -12123,19 +12111,19 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
+        <v>700</v>
+      </c>
+      <c r="B211" t="s">
+        <v>15</v>
+      </c>
+      <c r="C211" t="s">
+        <v>613</v>
+      </c>
+      <c r="D211" t="s">
         <v>701</v>
       </c>
-      <c r="B211" t="s">
-        <v>15</v>
-      </c>
-      <c r="C211" t="s">
-        <v>605</v>
-      </c>
-      <c r="D211" t="s">
+      <c r="E211" t="s">
         <v>702</v>
-      </c>
-      <c r="E211" t="s">
-        <v>703</v>
       </c>
       <c r="F211" t="s">
         <v>19</v>
@@ -12165,19 +12153,19 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
+        <v>703</v>
+      </c>
+      <c r="B212" t="s">
+        <v>15</v>
+      </c>
+      <c r="C212" t="s">
+        <v>609</v>
+      </c>
+      <c r="D212" t="s">
         <v>704</v>
       </c>
-      <c r="B212" t="s">
-        <v>15</v>
-      </c>
-      <c r="C212" t="s">
-        <v>613</v>
-      </c>
-      <c r="D212" t="s">
+      <c r="E212" t="s">
         <v>705</v>
-      </c>
-      <c r="E212" t="s">
-        <v>706</v>
       </c>
       <c r="F212" t="s">
         <v>19</v>
@@ -12207,7 +12195,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B213" t="s">
         <v>15</v>
@@ -12216,10 +12204,10 @@
         <v>609</v>
       </c>
       <c r="D213" t="s">
+        <v>707</v>
+      </c>
+      <c r="E213" t="s">
         <v>708</v>
-      </c>
-      <c r="E213" t="s">
-        <v>709</v>
       </c>
       <c r="F213" t="s">
         <v>19</v>
@@ -12249,13 +12237,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
+        <v>709</v>
+      </c>
+      <c r="B214" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214" t="s">
         <v>710</v>
-      </c>
-      <c r="B214" t="s">
-        <v>15</v>
-      </c>
-      <c r="C214" t="s">
-        <v>609</v>
       </c>
       <c r="D214" t="s">
         <v>711</v>
@@ -12339,13 +12327,13 @@
         <v>15</v>
       </c>
       <c r="C216" t="s">
+        <v>605</v>
+      </c>
+      <c r="D216" t="s">
         <v>718</v>
       </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>719</v>
-      </c>
-      <c r="E216" t="s">
-        <v>720</v>
       </c>
       <c r="F216" t="s">
         <v>19</v>
@@ -12375,19 +12363,19 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
+        <v>720</v>
+      </c>
+      <c r="B217" t="s">
+        <v>15</v>
+      </c>
+      <c r="C217" t="s">
+        <v>597</v>
+      </c>
+      <c r="D217" t="s">
         <v>721</v>
       </c>
-      <c r="B217" t="s">
-        <v>15</v>
-      </c>
-      <c r="C217" t="s">
-        <v>605</v>
-      </c>
-      <c r="D217" t="s">
+      <c r="E217" t="s">
         <v>722</v>
-      </c>
-      <c r="E217" t="s">
-        <v>723</v>
       </c>
       <c r="F217" t="s">
         <v>19</v>
@@ -12417,13 +12405,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
+        <v>723</v>
+      </c>
+      <c r="B218" t="s">
+        <v>15</v>
+      </c>
+      <c r="C218" t="s">
         <v>724</v>
-      </c>
-      <c r="B218" t="s">
-        <v>15</v>
-      </c>
-      <c r="C218" t="s">
-        <v>597</v>
       </c>
       <c r="D218" t="s">
         <v>725</v>
@@ -12465,13 +12453,13 @@
         <v>15</v>
       </c>
       <c r="C219" t="s">
+        <v>714</v>
+      </c>
+      <c r="D219" t="s">
         <v>728</v>
       </c>
-      <c r="D219" t="s">
+      <c r="E219" t="s">
         <v>729</v>
-      </c>
-      <c r="E219" t="s">
-        <v>730</v>
       </c>
       <c r="F219" t="s">
         <v>19</v>
@@ -12501,19 +12489,19 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
+        <v>730</v>
+      </c>
+      <c r="B220" t="s">
+        <v>15</v>
+      </c>
+      <c r="C220" t="s">
+        <v>714</v>
+      </c>
+      <c r="D220" t="s">
         <v>731</v>
       </c>
-      <c r="B220" t="s">
-        <v>15</v>
-      </c>
-      <c r="C220" t="s">
-        <v>718</v>
-      </c>
-      <c r="D220" t="s">
+      <c r="E220" t="s">
         <v>732</v>
-      </c>
-      <c r="E220" t="s">
-        <v>733</v>
       </c>
       <c r="F220" t="s">
         <v>19</v>
@@ -12543,19 +12531,19 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
+        <v>733</v>
+      </c>
+      <c r="B221" t="s">
+        <v>15</v>
+      </c>
+      <c r="C221" t="s">
+        <v>710</v>
+      </c>
+      <c r="D221" t="s">
         <v>734</v>
       </c>
-      <c r="B221" t="s">
-        <v>15</v>
-      </c>
-      <c r="C221" t="s">
-        <v>718</v>
-      </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
         <v>735</v>
-      </c>
-      <c r="E221" t="s">
-        <v>736</v>
       </c>
       <c r="F221" t="s">
         <v>19</v>
@@ -12585,19 +12573,19 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
+        <v>736</v>
+      </c>
+      <c r="B222" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222" t="s">
+        <v>724</v>
+      </c>
+      <c r="D222" t="s">
         <v>737</v>
       </c>
-      <c r="B222" t="s">
-        <v>15</v>
-      </c>
-      <c r="C222" t="s">
-        <v>714</v>
-      </c>
-      <c r="D222" t="s">
+      <c r="E222" t="s">
         <v>738</v>
-      </c>
-      <c r="E222" t="s">
-        <v>739</v>
       </c>
       <c r="F222" t="s">
         <v>19</v>
@@ -12627,13 +12615,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
+        <v>739</v>
+      </c>
+      <c r="B223" t="s">
+        <v>15</v>
+      </c>
+      <c r="C223" t="s">
         <v>740</v>
-      </c>
-      <c r="B223" t="s">
-        <v>15</v>
-      </c>
-      <c r="C223" t="s">
-        <v>728</v>
       </c>
       <c r="D223" t="s">
         <v>741</v>
@@ -12846,10 +12834,10 @@
         <v>760</v>
       </c>
       <c r="D228" t="s">
+        <v>591</v>
+      </c>
+      <c r="E228" t="s">
         <v>761</v>
-      </c>
-      <c r="E228" t="s">
-        <v>762</v>
       </c>
       <c r="F228" t="s">
         <v>19</v>
@@ -12879,19 +12867,19 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
+        <v>762</v>
+      </c>
+      <c r="B229" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229" t="s">
+        <v>756</v>
+      </c>
+      <c r="D229" t="s">
         <v>763</v>
       </c>
-      <c r="B229" t="s">
-        <v>15</v>
-      </c>
-      <c r="C229" t="s">
+      <c r="E229" t="s">
         <v>764</v>
-      </c>
-      <c r="D229" t="s">
-        <v>591</v>
-      </c>
-      <c r="E229" t="s">
-        <v>765</v>
       </c>
       <c r="F229" t="s">
         <v>19</v>
@@ -12921,19 +12909,19 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
+        <v>765</v>
+      </c>
+      <c r="B230" t="s">
+        <v>15</v>
+      </c>
+      <c r="C230" t="s">
+        <v>710</v>
+      </c>
+      <c r="D230" t="s">
         <v>766</v>
       </c>
-      <c r="B230" t="s">
-        <v>15</v>
-      </c>
-      <c r="C230" t="s">
-        <v>760</v>
-      </c>
-      <c r="D230" t="s">
+      <c r="E230" t="s">
         <v>767</v>
-      </c>
-      <c r="E230" t="s">
-        <v>768</v>
       </c>
       <c r="F230" t="s">
         <v>19</v>
@@ -12963,19 +12951,19 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
+        <v>768</v>
+      </c>
+      <c r="B231" t="s">
+        <v>15</v>
+      </c>
+      <c r="C231" t="s">
+        <v>710</v>
+      </c>
+      <c r="D231" t="s">
         <v>769</v>
       </c>
-      <c r="B231" t="s">
-        <v>15</v>
-      </c>
-      <c r="C231" t="s">
-        <v>714</v>
-      </c>
-      <c r="D231" t="s">
+      <c r="E231" t="s">
         <v>770</v>
-      </c>
-      <c r="E231" t="s">
-        <v>771</v>
       </c>
       <c r="F231" t="s">
         <v>19</v>
@@ -13005,19 +12993,19 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
+        <v>771</v>
+      </c>
+      <c r="B232" t="s">
+        <v>15</v>
+      </c>
+      <c r="C232" t="s">
+        <v>740</v>
+      </c>
+      <c r="D232" t="s">
         <v>772</v>
       </c>
-      <c r="B232" t="s">
-        <v>15</v>
-      </c>
-      <c r="C232" t="s">
-        <v>714</v>
-      </c>
-      <c r="D232" t="s">
+      <c r="E232" t="s">
         <v>773</v>
-      </c>
-      <c r="E232" t="s">
-        <v>774</v>
       </c>
       <c r="F232" t="s">
         <v>19</v>
@@ -13047,13 +13035,13 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
+        <v>774</v>
+      </c>
+      <c r="B233" t="s">
+        <v>15</v>
+      </c>
+      <c r="C233" t="s">
         <v>775</v>
-      </c>
-      <c r="B233" t="s">
-        <v>15</v>
-      </c>
-      <c r="C233" t="s">
-        <v>744</v>
       </c>
       <c r="D233" t="s">
         <v>776</v>
@@ -13137,13 +13125,13 @@
         <v>15</v>
       </c>
       <c r="C235" t="s">
+        <v>609</v>
+      </c>
+      <c r="D235" t="s">
         <v>783</v>
       </c>
-      <c r="D235" t="s">
+      <c r="E235" t="s">
         <v>784</v>
-      </c>
-      <c r="E235" t="s">
-        <v>785</v>
       </c>
       <c r="F235" t="s">
         <v>19</v>
@@ -13173,19 +13161,19 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
+        <v>785</v>
+      </c>
+      <c r="B236" t="s">
+        <v>15</v>
+      </c>
+      <c r="C236" t="s">
+        <v>775</v>
+      </c>
+      <c r="D236" t="s">
         <v>786</v>
       </c>
-      <c r="B236" t="s">
-        <v>15</v>
-      </c>
-      <c r="C236" t="s">
-        <v>609</v>
-      </c>
-      <c r="D236" t="s">
+      <c r="E236" t="s">
         <v>787</v>
-      </c>
-      <c r="E236" t="s">
-        <v>788</v>
       </c>
       <c r="F236" t="s">
         <v>19</v>
@@ -13215,19 +13203,19 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
+        <v>788</v>
+      </c>
+      <c r="B237" t="s">
+        <v>15</v>
+      </c>
+      <c r="C237" t="s">
+        <v>740</v>
+      </c>
+      <c r="D237" t="s">
         <v>789</v>
       </c>
-      <c r="B237" t="s">
-        <v>15</v>
-      </c>
-      <c r="C237" t="s">
-        <v>779</v>
-      </c>
-      <c r="D237" t="s">
+      <c r="E237" t="s">
         <v>790</v>
-      </c>
-      <c r="E237" t="s">
-        <v>791</v>
       </c>
       <c r="F237" t="s">
         <v>19</v>
@@ -13257,19 +13245,19 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
+        <v>791</v>
+      </c>
+      <c r="B238" t="s">
+        <v>15</v>
+      </c>
+      <c r="C238" t="s">
+        <v>756</v>
+      </c>
+      <c r="D238" t="s">
         <v>792</v>
       </c>
-      <c r="B238" t="s">
-        <v>15</v>
-      </c>
-      <c r="C238" t="s">
-        <v>744</v>
-      </c>
-      <c r="D238" t="s">
+      <c r="E238" t="s">
         <v>793</v>
-      </c>
-      <c r="E238" t="s">
-        <v>794</v>
       </c>
       <c r="F238" t="s">
         <v>19</v>
@@ -13299,19 +13287,19 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
+        <v>794</v>
+      </c>
+      <c r="B239" t="s">
+        <v>15</v>
+      </c>
+      <c r="C239" t="s">
+        <v>775</v>
+      </c>
+      <c r="D239" t="s">
         <v>795</v>
       </c>
-      <c r="B239" t="s">
-        <v>15</v>
-      </c>
-      <c r="C239" t="s">
-        <v>760</v>
-      </c>
-      <c r="D239" t="s">
+      <c r="E239" t="s">
         <v>796</v>
-      </c>
-      <c r="E239" t="s">
-        <v>797</v>
       </c>
       <c r="F239" t="s">
         <v>19</v>
@@ -13341,19 +13329,19 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
+        <v>797</v>
+      </c>
+      <c r="B240" t="s">
+        <v>15</v>
+      </c>
+      <c r="C240" t="s">
+        <v>775</v>
+      </c>
+      <c r="D240" t="s">
         <v>798</v>
       </c>
-      <c r="B240" t="s">
-        <v>15</v>
-      </c>
-      <c r="C240" t="s">
-        <v>779</v>
-      </c>
-      <c r="D240" t="s">
+      <c r="E240" t="s">
         <v>799</v>
-      </c>
-      <c r="E240" t="s">
-        <v>800</v>
       </c>
       <c r="F240" t="s">
         <v>19</v>
@@ -13383,19 +13371,19 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
+        <v>800</v>
+      </c>
+      <c r="B241" t="s">
+        <v>15</v>
+      </c>
+      <c r="C241" t="s">
+        <v>740</v>
+      </c>
+      <c r="D241" t="s">
         <v>801</v>
       </c>
-      <c r="B241" t="s">
-        <v>15</v>
-      </c>
-      <c r="C241" t="s">
-        <v>779</v>
-      </c>
-      <c r="D241" t="s">
+      <c r="E241" t="s">
         <v>802</v>
-      </c>
-      <c r="E241" t="s">
-        <v>803</v>
       </c>
       <c r="F241" t="s">
         <v>19</v>
@@ -13425,19 +13413,19 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
+        <v>803</v>
+      </c>
+      <c r="B242" t="s">
+        <v>15</v>
+      </c>
+      <c r="C242" t="s">
+        <v>740</v>
+      </c>
+      <c r="D242" t="s">
         <v>804</v>
       </c>
-      <c r="B242" t="s">
-        <v>15</v>
-      </c>
-      <c r="C242" t="s">
-        <v>744</v>
-      </c>
-      <c r="D242" t="s">
+      <c r="E242" t="s">
         <v>805</v>
-      </c>
-      <c r="E242" t="s">
-        <v>806</v>
       </c>
       <c r="F242" t="s">
         <v>19</v>
@@ -13467,19 +13455,19 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
+        <v>806</v>
+      </c>
+      <c r="B243" t="s">
+        <v>15</v>
+      </c>
+      <c r="C243" t="s">
+        <v>756</v>
+      </c>
+      <c r="D243" t="s">
         <v>807</v>
       </c>
-      <c r="B243" t="s">
-        <v>15</v>
-      </c>
-      <c r="C243" t="s">
-        <v>744</v>
-      </c>
-      <c r="D243" t="s">
+      <c r="E243" t="s">
         <v>808</v>
-      </c>
-      <c r="E243" t="s">
-        <v>809</v>
       </c>
       <c r="F243" t="s">
         <v>19</v>
@@ -13509,19 +13497,19 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
+        <v>809</v>
+      </c>
+      <c r="B244" t="s">
+        <v>15</v>
+      </c>
+      <c r="C244" t="s">
+        <v>744</v>
+      </c>
+      <c r="D244" t="s">
         <v>810</v>
       </c>
-      <c r="B244" t="s">
-        <v>15</v>
-      </c>
-      <c r="C244" t="s">
-        <v>760</v>
-      </c>
-      <c r="D244" t="s">
+      <c r="E244" t="s">
         <v>811</v>
-      </c>
-      <c r="E244" t="s">
-        <v>812</v>
       </c>
       <c r="F244" t="s">
         <v>19</v>
@@ -13551,7 +13539,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B245" t="s">
         <v>15</v>
@@ -13560,10 +13548,10 @@
         <v>748</v>
       </c>
       <c r="D245" t="s">
+        <v>813</v>
+      </c>
+      <c r="E245" t="s">
         <v>814</v>
-      </c>
-      <c r="E245" t="s">
-        <v>815</v>
       </c>
       <c r="F245" t="s">
         <v>19</v>
@@ -13593,19 +13581,19 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
+        <v>815</v>
+      </c>
+      <c r="B246" t="s">
+        <v>15</v>
+      </c>
+      <c r="C246" t="s">
+        <v>756</v>
+      </c>
+      <c r="D246" t="s">
         <v>816</v>
       </c>
-      <c r="B246" t="s">
-        <v>15</v>
-      </c>
-      <c r="C246" t="s">
-        <v>752</v>
-      </c>
-      <c r="D246" t="s">
+      <c r="E246" t="s">
         <v>817</v>
-      </c>
-      <c r="E246" t="s">
-        <v>818</v>
       </c>
       <c r="F246" t="s">
         <v>19</v>
@@ -13635,19 +13623,19 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
+        <v>818</v>
+      </c>
+      <c r="B247" t="s">
+        <v>15</v>
+      </c>
+      <c r="C247" t="s">
+        <v>613</v>
+      </c>
+      <c r="D247" t="s">
         <v>819</v>
       </c>
-      <c r="B247" t="s">
-        <v>15</v>
-      </c>
-      <c r="C247" t="s">
-        <v>760</v>
-      </c>
-      <c r="D247" t="s">
+      <c r="E247" t="s">
         <v>820</v>
-      </c>
-      <c r="E247" t="s">
-        <v>821</v>
       </c>
       <c r="F247" t="s">
         <v>19</v>
@@ -13677,19 +13665,19 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
+        <v>821</v>
+      </c>
+      <c r="B248" t="s">
+        <v>15</v>
+      </c>
+      <c r="C248" t="s">
+        <v>573</v>
+      </c>
+      <c r="D248" t="s">
         <v>822</v>
       </c>
-      <c r="B248" t="s">
-        <v>15</v>
-      </c>
-      <c r="C248" t="s">
-        <v>613</v>
-      </c>
-      <c r="D248" t="s">
+      <c r="E248" t="s">
         <v>823</v>
-      </c>
-      <c r="E248" t="s">
-        <v>824</v>
       </c>
       <c r="F248" t="s">
         <v>19</v>
@@ -13719,13 +13707,13 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
+        <v>824</v>
+      </c>
+      <c r="B249" t="s">
+        <v>15</v>
+      </c>
+      <c r="C249" t="s">
         <v>825</v>
-      </c>
-      <c r="B249" t="s">
-        <v>15</v>
-      </c>
-      <c r="C249" t="s">
-        <v>573</v>
       </c>
       <c r="D249" t="s">
         <v>826</v>
@@ -13767,13 +13755,13 @@
         <v>15</v>
       </c>
       <c r="C250" t="s">
+        <v>756</v>
+      </c>
+      <c r="D250" t="s">
         <v>829</v>
       </c>
-      <c r="D250" t="s">
+      <c r="E250" t="s">
         <v>830</v>
-      </c>
-      <c r="E250" t="s">
-        <v>831</v>
       </c>
       <c r="F250" t="s">
         <v>19</v>
@@ -13803,19 +13791,19 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
+        <v>831</v>
+      </c>
+      <c r="B251" t="s">
+        <v>15</v>
+      </c>
+      <c r="C251" t="s">
+        <v>724</v>
+      </c>
+      <c r="D251" t="s">
         <v>832</v>
       </c>
-      <c r="B251" t="s">
-        <v>15</v>
-      </c>
-      <c r="C251" t="s">
-        <v>760</v>
-      </c>
-      <c r="D251" t="s">
+      <c r="E251" t="s">
         <v>833</v>
-      </c>
-      <c r="E251" t="s">
-        <v>834</v>
       </c>
       <c r="F251" t="s">
         <v>19</v>
@@ -13845,19 +13833,19 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
+        <v>834</v>
+      </c>
+      <c r="B252" t="s">
+        <v>15</v>
+      </c>
+      <c r="C252" t="s">
+        <v>779</v>
+      </c>
+      <c r="D252" t="s">
         <v>835</v>
       </c>
-      <c r="B252" t="s">
-        <v>15</v>
-      </c>
-      <c r="C252" t="s">
-        <v>728</v>
-      </c>
-      <c r="D252" t="s">
+      <c r="E252" t="s">
         <v>836</v>
-      </c>
-      <c r="E252" t="s">
-        <v>837</v>
       </c>
       <c r="F252" t="s">
         <v>19</v>
@@ -13887,19 +13875,19 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
+        <v>837</v>
+      </c>
+      <c r="B253" t="s">
+        <v>15</v>
+      </c>
+      <c r="C253" t="s">
+        <v>724</v>
+      </c>
+      <c r="D253" t="s">
         <v>838</v>
       </c>
-      <c r="B253" t="s">
-        <v>15</v>
-      </c>
-      <c r="C253" t="s">
-        <v>783</v>
-      </c>
-      <c r="D253" t="s">
+      <c r="E253" t="s">
         <v>839</v>
-      </c>
-      <c r="E253" t="s">
-        <v>840</v>
       </c>
       <c r="F253" t="s">
         <v>19</v>
@@ -13929,19 +13917,19 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
+        <v>840</v>
+      </c>
+      <c r="B254" t="s">
+        <v>15</v>
+      </c>
+      <c r="C254" t="s">
+        <v>609</v>
+      </c>
+      <c r="D254" t="s">
         <v>841</v>
       </c>
-      <c r="B254" t="s">
-        <v>15</v>
-      </c>
-      <c r="C254" t="s">
-        <v>728</v>
-      </c>
-      <c r="D254" t="s">
+      <c r="E254" t="s">
         <v>842</v>
-      </c>
-      <c r="E254" t="s">
-        <v>843</v>
       </c>
       <c r="F254" t="s">
         <v>19</v>
@@ -13971,19 +13959,19 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
+        <v>843</v>
+      </c>
+      <c r="B255" t="s">
+        <v>15</v>
+      </c>
+      <c r="C255" t="s">
+        <v>744</v>
+      </c>
+      <c r="D255" t="s">
         <v>844</v>
       </c>
-      <c r="B255" t="s">
-        <v>15</v>
-      </c>
-      <c r="C255" t="s">
-        <v>609</v>
-      </c>
-      <c r="D255" t="s">
+      <c r="E255" t="s">
         <v>845</v>
-      </c>
-      <c r="E255" t="s">
-        <v>846</v>
       </c>
       <c r="F255" t="s">
         <v>19</v>
@@ -14013,19 +14001,19 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
+        <v>846</v>
+      </c>
+      <c r="B256" t="s">
+        <v>15</v>
+      </c>
+      <c r="C256" t="s">
+        <v>752</v>
+      </c>
+      <c r="D256" t="s">
         <v>847</v>
       </c>
-      <c r="B256" t="s">
-        <v>15</v>
-      </c>
-      <c r="C256" t="s">
-        <v>748</v>
-      </c>
-      <c r="D256" t="s">
+      <c r="E256" t="s">
         <v>848</v>
-      </c>
-      <c r="E256" t="s">
-        <v>849</v>
       </c>
       <c r="F256" t="s">
         <v>19</v>
@@ -14055,19 +14043,19 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
+        <v>849</v>
+      </c>
+      <c r="B257" t="s">
+        <v>15</v>
+      </c>
+      <c r="C257" t="s">
+        <v>601</v>
+      </c>
+      <c r="D257" t="s">
         <v>850</v>
       </c>
-      <c r="B257" t="s">
-        <v>15</v>
-      </c>
-      <c r="C257" t="s">
-        <v>756</v>
-      </c>
-      <c r="D257" t="s">
+      <c r="E257" t="s">
         <v>851</v>
-      </c>
-      <c r="E257" t="s">
-        <v>852</v>
       </c>
       <c r="F257" t="s">
         <v>19</v>
@@ -14097,19 +14085,19 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
+        <v>852</v>
+      </c>
+      <c r="B258" t="s">
+        <v>15</v>
+      </c>
+      <c r="C258" t="s">
+        <v>710</v>
+      </c>
+      <c r="D258" t="s">
         <v>853</v>
       </c>
-      <c r="B258" t="s">
-        <v>15</v>
-      </c>
-      <c r="C258" t="s">
-        <v>601</v>
-      </c>
-      <c r="D258" t="s">
+      <c r="E258" t="s">
         <v>854</v>
-      </c>
-      <c r="E258" t="s">
-        <v>855</v>
       </c>
       <c r="F258" t="s">
         <v>19</v>
@@ -14139,19 +14127,19 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
+        <v>855</v>
+      </c>
+      <c r="B259" t="s">
+        <v>15</v>
+      </c>
+      <c r="C259" t="s">
+        <v>752</v>
+      </c>
+      <c r="D259" t="s">
         <v>856</v>
       </c>
-      <c r="B259" t="s">
-        <v>15</v>
-      </c>
-      <c r="C259" t="s">
-        <v>714</v>
-      </c>
-      <c r="D259" t="s">
+      <c r="E259" t="s">
         <v>857</v>
-      </c>
-      <c r="E259" t="s">
-        <v>858</v>
       </c>
       <c r="F259" t="s">
         <v>19</v>
@@ -14181,19 +14169,19 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
+        <v>858</v>
+      </c>
+      <c r="B260" t="s">
+        <v>15</v>
+      </c>
+      <c r="C260" t="s">
+        <v>748</v>
+      </c>
+      <c r="D260" t="s">
         <v>859</v>
       </c>
-      <c r="B260" t="s">
-        <v>15</v>
-      </c>
-      <c r="C260" t="s">
-        <v>756</v>
-      </c>
-      <c r="D260" t="s">
+      <c r="E260" t="s">
         <v>860</v>
-      </c>
-      <c r="E260" t="s">
-        <v>861</v>
       </c>
       <c r="F260" t="s">
         <v>19</v>
@@ -14223,19 +14211,19 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
+        <v>861</v>
+      </c>
+      <c r="B261" t="s">
+        <v>15</v>
+      </c>
+      <c r="C261" t="s">
+        <v>748</v>
+      </c>
+      <c r="D261" t="s">
         <v>862</v>
       </c>
-      <c r="B261" t="s">
-        <v>15</v>
-      </c>
-      <c r="C261" t="s">
-        <v>752</v>
-      </c>
-      <c r="D261" t="s">
+      <c r="E261" t="s">
         <v>863</v>
-      </c>
-      <c r="E261" t="s">
-        <v>864</v>
       </c>
       <c r="F261" t="s">
         <v>19</v>
@@ -14265,19 +14253,19 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
+        <v>864</v>
+      </c>
+      <c r="B262" t="s">
+        <v>15</v>
+      </c>
+      <c r="C262" t="s">
+        <v>573</v>
+      </c>
+      <c r="D262" t="s">
         <v>865</v>
       </c>
-      <c r="B262" t="s">
-        <v>15</v>
-      </c>
-      <c r="C262" t="s">
-        <v>752</v>
-      </c>
-      <c r="D262" t="s">
-        <v>866</v>
-      </c>
       <c r="E262" t="s">
-        <v>867</v>
+        <v>802</v>
       </c>
       <c r="F262" t="s">
         <v>19</v>
@@ -14307,19 +14295,19 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
+        <v>866</v>
+      </c>
+      <c r="B263" t="s">
+        <v>15</v>
+      </c>
+      <c r="C263" t="s">
+        <v>760</v>
+      </c>
+      <c r="D263" t="s">
+        <v>867</v>
+      </c>
+      <c r="E263" t="s">
         <v>868</v>
-      </c>
-      <c r="B263" t="s">
-        <v>15</v>
-      </c>
-      <c r="C263" t="s">
-        <v>573</v>
-      </c>
-      <c r="D263" t="s">
-        <v>869</v>
-      </c>
-      <c r="E263" t="s">
-        <v>806</v>
       </c>
       <c r="F263" t="s">
         <v>19</v>
@@ -14349,19 +14337,19 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
+        <v>869</v>
+      </c>
+      <c r="B264" t="s">
+        <v>15</v>
+      </c>
+      <c r="C264" t="s">
+        <v>760</v>
+      </c>
+      <c r="D264" t="s">
         <v>870</v>
       </c>
-      <c r="B264" t="s">
-        <v>15</v>
-      </c>
-      <c r="C264" t="s">
-        <v>764</v>
-      </c>
-      <c r="D264" t="s">
+      <c r="E264" t="s">
         <v>871</v>
-      </c>
-      <c r="E264" t="s">
-        <v>872</v>
       </c>
       <c r="F264" t="s">
         <v>19</v>
@@ -14391,19 +14379,19 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
+        <v>872</v>
+      </c>
+      <c r="B265" t="s">
+        <v>15</v>
+      </c>
+      <c r="C265" t="s">
+        <v>710</v>
+      </c>
+      <c r="D265" t="s">
         <v>873</v>
       </c>
-      <c r="B265" t="s">
-        <v>15</v>
-      </c>
-      <c r="C265" t="s">
-        <v>764</v>
-      </c>
-      <c r="D265" t="s">
+      <c r="E265" t="s">
         <v>874</v>
-      </c>
-      <c r="E265" t="s">
-        <v>875</v>
       </c>
       <c r="F265" t="s">
         <v>19</v>
@@ -14433,19 +14421,19 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
+        <v>875</v>
+      </c>
+      <c r="B266" t="s">
+        <v>15</v>
+      </c>
+      <c r="C266" t="s">
+        <v>775</v>
+      </c>
+      <c r="D266" t="s">
         <v>876</v>
       </c>
-      <c r="B266" t="s">
-        <v>15</v>
-      </c>
-      <c r="C266" t="s">
-        <v>714</v>
-      </c>
-      <c r="D266" t="s">
+      <c r="E266" t="s">
         <v>877</v>
-      </c>
-      <c r="E266" t="s">
-        <v>878</v>
       </c>
       <c r="F266" t="s">
         <v>19</v>
@@ -14475,19 +14463,19 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
+        <v>878</v>
+      </c>
+      <c r="B267" t="s">
+        <v>15</v>
+      </c>
+      <c r="C267" t="s">
+        <v>760</v>
+      </c>
+      <c r="D267" t="s">
         <v>879</v>
       </c>
-      <c r="B267" t="s">
-        <v>15</v>
-      </c>
-      <c r="C267" t="s">
-        <v>779</v>
-      </c>
-      <c r="D267" t="s">
+      <c r="E267" t="s">
         <v>880</v>
-      </c>
-      <c r="E267" t="s">
-        <v>881</v>
       </c>
       <c r="F267" t="s">
         <v>19</v>
@@ -14517,19 +14505,19 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
+        <v>881</v>
+      </c>
+      <c r="B268" t="s">
+        <v>15</v>
+      </c>
+      <c r="C268" t="s">
+        <v>760</v>
+      </c>
+      <c r="D268" t="s">
         <v>882</v>
       </c>
-      <c r="B268" t="s">
-        <v>15</v>
-      </c>
-      <c r="C268" t="s">
-        <v>764</v>
-      </c>
-      <c r="D268" t="s">
+      <c r="E268" t="s">
         <v>883</v>
-      </c>
-      <c r="E268" t="s">
-        <v>884</v>
       </c>
       <c r="F268" t="s">
         <v>19</v>
@@ -14559,19 +14547,19 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
+        <v>884</v>
+      </c>
+      <c r="B269" t="s">
+        <v>15</v>
+      </c>
+      <c r="C269" t="s">
+        <v>779</v>
+      </c>
+      <c r="D269" t="s">
         <v>885</v>
       </c>
-      <c r="B269" t="s">
-        <v>15</v>
-      </c>
-      <c r="C269" t="s">
-        <v>764</v>
-      </c>
-      <c r="D269" t="s">
+      <c r="E269" t="s">
         <v>886</v>
-      </c>
-      <c r="E269" t="s">
-        <v>887</v>
       </c>
       <c r="F269" t="s">
         <v>19</v>
@@ -14601,19 +14589,19 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
+        <v>887</v>
+      </c>
+      <c r="B270" t="s">
+        <v>15</v>
+      </c>
+      <c r="C270" t="s">
+        <v>779</v>
+      </c>
+      <c r="D270" t="s">
         <v>888</v>
       </c>
-      <c r="B270" t="s">
-        <v>15</v>
-      </c>
-      <c r="C270" t="s">
-        <v>783</v>
-      </c>
-      <c r="D270" t="s">
+      <c r="E270" t="s">
         <v>889</v>
-      </c>
-      <c r="E270" t="s">
-        <v>890</v>
       </c>
       <c r="F270" t="s">
         <v>19</v>
@@ -14643,19 +14631,19 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
+        <v>890</v>
+      </c>
+      <c r="B271" t="s">
+        <v>15</v>
+      </c>
+      <c r="C271" t="s">
+        <v>748</v>
+      </c>
+      <c r="D271" t="s">
         <v>891</v>
       </c>
-      <c r="B271" t="s">
-        <v>15</v>
-      </c>
-      <c r="C271" t="s">
-        <v>783</v>
-      </c>
-      <c r="D271" t="s">
+      <c r="E271" t="s">
         <v>892</v>
-      </c>
-      <c r="E271" t="s">
-        <v>893</v>
       </c>
       <c r="F271" t="s">
         <v>19</v>
@@ -14685,13 +14673,13 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
+        <v>893</v>
+      </c>
+      <c r="B272" t="s">
+        <v>15</v>
+      </c>
+      <c r="C272" t="s">
         <v>894</v>
-      </c>
-      <c r="B272" t="s">
-        <v>15</v>
-      </c>
-      <c r="C272" t="s">
-        <v>752</v>
       </c>
       <c r="D272" t="s">
         <v>895</v>
@@ -14733,13 +14721,13 @@
         <v>15</v>
       </c>
       <c r="C273" t="s">
+        <v>894</v>
+      </c>
+      <c r="D273" t="s">
         <v>898</v>
       </c>
-      <c r="D273" t="s">
+      <c r="E273" t="s">
         <v>899</v>
-      </c>
-      <c r="E273" t="s">
-        <v>900</v>
       </c>
       <c r="F273" t="s">
         <v>19</v>
@@ -14769,19 +14757,19 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
+        <v>900</v>
+      </c>
+      <c r="B274" t="s">
+        <v>15</v>
+      </c>
+      <c r="C274" t="s">
+        <v>894</v>
+      </c>
+      <c r="D274" t="s">
         <v>901</v>
       </c>
-      <c r="B274" t="s">
-        <v>15</v>
-      </c>
-      <c r="C274" t="s">
-        <v>898</v>
-      </c>
-      <c r="D274" t="s">
+      <c r="E274" t="s">
         <v>902</v>
-      </c>
-      <c r="E274" t="s">
-        <v>903</v>
       </c>
       <c r="F274" t="s">
         <v>19</v>
@@ -14811,19 +14799,19 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
+        <v>903</v>
+      </c>
+      <c r="B275" t="s">
+        <v>15</v>
+      </c>
+      <c r="C275" t="s">
+        <v>894</v>
+      </c>
+      <c r="D275" t="s">
         <v>904</v>
       </c>
-      <c r="B275" t="s">
-        <v>15</v>
-      </c>
-      <c r="C275" t="s">
-        <v>898</v>
-      </c>
-      <c r="D275" t="s">
+      <c r="E275" t="s">
         <v>905</v>
-      </c>
-      <c r="E275" t="s">
-        <v>906</v>
       </c>
       <c r="F275" t="s">
         <v>19</v>
@@ -14853,19 +14841,19 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
+        <v>906</v>
+      </c>
+      <c r="B276" t="s">
+        <v>15</v>
+      </c>
+      <c r="C276" t="s">
+        <v>894</v>
+      </c>
+      <c r="D276" t="s">
         <v>907</v>
       </c>
-      <c r="B276" t="s">
-        <v>15</v>
-      </c>
-      <c r="C276" t="s">
-        <v>898</v>
-      </c>
-      <c r="D276" t="s">
+      <c r="E276" t="s">
         <v>908</v>
-      </c>
-      <c r="E276" t="s">
-        <v>909</v>
       </c>
       <c r="F276" t="s">
         <v>19</v>
@@ -14895,19 +14883,19 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
+        <v>909</v>
+      </c>
+      <c r="B277" t="s">
+        <v>15</v>
+      </c>
+      <c r="C277" t="s">
+        <v>894</v>
+      </c>
+      <c r="D277" t="s">
         <v>910</v>
       </c>
-      <c r="B277" t="s">
-        <v>15</v>
-      </c>
-      <c r="C277" t="s">
-        <v>898</v>
-      </c>
-      <c r="D277" t="s">
+      <c r="E277" t="s">
         <v>911</v>
-      </c>
-      <c r="E277" t="s">
-        <v>912</v>
       </c>
       <c r="F277" t="s">
         <v>19</v>
@@ -14937,13 +14925,13 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
+        <v>912</v>
+      </c>
+      <c r="B278" t="s">
+        <v>15</v>
+      </c>
+      <c r="C278" t="s">
         <v>913</v>
-      </c>
-      <c r="B278" t="s">
-        <v>15</v>
-      </c>
-      <c r="C278" t="s">
-        <v>898</v>
       </c>
       <c r="D278" t="s">
         <v>914</v>
@@ -14985,13 +14973,13 @@
         <v>15</v>
       </c>
       <c r="C279" t="s">
+        <v>913</v>
+      </c>
+      <c r="D279" t="s">
         <v>917</v>
       </c>
-      <c r="D279" t="s">
+      <c r="E279" t="s">
         <v>918</v>
-      </c>
-      <c r="E279" t="s">
-        <v>919</v>
       </c>
       <c r="F279" t="s">
         <v>19</v>
@@ -15021,19 +15009,19 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
+        <v>919</v>
+      </c>
+      <c r="B280" t="s">
+        <v>15</v>
+      </c>
+      <c r="C280" t="s">
+        <v>913</v>
+      </c>
+      <c r="D280" t="s">
         <v>920</v>
       </c>
-      <c r="B280" t="s">
-        <v>15</v>
-      </c>
-      <c r="C280" t="s">
-        <v>917</v>
-      </c>
-      <c r="D280" t="s">
+      <c r="E280" t="s">
         <v>921</v>
-      </c>
-      <c r="E280" t="s">
-        <v>922</v>
       </c>
       <c r="F280" t="s">
         <v>19</v>
@@ -15063,19 +15051,19 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
+        <v>922</v>
+      </c>
+      <c r="B281" t="s">
+        <v>15</v>
+      </c>
+      <c r="C281" t="s">
+        <v>913</v>
+      </c>
+      <c r="D281" t="s">
         <v>923</v>
       </c>
-      <c r="B281" t="s">
-        <v>15</v>
-      </c>
-      <c r="C281" t="s">
-        <v>917</v>
-      </c>
-      <c r="D281" t="s">
+      <c r="E281" t="s">
         <v>924</v>
-      </c>
-      <c r="E281" t="s">
-        <v>925</v>
       </c>
       <c r="F281" t="s">
         <v>19</v>
@@ -15105,19 +15093,19 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
+        <v>925</v>
+      </c>
+      <c r="B282" t="s">
+        <v>15</v>
+      </c>
+      <c r="C282" t="s">
+        <v>913</v>
+      </c>
+      <c r="D282" t="s">
         <v>926</v>
       </c>
-      <c r="B282" t="s">
-        <v>15</v>
-      </c>
-      <c r="C282" t="s">
-        <v>917</v>
-      </c>
-      <c r="D282" t="s">
+      <c r="E282" t="s">
         <v>927</v>
-      </c>
-      <c r="E282" t="s">
-        <v>928</v>
       </c>
       <c r="F282" t="s">
         <v>19</v>
@@ -15147,19 +15135,19 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
+        <v>928</v>
+      </c>
+      <c r="B283" t="s">
+        <v>15</v>
+      </c>
+      <c r="C283" t="s">
+        <v>913</v>
+      </c>
+      <c r="D283" t="s">
         <v>929</v>
       </c>
-      <c r="B283" t="s">
-        <v>15</v>
-      </c>
-      <c r="C283" t="s">
-        <v>917</v>
-      </c>
-      <c r="D283" t="s">
+      <c r="E283" t="s">
         <v>930</v>
-      </c>
-      <c r="E283" t="s">
-        <v>931</v>
       </c>
       <c r="F283" t="s">
         <v>19</v>
@@ -15189,19 +15177,19 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
+        <v>931</v>
+      </c>
+      <c r="B284" t="s">
+        <v>15</v>
+      </c>
+      <c r="C284" t="s">
+        <v>601</v>
+      </c>
+      <c r="D284" t="s">
+        <v>844</v>
+      </c>
+      <c r="E284" t="s">
         <v>932</v>
-      </c>
-      <c r="B284" t="s">
-        <v>15</v>
-      </c>
-      <c r="C284" t="s">
-        <v>917</v>
-      </c>
-      <c r="D284" t="s">
-        <v>933</v>
-      </c>
-      <c r="E284" t="s">
-        <v>934</v>
       </c>
       <c r="F284" t="s">
         <v>19</v>
@@ -15231,16 +15219,16 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
+        <v>933</v>
+      </c>
+      <c r="B285" t="s">
+        <v>15</v>
+      </c>
+      <c r="C285" t="s">
+        <v>934</v>
+      </c>
+      <c r="D285" t="s">
         <v>935</v>
-      </c>
-      <c r="B285" t="s">
-        <v>15</v>
-      </c>
-      <c r="C285" t="s">
-        <v>601</v>
-      </c>
-      <c r="D285" t="s">
-        <v>848</v>
       </c>
       <c r="E285" t="s">
         <v>936</v>
@@ -15251,7 +15239,9 @@
       <c r="G285" t="s">
         <v>20</v>
       </c>
-      <c r="H285" s="2"/>
+      <c r="H285" t="s">
+        <v>937</v>
+      </c>
       <c r="I285" t="s">
         <v>21</v>
       </c>
@@ -15273,19 +15263,19 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B286" t="s">
         <v>15</v>
       </c>
       <c r="C286" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D286" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E286" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="F286" t="s">
         <v>19</v>
@@ -15294,7 +15284,7 @@
         <v>20</v>
       </c>
       <c r="H286" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="I286" t="s">
         <v>21</v>
@@ -15317,13 +15307,13 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B287" t="s">
         <v>15</v>
       </c>
       <c r="C287" t="s">
-        <v>943</v>
+        <v>99</v>
       </c>
       <c r="D287" t="s">
         <v>944</v>
@@ -15367,7 +15357,7 @@
         <v>15</v>
       </c>
       <c r="C288" t="s">
-        <v>99</v>
+        <v>939</v>
       </c>
       <c r="D288" t="s">
         <v>948</v>
@@ -15411,7 +15401,7 @@
         <v>15</v>
       </c>
       <c r="C289" t="s">
-        <v>943</v>
+        <v>132</v>
       </c>
       <c r="D289" t="s">
         <v>952</v>
@@ -15455,7 +15445,7 @@
         <v>15</v>
       </c>
       <c r="C290" t="s">
-        <v>132</v>
+        <v>267</v>
       </c>
       <c r="D290" t="s">
         <v>956</v>
@@ -15488,50 +15478,6 @@
         <v>25</v>
       </c>
       <c r="N290" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s">
-        <v>959</v>
-      </c>
-      <c r="B291" t="s">
-        <v>15</v>
-      </c>
-      <c r="C291" t="s">
-        <v>267</v>
-      </c>
-      <c r="D291" t="s">
-        <v>960</v>
-      </c>
-      <c r="E291" t="s">
-        <v>961</v>
-      </c>
-      <c r="F291" t="s">
-        <v>19</v>
-      </c>
-      <c r="G291" t="s">
-        <v>20</v>
-      </c>
-      <c r="H291" t="s">
-        <v>962</v>
-      </c>
-      <c r="I291" t="s">
-        <v>21</v>
-      </c>
-      <c r="J291" t="s">
-        <v>22</v>
-      </c>
-      <c r="K291" t="s">
-        <v>23</v>
-      </c>
-      <c r="L291" t="s">
-        <v>24</v>
-      </c>
-      <c r="M291" t="s">
-        <v>25</v>
-      </c>
-      <c r="N291" t="s">
         <v>26</v>
       </c>
     </row>
@@ -15551,10 +15497,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="2">
@@ -15562,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="3">
@@ -15570,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="4">
@@ -15578,7 +15524,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="5">
@@ -15586,7 +15532,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="6">
@@ -15594,7 +15540,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="7">
@@ -15602,7 +15548,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="8">
@@ -15610,7 +15556,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="9">
@@ -15618,7 +15564,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="10">
@@ -15626,7 +15572,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="11">
@@ -15634,7 +15580,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="12">
@@ -15642,7 +15588,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="13">
@@ -15650,7 +15596,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="14">
@@ -15658,7 +15604,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="15">
@@ -15666,7 +15612,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
   </sheetData>
